--- a/templates/standard.xlsx
+++ b/templates/standard.xlsx
@@ -583,15 +583,17 @@
   <dimension ref="A2:M211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="32.75" style="1" customWidth="1"/>
-    <col min="4" max="11" width="11.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="33.875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="5.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="35.625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/templates/standard.xlsx
+++ b/templates/standard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>建设项目名称：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>工程或费用名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一部分 工程费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +284,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,6 +315,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,7 +606,7 @@
   <dimension ref="A2:M211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -598,19 +621,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -629,33 +652,33 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="13" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
@@ -680,7 +703,7 @@
       <c r="K5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -720,20 +743,24 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="2"/>
+    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>

--- a/templates/standard.xlsx
+++ b/templates/standard.xlsx
@@ -25,10 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>建设项目名称：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +92,10 @@
   </si>
   <si>
     <t>第一部分 工程费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设项目名称：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,6 +293,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,12 +324,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,40 +609,41 @@
   <dimension ref="A2:M211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="35.625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
-        <v>8</v>
+      <c r="B2" s="18" t="s">
+        <v>7</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
+      <c r="B3" s="16" t="s">
+        <v>16</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -652,58 +656,58 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>14</v>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
+        <v>3</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
+      <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="16" t="s">
-        <v>7</v>
+      <c r="J5" s="5" t="s">
+        <v>5</v>
       </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -743,13 +747,13 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+    <row r="7" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
       <c r="B7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -760,7 +764,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="22"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>

--- a/templates/standard.xlsx
+++ b/templates/standard.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,12 +99,257 @@
     <t>建设项目名称：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>安      装     工     程     估     算     表</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>技术经济指标</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">____ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>工</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>费</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>称</t>
+    </r>
+  </si>
+  <si>
+    <t>估算价值</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>数 量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>价</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>合</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>价</t>
+    </r>
+  </si>
+  <si>
+    <t>小计</t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>次要项目费 5％</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>安装费 15%</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,16 +388,123 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -244,13 +597,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,9 +769,323 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Normal_单项表" xfId="3"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规_HGX-P-clb1a" xfId="4"/>
+    <cellStyle name="常规_初设安装工程-to孙晨" xfId="2"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -608,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3714,4 +4471,2436 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M176"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="5" style="29" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="125" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="126" customWidth="1"/>
+    <col min="6" max="6" width="9" style="126"/>
+    <col min="7" max="7" width="9.25" style="127" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="128" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="29" customWidth="1"/>
+    <col min="10" max="256" width="9" style="29"/>
+    <col min="257" max="257" width="3.125" style="29" customWidth="1"/>
+    <col min="258" max="258" width="5" style="29" customWidth="1"/>
+    <col min="259" max="259" width="17.625" style="29" customWidth="1"/>
+    <col min="260" max="260" width="21.75" style="29" customWidth="1"/>
+    <col min="261" max="261" width="5.25" style="29" customWidth="1"/>
+    <col min="262" max="262" width="9" style="29"/>
+    <col min="263" max="264" width="9.25" style="29" customWidth="1"/>
+    <col min="265" max="265" width="8.375" style="29" customWidth="1"/>
+    <col min="266" max="512" width="9" style="29"/>
+    <col min="513" max="513" width="3.125" style="29" customWidth="1"/>
+    <col min="514" max="514" width="5" style="29" customWidth="1"/>
+    <col min="515" max="515" width="17.625" style="29" customWidth="1"/>
+    <col min="516" max="516" width="21.75" style="29" customWidth="1"/>
+    <col min="517" max="517" width="5.25" style="29" customWidth="1"/>
+    <col min="518" max="518" width="9" style="29"/>
+    <col min="519" max="520" width="9.25" style="29" customWidth="1"/>
+    <col min="521" max="521" width="8.375" style="29" customWidth="1"/>
+    <col min="522" max="768" width="9" style="29"/>
+    <col min="769" max="769" width="3.125" style="29" customWidth="1"/>
+    <col min="770" max="770" width="5" style="29" customWidth="1"/>
+    <col min="771" max="771" width="17.625" style="29" customWidth="1"/>
+    <col min="772" max="772" width="21.75" style="29" customWidth="1"/>
+    <col min="773" max="773" width="5.25" style="29" customWidth="1"/>
+    <col min="774" max="774" width="9" style="29"/>
+    <col min="775" max="776" width="9.25" style="29" customWidth="1"/>
+    <col min="777" max="777" width="8.375" style="29" customWidth="1"/>
+    <col min="778" max="1024" width="9" style="29"/>
+    <col min="1025" max="1025" width="3.125" style="29" customWidth="1"/>
+    <col min="1026" max="1026" width="5" style="29" customWidth="1"/>
+    <col min="1027" max="1027" width="17.625" style="29" customWidth="1"/>
+    <col min="1028" max="1028" width="21.75" style="29" customWidth="1"/>
+    <col min="1029" max="1029" width="5.25" style="29" customWidth="1"/>
+    <col min="1030" max="1030" width="9" style="29"/>
+    <col min="1031" max="1032" width="9.25" style="29" customWidth="1"/>
+    <col min="1033" max="1033" width="8.375" style="29" customWidth="1"/>
+    <col min="1034" max="1280" width="9" style="29"/>
+    <col min="1281" max="1281" width="3.125" style="29" customWidth="1"/>
+    <col min="1282" max="1282" width="5" style="29" customWidth="1"/>
+    <col min="1283" max="1283" width="17.625" style="29" customWidth="1"/>
+    <col min="1284" max="1284" width="21.75" style="29" customWidth="1"/>
+    <col min="1285" max="1285" width="5.25" style="29" customWidth="1"/>
+    <col min="1286" max="1286" width="9" style="29"/>
+    <col min="1287" max="1288" width="9.25" style="29" customWidth="1"/>
+    <col min="1289" max="1289" width="8.375" style="29" customWidth="1"/>
+    <col min="1290" max="1536" width="9" style="29"/>
+    <col min="1537" max="1537" width="3.125" style="29" customWidth="1"/>
+    <col min="1538" max="1538" width="5" style="29" customWidth="1"/>
+    <col min="1539" max="1539" width="17.625" style="29" customWidth="1"/>
+    <col min="1540" max="1540" width="21.75" style="29" customWidth="1"/>
+    <col min="1541" max="1541" width="5.25" style="29" customWidth="1"/>
+    <col min="1542" max="1542" width="9" style="29"/>
+    <col min="1543" max="1544" width="9.25" style="29" customWidth="1"/>
+    <col min="1545" max="1545" width="8.375" style="29" customWidth="1"/>
+    <col min="1546" max="1792" width="9" style="29"/>
+    <col min="1793" max="1793" width="3.125" style="29" customWidth="1"/>
+    <col min="1794" max="1794" width="5" style="29" customWidth="1"/>
+    <col min="1795" max="1795" width="17.625" style="29" customWidth="1"/>
+    <col min="1796" max="1796" width="21.75" style="29" customWidth="1"/>
+    <col min="1797" max="1797" width="5.25" style="29" customWidth="1"/>
+    <col min="1798" max="1798" width="9" style="29"/>
+    <col min="1799" max="1800" width="9.25" style="29" customWidth="1"/>
+    <col min="1801" max="1801" width="8.375" style="29" customWidth="1"/>
+    <col min="1802" max="2048" width="9" style="29"/>
+    <col min="2049" max="2049" width="3.125" style="29" customWidth="1"/>
+    <col min="2050" max="2050" width="5" style="29" customWidth="1"/>
+    <col min="2051" max="2051" width="17.625" style="29" customWidth="1"/>
+    <col min="2052" max="2052" width="21.75" style="29" customWidth="1"/>
+    <col min="2053" max="2053" width="5.25" style="29" customWidth="1"/>
+    <col min="2054" max="2054" width="9" style="29"/>
+    <col min="2055" max="2056" width="9.25" style="29" customWidth="1"/>
+    <col min="2057" max="2057" width="8.375" style="29" customWidth="1"/>
+    <col min="2058" max="2304" width="9" style="29"/>
+    <col min="2305" max="2305" width="3.125" style="29" customWidth="1"/>
+    <col min="2306" max="2306" width="5" style="29" customWidth="1"/>
+    <col min="2307" max="2307" width="17.625" style="29" customWidth="1"/>
+    <col min="2308" max="2308" width="21.75" style="29" customWidth="1"/>
+    <col min="2309" max="2309" width="5.25" style="29" customWidth="1"/>
+    <col min="2310" max="2310" width="9" style="29"/>
+    <col min="2311" max="2312" width="9.25" style="29" customWidth="1"/>
+    <col min="2313" max="2313" width="8.375" style="29" customWidth="1"/>
+    <col min="2314" max="2560" width="9" style="29"/>
+    <col min="2561" max="2561" width="3.125" style="29" customWidth="1"/>
+    <col min="2562" max="2562" width="5" style="29" customWidth="1"/>
+    <col min="2563" max="2563" width="17.625" style="29" customWidth="1"/>
+    <col min="2564" max="2564" width="21.75" style="29" customWidth="1"/>
+    <col min="2565" max="2565" width="5.25" style="29" customWidth="1"/>
+    <col min="2566" max="2566" width="9" style="29"/>
+    <col min="2567" max="2568" width="9.25" style="29" customWidth="1"/>
+    <col min="2569" max="2569" width="8.375" style="29" customWidth="1"/>
+    <col min="2570" max="2816" width="9" style="29"/>
+    <col min="2817" max="2817" width="3.125" style="29" customWidth="1"/>
+    <col min="2818" max="2818" width="5" style="29" customWidth="1"/>
+    <col min="2819" max="2819" width="17.625" style="29" customWidth="1"/>
+    <col min="2820" max="2820" width="21.75" style="29" customWidth="1"/>
+    <col min="2821" max="2821" width="5.25" style="29" customWidth="1"/>
+    <col min="2822" max="2822" width="9" style="29"/>
+    <col min="2823" max="2824" width="9.25" style="29" customWidth="1"/>
+    <col min="2825" max="2825" width="8.375" style="29" customWidth="1"/>
+    <col min="2826" max="3072" width="9" style="29"/>
+    <col min="3073" max="3073" width="3.125" style="29" customWidth="1"/>
+    <col min="3074" max="3074" width="5" style="29" customWidth="1"/>
+    <col min="3075" max="3075" width="17.625" style="29" customWidth="1"/>
+    <col min="3076" max="3076" width="21.75" style="29" customWidth="1"/>
+    <col min="3077" max="3077" width="5.25" style="29" customWidth="1"/>
+    <col min="3078" max="3078" width="9" style="29"/>
+    <col min="3079" max="3080" width="9.25" style="29" customWidth="1"/>
+    <col min="3081" max="3081" width="8.375" style="29" customWidth="1"/>
+    <col min="3082" max="3328" width="9" style="29"/>
+    <col min="3329" max="3329" width="3.125" style="29" customWidth="1"/>
+    <col min="3330" max="3330" width="5" style="29" customWidth="1"/>
+    <col min="3331" max="3331" width="17.625" style="29" customWidth="1"/>
+    <col min="3332" max="3332" width="21.75" style="29" customWidth="1"/>
+    <col min="3333" max="3333" width="5.25" style="29" customWidth="1"/>
+    <col min="3334" max="3334" width="9" style="29"/>
+    <col min="3335" max="3336" width="9.25" style="29" customWidth="1"/>
+    <col min="3337" max="3337" width="8.375" style="29" customWidth="1"/>
+    <col min="3338" max="3584" width="9" style="29"/>
+    <col min="3585" max="3585" width="3.125" style="29" customWidth="1"/>
+    <col min="3586" max="3586" width="5" style="29" customWidth="1"/>
+    <col min="3587" max="3587" width="17.625" style="29" customWidth="1"/>
+    <col min="3588" max="3588" width="21.75" style="29" customWidth="1"/>
+    <col min="3589" max="3589" width="5.25" style="29" customWidth="1"/>
+    <col min="3590" max="3590" width="9" style="29"/>
+    <col min="3591" max="3592" width="9.25" style="29" customWidth="1"/>
+    <col min="3593" max="3593" width="8.375" style="29" customWidth="1"/>
+    <col min="3594" max="3840" width="9" style="29"/>
+    <col min="3841" max="3841" width="3.125" style="29" customWidth="1"/>
+    <col min="3842" max="3842" width="5" style="29" customWidth="1"/>
+    <col min="3843" max="3843" width="17.625" style="29" customWidth="1"/>
+    <col min="3844" max="3844" width="21.75" style="29" customWidth="1"/>
+    <col min="3845" max="3845" width="5.25" style="29" customWidth="1"/>
+    <col min="3846" max="3846" width="9" style="29"/>
+    <col min="3847" max="3848" width="9.25" style="29" customWidth="1"/>
+    <col min="3849" max="3849" width="8.375" style="29" customWidth="1"/>
+    <col min="3850" max="4096" width="9" style="29"/>
+    <col min="4097" max="4097" width="3.125" style="29" customWidth="1"/>
+    <col min="4098" max="4098" width="5" style="29" customWidth="1"/>
+    <col min="4099" max="4099" width="17.625" style="29" customWidth="1"/>
+    <col min="4100" max="4100" width="21.75" style="29" customWidth="1"/>
+    <col min="4101" max="4101" width="5.25" style="29" customWidth="1"/>
+    <col min="4102" max="4102" width="9" style="29"/>
+    <col min="4103" max="4104" width="9.25" style="29" customWidth="1"/>
+    <col min="4105" max="4105" width="8.375" style="29" customWidth="1"/>
+    <col min="4106" max="4352" width="9" style="29"/>
+    <col min="4353" max="4353" width="3.125" style="29" customWidth="1"/>
+    <col min="4354" max="4354" width="5" style="29" customWidth="1"/>
+    <col min="4355" max="4355" width="17.625" style="29" customWidth="1"/>
+    <col min="4356" max="4356" width="21.75" style="29" customWidth="1"/>
+    <col min="4357" max="4357" width="5.25" style="29" customWidth="1"/>
+    <col min="4358" max="4358" width="9" style="29"/>
+    <col min="4359" max="4360" width="9.25" style="29" customWidth="1"/>
+    <col min="4361" max="4361" width="8.375" style="29" customWidth="1"/>
+    <col min="4362" max="4608" width="9" style="29"/>
+    <col min="4609" max="4609" width="3.125" style="29" customWidth="1"/>
+    <col min="4610" max="4610" width="5" style="29" customWidth="1"/>
+    <col min="4611" max="4611" width="17.625" style="29" customWidth="1"/>
+    <col min="4612" max="4612" width="21.75" style="29" customWidth="1"/>
+    <col min="4613" max="4613" width="5.25" style="29" customWidth="1"/>
+    <col min="4614" max="4614" width="9" style="29"/>
+    <col min="4615" max="4616" width="9.25" style="29" customWidth="1"/>
+    <col min="4617" max="4617" width="8.375" style="29" customWidth="1"/>
+    <col min="4618" max="4864" width="9" style="29"/>
+    <col min="4865" max="4865" width="3.125" style="29" customWidth="1"/>
+    <col min="4866" max="4866" width="5" style="29" customWidth="1"/>
+    <col min="4867" max="4867" width="17.625" style="29" customWidth="1"/>
+    <col min="4868" max="4868" width="21.75" style="29" customWidth="1"/>
+    <col min="4869" max="4869" width="5.25" style="29" customWidth="1"/>
+    <col min="4870" max="4870" width="9" style="29"/>
+    <col min="4871" max="4872" width="9.25" style="29" customWidth="1"/>
+    <col min="4873" max="4873" width="8.375" style="29" customWidth="1"/>
+    <col min="4874" max="5120" width="9" style="29"/>
+    <col min="5121" max="5121" width="3.125" style="29" customWidth="1"/>
+    <col min="5122" max="5122" width="5" style="29" customWidth="1"/>
+    <col min="5123" max="5123" width="17.625" style="29" customWidth="1"/>
+    <col min="5124" max="5124" width="21.75" style="29" customWidth="1"/>
+    <col min="5125" max="5125" width="5.25" style="29" customWidth="1"/>
+    <col min="5126" max="5126" width="9" style="29"/>
+    <col min="5127" max="5128" width="9.25" style="29" customWidth="1"/>
+    <col min="5129" max="5129" width="8.375" style="29" customWidth="1"/>
+    <col min="5130" max="5376" width="9" style="29"/>
+    <col min="5377" max="5377" width="3.125" style="29" customWidth="1"/>
+    <col min="5378" max="5378" width="5" style="29" customWidth="1"/>
+    <col min="5379" max="5379" width="17.625" style="29" customWidth="1"/>
+    <col min="5380" max="5380" width="21.75" style="29" customWidth="1"/>
+    <col min="5381" max="5381" width="5.25" style="29" customWidth="1"/>
+    <col min="5382" max="5382" width="9" style="29"/>
+    <col min="5383" max="5384" width="9.25" style="29" customWidth="1"/>
+    <col min="5385" max="5385" width="8.375" style="29" customWidth="1"/>
+    <col min="5386" max="5632" width="9" style="29"/>
+    <col min="5633" max="5633" width="3.125" style="29" customWidth="1"/>
+    <col min="5634" max="5634" width="5" style="29" customWidth="1"/>
+    <col min="5635" max="5635" width="17.625" style="29" customWidth="1"/>
+    <col min="5636" max="5636" width="21.75" style="29" customWidth="1"/>
+    <col min="5637" max="5637" width="5.25" style="29" customWidth="1"/>
+    <col min="5638" max="5638" width="9" style="29"/>
+    <col min="5639" max="5640" width="9.25" style="29" customWidth="1"/>
+    <col min="5641" max="5641" width="8.375" style="29" customWidth="1"/>
+    <col min="5642" max="5888" width="9" style="29"/>
+    <col min="5889" max="5889" width="3.125" style="29" customWidth="1"/>
+    <col min="5890" max="5890" width="5" style="29" customWidth="1"/>
+    <col min="5891" max="5891" width="17.625" style="29" customWidth="1"/>
+    <col min="5892" max="5892" width="21.75" style="29" customWidth="1"/>
+    <col min="5893" max="5893" width="5.25" style="29" customWidth="1"/>
+    <col min="5894" max="5894" width="9" style="29"/>
+    <col min="5895" max="5896" width="9.25" style="29" customWidth="1"/>
+    <col min="5897" max="5897" width="8.375" style="29" customWidth="1"/>
+    <col min="5898" max="6144" width="9" style="29"/>
+    <col min="6145" max="6145" width="3.125" style="29" customWidth="1"/>
+    <col min="6146" max="6146" width="5" style="29" customWidth="1"/>
+    <col min="6147" max="6147" width="17.625" style="29" customWidth="1"/>
+    <col min="6148" max="6148" width="21.75" style="29" customWidth="1"/>
+    <col min="6149" max="6149" width="5.25" style="29" customWidth="1"/>
+    <col min="6150" max="6150" width="9" style="29"/>
+    <col min="6151" max="6152" width="9.25" style="29" customWidth="1"/>
+    <col min="6153" max="6153" width="8.375" style="29" customWidth="1"/>
+    <col min="6154" max="6400" width="9" style="29"/>
+    <col min="6401" max="6401" width="3.125" style="29" customWidth="1"/>
+    <col min="6402" max="6402" width="5" style="29" customWidth="1"/>
+    <col min="6403" max="6403" width="17.625" style="29" customWidth="1"/>
+    <col min="6404" max="6404" width="21.75" style="29" customWidth="1"/>
+    <col min="6405" max="6405" width="5.25" style="29" customWidth="1"/>
+    <col min="6406" max="6406" width="9" style="29"/>
+    <col min="6407" max="6408" width="9.25" style="29" customWidth="1"/>
+    <col min="6409" max="6409" width="8.375" style="29" customWidth="1"/>
+    <col min="6410" max="6656" width="9" style="29"/>
+    <col min="6657" max="6657" width="3.125" style="29" customWidth="1"/>
+    <col min="6658" max="6658" width="5" style="29" customWidth="1"/>
+    <col min="6659" max="6659" width="17.625" style="29" customWidth="1"/>
+    <col min="6660" max="6660" width="21.75" style="29" customWidth="1"/>
+    <col min="6661" max="6661" width="5.25" style="29" customWidth="1"/>
+    <col min="6662" max="6662" width="9" style="29"/>
+    <col min="6663" max="6664" width="9.25" style="29" customWidth="1"/>
+    <col min="6665" max="6665" width="8.375" style="29" customWidth="1"/>
+    <col min="6666" max="6912" width="9" style="29"/>
+    <col min="6913" max="6913" width="3.125" style="29" customWidth="1"/>
+    <col min="6914" max="6914" width="5" style="29" customWidth="1"/>
+    <col min="6915" max="6915" width="17.625" style="29" customWidth="1"/>
+    <col min="6916" max="6916" width="21.75" style="29" customWidth="1"/>
+    <col min="6917" max="6917" width="5.25" style="29" customWidth="1"/>
+    <col min="6918" max="6918" width="9" style="29"/>
+    <col min="6919" max="6920" width="9.25" style="29" customWidth="1"/>
+    <col min="6921" max="6921" width="8.375" style="29" customWidth="1"/>
+    <col min="6922" max="7168" width="9" style="29"/>
+    <col min="7169" max="7169" width="3.125" style="29" customWidth="1"/>
+    <col min="7170" max="7170" width="5" style="29" customWidth="1"/>
+    <col min="7171" max="7171" width="17.625" style="29" customWidth="1"/>
+    <col min="7172" max="7172" width="21.75" style="29" customWidth="1"/>
+    <col min="7173" max="7173" width="5.25" style="29" customWidth="1"/>
+    <col min="7174" max="7174" width="9" style="29"/>
+    <col min="7175" max="7176" width="9.25" style="29" customWidth="1"/>
+    <col min="7177" max="7177" width="8.375" style="29" customWidth="1"/>
+    <col min="7178" max="7424" width="9" style="29"/>
+    <col min="7425" max="7425" width="3.125" style="29" customWidth="1"/>
+    <col min="7426" max="7426" width="5" style="29" customWidth="1"/>
+    <col min="7427" max="7427" width="17.625" style="29" customWidth="1"/>
+    <col min="7428" max="7428" width="21.75" style="29" customWidth="1"/>
+    <col min="7429" max="7429" width="5.25" style="29" customWidth="1"/>
+    <col min="7430" max="7430" width="9" style="29"/>
+    <col min="7431" max="7432" width="9.25" style="29" customWidth="1"/>
+    <col min="7433" max="7433" width="8.375" style="29" customWidth="1"/>
+    <col min="7434" max="7680" width="9" style="29"/>
+    <col min="7681" max="7681" width="3.125" style="29" customWidth="1"/>
+    <col min="7682" max="7682" width="5" style="29" customWidth="1"/>
+    <col min="7683" max="7683" width="17.625" style="29" customWidth="1"/>
+    <col min="7684" max="7684" width="21.75" style="29" customWidth="1"/>
+    <col min="7685" max="7685" width="5.25" style="29" customWidth="1"/>
+    <col min="7686" max="7686" width="9" style="29"/>
+    <col min="7687" max="7688" width="9.25" style="29" customWidth="1"/>
+    <col min="7689" max="7689" width="8.375" style="29" customWidth="1"/>
+    <col min="7690" max="7936" width="9" style="29"/>
+    <col min="7937" max="7937" width="3.125" style="29" customWidth="1"/>
+    <col min="7938" max="7938" width="5" style="29" customWidth="1"/>
+    <col min="7939" max="7939" width="17.625" style="29" customWidth="1"/>
+    <col min="7940" max="7940" width="21.75" style="29" customWidth="1"/>
+    <col min="7941" max="7941" width="5.25" style="29" customWidth="1"/>
+    <col min="7942" max="7942" width="9" style="29"/>
+    <col min="7943" max="7944" width="9.25" style="29" customWidth="1"/>
+    <col min="7945" max="7945" width="8.375" style="29" customWidth="1"/>
+    <col min="7946" max="8192" width="9" style="29"/>
+    <col min="8193" max="8193" width="3.125" style="29" customWidth="1"/>
+    <col min="8194" max="8194" width="5" style="29" customWidth="1"/>
+    <col min="8195" max="8195" width="17.625" style="29" customWidth="1"/>
+    <col min="8196" max="8196" width="21.75" style="29" customWidth="1"/>
+    <col min="8197" max="8197" width="5.25" style="29" customWidth="1"/>
+    <col min="8198" max="8198" width="9" style="29"/>
+    <col min="8199" max="8200" width="9.25" style="29" customWidth="1"/>
+    <col min="8201" max="8201" width="8.375" style="29" customWidth="1"/>
+    <col min="8202" max="8448" width="9" style="29"/>
+    <col min="8449" max="8449" width="3.125" style="29" customWidth="1"/>
+    <col min="8450" max="8450" width="5" style="29" customWidth="1"/>
+    <col min="8451" max="8451" width="17.625" style="29" customWidth="1"/>
+    <col min="8452" max="8452" width="21.75" style="29" customWidth="1"/>
+    <col min="8453" max="8453" width="5.25" style="29" customWidth="1"/>
+    <col min="8454" max="8454" width="9" style="29"/>
+    <col min="8455" max="8456" width="9.25" style="29" customWidth="1"/>
+    <col min="8457" max="8457" width="8.375" style="29" customWidth="1"/>
+    <col min="8458" max="8704" width="9" style="29"/>
+    <col min="8705" max="8705" width="3.125" style="29" customWidth="1"/>
+    <col min="8706" max="8706" width="5" style="29" customWidth="1"/>
+    <col min="8707" max="8707" width="17.625" style="29" customWidth="1"/>
+    <col min="8708" max="8708" width="21.75" style="29" customWidth="1"/>
+    <col min="8709" max="8709" width="5.25" style="29" customWidth="1"/>
+    <col min="8710" max="8710" width="9" style="29"/>
+    <col min="8711" max="8712" width="9.25" style="29" customWidth="1"/>
+    <col min="8713" max="8713" width="8.375" style="29" customWidth="1"/>
+    <col min="8714" max="8960" width="9" style="29"/>
+    <col min="8961" max="8961" width="3.125" style="29" customWidth="1"/>
+    <col min="8962" max="8962" width="5" style="29" customWidth="1"/>
+    <col min="8963" max="8963" width="17.625" style="29" customWidth="1"/>
+    <col min="8964" max="8964" width="21.75" style="29" customWidth="1"/>
+    <col min="8965" max="8965" width="5.25" style="29" customWidth="1"/>
+    <col min="8966" max="8966" width="9" style="29"/>
+    <col min="8967" max="8968" width="9.25" style="29" customWidth="1"/>
+    <col min="8969" max="8969" width="8.375" style="29" customWidth="1"/>
+    <col min="8970" max="9216" width="9" style="29"/>
+    <col min="9217" max="9217" width="3.125" style="29" customWidth="1"/>
+    <col min="9218" max="9218" width="5" style="29" customWidth="1"/>
+    <col min="9219" max="9219" width="17.625" style="29" customWidth="1"/>
+    <col min="9220" max="9220" width="21.75" style="29" customWidth="1"/>
+    <col min="9221" max="9221" width="5.25" style="29" customWidth="1"/>
+    <col min="9222" max="9222" width="9" style="29"/>
+    <col min="9223" max="9224" width="9.25" style="29" customWidth="1"/>
+    <col min="9225" max="9225" width="8.375" style="29" customWidth="1"/>
+    <col min="9226" max="9472" width="9" style="29"/>
+    <col min="9473" max="9473" width="3.125" style="29" customWidth="1"/>
+    <col min="9474" max="9474" width="5" style="29" customWidth="1"/>
+    <col min="9475" max="9475" width="17.625" style="29" customWidth="1"/>
+    <col min="9476" max="9476" width="21.75" style="29" customWidth="1"/>
+    <col min="9477" max="9477" width="5.25" style="29" customWidth="1"/>
+    <col min="9478" max="9478" width="9" style="29"/>
+    <col min="9479" max="9480" width="9.25" style="29" customWidth="1"/>
+    <col min="9481" max="9481" width="8.375" style="29" customWidth="1"/>
+    <col min="9482" max="9728" width="9" style="29"/>
+    <col min="9729" max="9729" width="3.125" style="29" customWidth="1"/>
+    <col min="9730" max="9730" width="5" style="29" customWidth="1"/>
+    <col min="9731" max="9731" width="17.625" style="29" customWidth="1"/>
+    <col min="9732" max="9732" width="21.75" style="29" customWidth="1"/>
+    <col min="9733" max="9733" width="5.25" style="29" customWidth="1"/>
+    <col min="9734" max="9734" width="9" style="29"/>
+    <col min="9735" max="9736" width="9.25" style="29" customWidth="1"/>
+    <col min="9737" max="9737" width="8.375" style="29" customWidth="1"/>
+    <col min="9738" max="9984" width="9" style="29"/>
+    <col min="9985" max="9985" width="3.125" style="29" customWidth="1"/>
+    <col min="9986" max="9986" width="5" style="29" customWidth="1"/>
+    <col min="9987" max="9987" width="17.625" style="29" customWidth="1"/>
+    <col min="9988" max="9988" width="21.75" style="29" customWidth="1"/>
+    <col min="9989" max="9989" width="5.25" style="29" customWidth="1"/>
+    <col min="9990" max="9990" width="9" style="29"/>
+    <col min="9991" max="9992" width="9.25" style="29" customWidth="1"/>
+    <col min="9993" max="9993" width="8.375" style="29" customWidth="1"/>
+    <col min="9994" max="10240" width="9" style="29"/>
+    <col min="10241" max="10241" width="3.125" style="29" customWidth="1"/>
+    <col min="10242" max="10242" width="5" style="29" customWidth="1"/>
+    <col min="10243" max="10243" width="17.625" style="29" customWidth="1"/>
+    <col min="10244" max="10244" width="21.75" style="29" customWidth="1"/>
+    <col min="10245" max="10245" width="5.25" style="29" customWidth="1"/>
+    <col min="10246" max="10246" width="9" style="29"/>
+    <col min="10247" max="10248" width="9.25" style="29" customWidth="1"/>
+    <col min="10249" max="10249" width="8.375" style="29" customWidth="1"/>
+    <col min="10250" max="10496" width="9" style="29"/>
+    <col min="10497" max="10497" width="3.125" style="29" customWidth="1"/>
+    <col min="10498" max="10498" width="5" style="29" customWidth="1"/>
+    <col min="10499" max="10499" width="17.625" style="29" customWidth="1"/>
+    <col min="10500" max="10500" width="21.75" style="29" customWidth="1"/>
+    <col min="10501" max="10501" width="5.25" style="29" customWidth="1"/>
+    <col min="10502" max="10502" width="9" style="29"/>
+    <col min="10503" max="10504" width="9.25" style="29" customWidth="1"/>
+    <col min="10505" max="10505" width="8.375" style="29" customWidth="1"/>
+    <col min="10506" max="10752" width="9" style="29"/>
+    <col min="10753" max="10753" width="3.125" style="29" customWidth="1"/>
+    <col min="10754" max="10754" width="5" style="29" customWidth="1"/>
+    <col min="10755" max="10755" width="17.625" style="29" customWidth="1"/>
+    <col min="10756" max="10756" width="21.75" style="29" customWidth="1"/>
+    <col min="10757" max="10757" width="5.25" style="29" customWidth="1"/>
+    <col min="10758" max="10758" width="9" style="29"/>
+    <col min="10759" max="10760" width="9.25" style="29" customWidth="1"/>
+    <col min="10761" max="10761" width="8.375" style="29" customWidth="1"/>
+    <col min="10762" max="11008" width="9" style="29"/>
+    <col min="11009" max="11009" width="3.125" style="29" customWidth="1"/>
+    <col min="11010" max="11010" width="5" style="29" customWidth="1"/>
+    <col min="11011" max="11011" width="17.625" style="29" customWidth="1"/>
+    <col min="11012" max="11012" width="21.75" style="29" customWidth="1"/>
+    <col min="11013" max="11013" width="5.25" style="29" customWidth="1"/>
+    <col min="11014" max="11014" width="9" style="29"/>
+    <col min="11015" max="11016" width="9.25" style="29" customWidth="1"/>
+    <col min="11017" max="11017" width="8.375" style="29" customWidth="1"/>
+    <col min="11018" max="11264" width="9" style="29"/>
+    <col min="11265" max="11265" width="3.125" style="29" customWidth="1"/>
+    <col min="11266" max="11266" width="5" style="29" customWidth="1"/>
+    <col min="11267" max="11267" width="17.625" style="29" customWidth="1"/>
+    <col min="11268" max="11268" width="21.75" style="29" customWidth="1"/>
+    <col min="11269" max="11269" width="5.25" style="29" customWidth="1"/>
+    <col min="11270" max="11270" width="9" style="29"/>
+    <col min="11271" max="11272" width="9.25" style="29" customWidth="1"/>
+    <col min="11273" max="11273" width="8.375" style="29" customWidth="1"/>
+    <col min="11274" max="11520" width="9" style="29"/>
+    <col min="11521" max="11521" width="3.125" style="29" customWidth="1"/>
+    <col min="11522" max="11522" width="5" style="29" customWidth="1"/>
+    <col min="11523" max="11523" width="17.625" style="29" customWidth="1"/>
+    <col min="11524" max="11524" width="21.75" style="29" customWidth="1"/>
+    <col min="11525" max="11525" width="5.25" style="29" customWidth="1"/>
+    <col min="11526" max="11526" width="9" style="29"/>
+    <col min="11527" max="11528" width="9.25" style="29" customWidth="1"/>
+    <col min="11529" max="11529" width="8.375" style="29" customWidth="1"/>
+    <col min="11530" max="11776" width="9" style="29"/>
+    <col min="11777" max="11777" width="3.125" style="29" customWidth="1"/>
+    <col min="11778" max="11778" width="5" style="29" customWidth="1"/>
+    <col min="11779" max="11779" width="17.625" style="29" customWidth="1"/>
+    <col min="11780" max="11780" width="21.75" style="29" customWidth="1"/>
+    <col min="11781" max="11781" width="5.25" style="29" customWidth="1"/>
+    <col min="11782" max="11782" width="9" style="29"/>
+    <col min="11783" max="11784" width="9.25" style="29" customWidth="1"/>
+    <col min="11785" max="11785" width="8.375" style="29" customWidth="1"/>
+    <col min="11786" max="12032" width="9" style="29"/>
+    <col min="12033" max="12033" width="3.125" style="29" customWidth="1"/>
+    <col min="12034" max="12034" width="5" style="29" customWidth="1"/>
+    <col min="12035" max="12035" width="17.625" style="29" customWidth="1"/>
+    <col min="12036" max="12036" width="21.75" style="29" customWidth="1"/>
+    <col min="12037" max="12037" width="5.25" style="29" customWidth="1"/>
+    <col min="12038" max="12038" width="9" style="29"/>
+    <col min="12039" max="12040" width="9.25" style="29" customWidth="1"/>
+    <col min="12041" max="12041" width="8.375" style="29" customWidth="1"/>
+    <col min="12042" max="12288" width="9" style="29"/>
+    <col min="12289" max="12289" width="3.125" style="29" customWidth="1"/>
+    <col min="12290" max="12290" width="5" style="29" customWidth="1"/>
+    <col min="12291" max="12291" width="17.625" style="29" customWidth="1"/>
+    <col min="12292" max="12292" width="21.75" style="29" customWidth="1"/>
+    <col min="12293" max="12293" width="5.25" style="29" customWidth="1"/>
+    <col min="12294" max="12294" width="9" style="29"/>
+    <col min="12295" max="12296" width="9.25" style="29" customWidth="1"/>
+    <col min="12297" max="12297" width="8.375" style="29" customWidth="1"/>
+    <col min="12298" max="12544" width="9" style="29"/>
+    <col min="12545" max="12545" width="3.125" style="29" customWidth="1"/>
+    <col min="12546" max="12546" width="5" style="29" customWidth="1"/>
+    <col min="12547" max="12547" width="17.625" style="29" customWidth="1"/>
+    <col min="12548" max="12548" width="21.75" style="29" customWidth="1"/>
+    <col min="12549" max="12549" width="5.25" style="29" customWidth="1"/>
+    <col min="12550" max="12550" width="9" style="29"/>
+    <col min="12551" max="12552" width="9.25" style="29" customWidth="1"/>
+    <col min="12553" max="12553" width="8.375" style="29" customWidth="1"/>
+    <col min="12554" max="12800" width="9" style="29"/>
+    <col min="12801" max="12801" width="3.125" style="29" customWidth="1"/>
+    <col min="12802" max="12802" width="5" style="29" customWidth="1"/>
+    <col min="12803" max="12803" width="17.625" style="29" customWidth="1"/>
+    <col min="12804" max="12804" width="21.75" style="29" customWidth="1"/>
+    <col min="12805" max="12805" width="5.25" style="29" customWidth="1"/>
+    <col min="12806" max="12806" width="9" style="29"/>
+    <col min="12807" max="12808" width="9.25" style="29" customWidth="1"/>
+    <col min="12809" max="12809" width="8.375" style="29" customWidth="1"/>
+    <col min="12810" max="13056" width="9" style="29"/>
+    <col min="13057" max="13057" width="3.125" style="29" customWidth="1"/>
+    <col min="13058" max="13058" width="5" style="29" customWidth="1"/>
+    <col min="13059" max="13059" width="17.625" style="29" customWidth="1"/>
+    <col min="13060" max="13060" width="21.75" style="29" customWidth="1"/>
+    <col min="13061" max="13061" width="5.25" style="29" customWidth="1"/>
+    <col min="13062" max="13062" width="9" style="29"/>
+    <col min="13063" max="13064" width="9.25" style="29" customWidth="1"/>
+    <col min="13065" max="13065" width="8.375" style="29" customWidth="1"/>
+    <col min="13066" max="13312" width="9" style="29"/>
+    <col min="13313" max="13313" width="3.125" style="29" customWidth="1"/>
+    <col min="13314" max="13314" width="5" style="29" customWidth="1"/>
+    <col min="13315" max="13315" width="17.625" style="29" customWidth="1"/>
+    <col min="13316" max="13316" width="21.75" style="29" customWidth="1"/>
+    <col min="13317" max="13317" width="5.25" style="29" customWidth="1"/>
+    <col min="13318" max="13318" width="9" style="29"/>
+    <col min="13319" max="13320" width="9.25" style="29" customWidth="1"/>
+    <col min="13321" max="13321" width="8.375" style="29" customWidth="1"/>
+    <col min="13322" max="13568" width="9" style="29"/>
+    <col min="13569" max="13569" width="3.125" style="29" customWidth="1"/>
+    <col min="13570" max="13570" width="5" style="29" customWidth="1"/>
+    <col min="13571" max="13571" width="17.625" style="29" customWidth="1"/>
+    <col min="13572" max="13572" width="21.75" style="29" customWidth="1"/>
+    <col min="13573" max="13573" width="5.25" style="29" customWidth="1"/>
+    <col min="13574" max="13574" width="9" style="29"/>
+    <col min="13575" max="13576" width="9.25" style="29" customWidth="1"/>
+    <col min="13577" max="13577" width="8.375" style="29" customWidth="1"/>
+    <col min="13578" max="13824" width="9" style="29"/>
+    <col min="13825" max="13825" width="3.125" style="29" customWidth="1"/>
+    <col min="13826" max="13826" width="5" style="29" customWidth="1"/>
+    <col min="13827" max="13827" width="17.625" style="29" customWidth="1"/>
+    <col min="13828" max="13828" width="21.75" style="29" customWidth="1"/>
+    <col min="13829" max="13829" width="5.25" style="29" customWidth="1"/>
+    <col min="13830" max="13830" width="9" style="29"/>
+    <col min="13831" max="13832" width="9.25" style="29" customWidth="1"/>
+    <col min="13833" max="13833" width="8.375" style="29" customWidth="1"/>
+    <col min="13834" max="14080" width="9" style="29"/>
+    <col min="14081" max="14081" width="3.125" style="29" customWidth="1"/>
+    <col min="14082" max="14082" width="5" style="29" customWidth="1"/>
+    <col min="14083" max="14083" width="17.625" style="29" customWidth="1"/>
+    <col min="14084" max="14084" width="21.75" style="29" customWidth="1"/>
+    <col min="14085" max="14085" width="5.25" style="29" customWidth="1"/>
+    <col min="14086" max="14086" width="9" style="29"/>
+    <col min="14087" max="14088" width="9.25" style="29" customWidth="1"/>
+    <col min="14089" max="14089" width="8.375" style="29" customWidth="1"/>
+    <col min="14090" max="14336" width="9" style="29"/>
+    <col min="14337" max="14337" width="3.125" style="29" customWidth="1"/>
+    <col min="14338" max="14338" width="5" style="29" customWidth="1"/>
+    <col min="14339" max="14339" width="17.625" style="29" customWidth="1"/>
+    <col min="14340" max="14340" width="21.75" style="29" customWidth="1"/>
+    <col min="14341" max="14341" width="5.25" style="29" customWidth="1"/>
+    <col min="14342" max="14342" width="9" style="29"/>
+    <col min="14343" max="14344" width="9.25" style="29" customWidth="1"/>
+    <col min="14345" max="14345" width="8.375" style="29" customWidth="1"/>
+    <col min="14346" max="14592" width="9" style="29"/>
+    <col min="14593" max="14593" width="3.125" style="29" customWidth="1"/>
+    <col min="14594" max="14594" width="5" style="29" customWidth="1"/>
+    <col min="14595" max="14595" width="17.625" style="29" customWidth="1"/>
+    <col min="14596" max="14596" width="21.75" style="29" customWidth="1"/>
+    <col min="14597" max="14597" width="5.25" style="29" customWidth="1"/>
+    <col min="14598" max="14598" width="9" style="29"/>
+    <col min="14599" max="14600" width="9.25" style="29" customWidth="1"/>
+    <col min="14601" max="14601" width="8.375" style="29" customWidth="1"/>
+    <col min="14602" max="14848" width="9" style="29"/>
+    <col min="14849" max="14849" width="3.125" style="29" customWidth="1"/>
+    <col min="14850" max="14850" width="5" style="29" customWidth="1"/>
+    <col min="14851" max="14851" width="17.625" style="29" customWidth="1"/>
+    <col min="14852" max="14852" width="21.75" style="29" customWidth="1"/>
+    <col min="14853" max="14853" width="5.25" style="29" customWidth="1"/>
+    <col min="14854" max="14854" width="9" style="29"/>
+    <col min="14855" max="14856" width="9.25" style="29" customWidth="1"/>
+    <col min="14857" max="14857" width="8.375" style="29" customWidth="1"/>
+    <col min="14858" max="15104" width="9" style="29"/>
+    <col min="15105" max="15105" width="3.125" style="29" customWidth="1"/>
+    <col min="15106" max="15106" width="5" style="29" customWidth="1"/>
+    <col min="15107" max="15107" width="17.625" style="29" customWidth="1"/>
+    <col min="15108" max="15108" width="21.75" style="29" customWidth="1"/>
+    <col min="15109" max="15109" width="5.25" style="29" customWidth="1"/>
+    <col min="15110" max="15110" width="9" style="29"/>
+    <col min="15111" max="15112" width="9.25" style="29" customWidth="1"/>
+    <col min="15113" max="15113" width="8.375" style="29" customWidth="1"/>
+    <col min="15114" max="15360" width="9" style="29"/>
+    <col min="15361" max="15361" width="3.125" style="29" customWidth="1"/>
+    <col min="15362" max="15362" width="5" style="29" customWidth="1"/>
+    <col min="15363" max="15363" width="17.625" style="29" customWidth="1"/>
+    <col min="15364" max="15364" width="21.75" style="29" customWidth="1"/>
+    <col min="15365" max="15365" width="5.25" style="29" customWidth="1"/>
+    <col min="15366" max="15366" width="9" style="29"/>
+    <col min="15367" max="15368" width="9.25" style="29" customWidth="1"/>
+    <col min="15369" max="15369" width="8.375" style="29" customWidth="1"/>
+    <col min="15370" max="15616" width="9" style="29"/>
+    <col min="15617" max="15617" width="3.125" style="29" customWidth="1"/>
+    <col min="15618" max="15618" width="5" style="29" customWidth="1"/>
+    <col min="15619" max="15619" width="17.625" style="29" customWidth="1"/>
+    <col min="15620" max="15620" width="21.75" style="29" customWidth="1"/>
+    <col min="15621" max="15621" width="5.25" style="29" customWidth="1"/>
+    <col min="15622" max="15622" width="9" style="29"/>
+    <col min="15623" max="15624" width="9.25" style="29" customWidth="1"/>
+    <col min="15625" max="15625" width="8.375" style="29" customWidth="1"/>
+    <col min="15626" max="15872" width="9" style="29"/>
+    <col min="15873" max="15873" width="3.125" style="29" customWidth="1"/>
+    <col min="15874" max="15874" width="5" style="29" customWidth="1"/>
+    <col min="15875" max="15875" width="17.625" style="29" customWidth="1"/>
+    <col min="15876" max="15876" width="21.75" style="29" customWidth="1"/>
+    <col min="15877" max="15877" width="5.25" style="29" customWidth="1"/>
+    <col min="15878" max="15878" width="9" style="29"/>
+    <col min="15879" max="15880" width="9.25" style="29" customWidth="1"/>
+    <col min="15881" max="15881" width="8.375" style="29" customWidth="1"/>
+    <col min="15882" max="16128" width="9" style="29"/>
+    <col min="16129" max="16129" width="3.125" style="29" customWidth="1"/>
+    <col min="16130" max="16130" width="5" style="29" customWidth="1"/>
+    <col min="16131" max="16131" width="17.625" style="29" customWidth="1"/>
+    <col min="16132" max="16132" width="21.75" style="29" customWidth="1"/>
+    <col min="16133" max="16133" width="5.25" style="29" customWidth="1"/>
+    <col min="16134" max="16134" width="9" style="29"/>
+    <col min="16135" max="16136" width="9.25" style="29" customWidth="1"/>
+    <col min="16137" max="16137" width="8.375" style="29" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="37" t="str">
+        <f>+"估算价值(元)"&amp;ROUND(H28,0)&amp;""</f>
+        <v>估算价值(元)0</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="46"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="58">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="64">
+        <f>+F8*G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="65">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64">
+        <f>+F9*G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="66"/>
+    </row>
+    <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="65">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64">
+        <f>+F10*G10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="65"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="64"/>
+    </row>
+    <row r="12" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="65"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="75"/>
+    </row>
+    <row r="13" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="65"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="75"/>
+    </row>
+    <row r="14" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="65"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="66"/>
+    </row>
+    <row r="15" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="65"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="79"/>
+    </row>
+    <row r="16" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="65"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
+    </row>
+    <row r="17" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="65"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="66"/>
+    </row>
+    <row r="18" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="65"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="66"/>
+    </row>
+    <row r="19" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="65"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="87"/>
+    </row>
+    <row r="20" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="65"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="66"/>
+    </row>
+    <row r="21" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="65"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="66"/>
+    </row>
+    <row r="22" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="65"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="66"/>
+    </row>
+    <row r="23" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="65"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="79"/>
+    </row>
+    <row r="24" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="65"/>
+      <c r="C24" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="67"/>
+      <c r="E24" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="62"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="86">
+        <f>+SUM(H8:H23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="65"/>
+      <c r="C25" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="67"/>
+      <c r="E25" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="62"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="86">
+        <f>+H24*0.05</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="66"/>
+    </row>
+    <row r="26" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="65"/>
+      <c r="C26" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="67"/>
+      <c r="E26" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="62"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="86">
+        <f>+SUM(H24:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="66">
+        <f>+H26/10000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="65"/>
+      <c r="C27" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="83"/>
+      <c r="E27" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="84"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86">
+        <f>+H26*0.15</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="66">
+        <f>+H27/10000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="65"/>
+      <c r="C28" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="89"/>
+      <c r="E28" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="91"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="93">
+        <f>+SUM(H27+H26)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="75"/>
+    </row>
+    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="30"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+    </row>
+    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="96"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="97"/>
+    </row>
+    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="30"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
+    </row>
+    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="30"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
+    </row>
+    <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="104"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
+    </row>
+    <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="104"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="103"/>
+    </row>
+    <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="104"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="103"/>
+    </row>
+    <row r="36" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="104"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="103"/>
+    </row>
+    <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="104"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="103"/>
+    </row>
+    <row r="38" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="104"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="103"/>
+    </row>
+    <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="104"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="103"/>
+    </row>
+    <row r="40" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="104"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="103"/>
+    </row>
+    <row r="41" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="104"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="108"/>
+    </row>
+    <row r="42" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="104"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="66"/>
+    </row>
+    <row r="43" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="101"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="75"/>
+    </row>
+    <row r="44" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="101"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="75"/>
+    </row>
+    <row r="45" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="104"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="66"/>
+    </row>
+    <row r="46" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="101"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="75"/>
+    </row>
+    <row r="47" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="104"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="66"/>
+    </row>
+    <row r="48" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="104"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="66"/>
+    </row>
+    <row r="49" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="104"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="66"/>
+    </row>
+    <row r="50" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="104"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="66"/>
+    </row>
+    <row r="51" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="104"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="66"/>
+    </row>
+    <row r="52" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="104"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="66"/>
+    </row>
+    <row r="53" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="104"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="66"/>
+    </row>
+    <row r="54" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="101"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="75"/>
+    </row>
+    <row r="55" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="101"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="103"/>
+      <c r="I55" s="75"/>
+    </row>
+    <row r="56" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="104"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="66"/>
+    </row>
+    <row r="57" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="104"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="103"/>
+      <c r="I57" s="66"/>
+    </row>
+    <row r="58" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="104"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="108"/>
+    </row>
+    <row r="59" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="104"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="108"/>
+    </row>
+    <row r="60" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="104"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="108"/>
+    </row>
+    <row r="61" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="104"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="103"/>
+    </row>
+    <row r="62" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="113"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="114"/>
+    </row>
+    <row r="63" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="30"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="34"/>
+    </row>
+    <row r="64" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="116"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="114"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="114"/>
+    </row>
+    <row r="65" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="30"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="34"/>
+    </row>
+    <row r="66" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="117"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+    </row>
+    <row r="67" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="34"/>
+    </row>
+    <row r="68" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="96"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="118"/>
+      <c r="H68" s="34"/>
+    </row>
+    <row r="69" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="30"/>
+      <c r="C69" s="119"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+    </row>
+    <row r="70" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="96"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="97"/>
+    </row>
+    <row r="71" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="30"/>
+      <c r="C71" s="114"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="34"/>
+    </row>
+    <row r="72" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="104"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="100"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="102"/>
+      <c r="H72" s="103"/>
+    </row>
+    <row r="73" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="104"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="100"/>
+      <c r="F73" s="101"/>
+      <c r="G73" s="102"/>
+      <c r="H73" s="103"/>
+    </row>
+    <row r="74" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="104"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="101"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+    </row>
+    <row r="75" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="104"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="100"/>
+      <c r="F75" s="101"/>
+      <c r="G75" s="105"/>
+      <c r="H75" s="103"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="66"/>
+    </row>
+    <row r="76" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="104"/>
+      <c r="C76" s="98"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="106"/>
+      <c r="F76" s="101"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="103"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+    </row>
+    <row r="77" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="104"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="106"/>
+      <c r="F77" s="101"/>
+      <c r="G77" s="102"/>
+      <c r="H77" s="103"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="66"/>
+    </row>
+    <row r="78" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="104"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="106"/>
+      <c r="F78" s="101"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="103"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+    </row>
+    <row r="79" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="104"/>
+      <c r="C79" s="98"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="106"/>
+      <c r="F79" s="107"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="103"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="66"/>
+    </row>
+    <row r="80" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="101"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="106"/>
+      <c r="F80" s="107"/>
+      <c r="G80" s="102"/>
+      <c r="H80" s="108"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="75"/>
+    </row>
+    <row r="81" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="101"/>
+      <c r="C81" s="109"/>
+      <c r="D81" s="110"/>
+      <c r="E81" s="101"/>
+      <c r="F81" s="101"/>
+      <c r="G81" s="102"/>
+      <c r="H81" s="103"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="75"/>
+    </row>
+    <row r="82" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="101"/>
+      <c r="C82" s="109"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="101"/>
+      <c r="F82" s="101"/>
+      <c r="G82" s="102"/>
+      <c r="H82" s="103"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="75"/>
+    </row>
+    <row r="83" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="101"/>
+      <c r="C83" s="111"/>
+      <c r="D83" s="112"/>
+      <c r="E83" s="101"/>
+      <c r="F83" s="101"/>
+      <c r="G83" s="102"/>
+      <c r="H83" s="103"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="75"/>
+    </row>
+    <row r="84" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="104"/>
+      <c r="C84" s="98"/>
+      <c r="D84" s="99"/>
+      <c r="E84" s="100"/>
+      <c r="F84" s="101"/>
+      <c r="G84" s="102"/>
+      <c r="H84" s="103"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+    </row>
+    <row r="85" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="101"/>
+      <c r="C85" s="98"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="100"/>
+      <c r="F85" s="101"/>
+      <c r="G85" s="102"/>
+      <c r="H85" s="103"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="75"/>
+    </row>
+    <row r="86" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="101"/>
+      <c r="C86" s="98"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="100"/>
+      <c r="F86" s="101"/>
+      <c r="G86" s="102"/>
+      <c r="H86" s="103"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="75"/>
+    </row>
+    <row r="87" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="104"/>
+      <c r="C87" s="98"/>
+      <c r="D87" s="99"/>
+      <c r="E87" s="100"/>
+      <c r="F87" s="101"/>
+      <c r="G87" s="102"/>
+      <c r="H87" s="103"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+    </row>
+    <row r="88" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="104"/>
+      <c r="C88" s="98"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="100"/>
+      <c r="F88" s="101"/>
+      <c r="G88" s="102"/>
+      <c r="H88" s="103"/>
+      <c r="I88" s="66"/>
+      <c r="J88" s="66"/>
+    </row>
+    <row r="89" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="101"/>
+      <c r="C89" s="98"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="100"/>
+      <c r="F89" s="101"/>
+      <c r="G89" s="102"/>
+      <c r="H89" s="103"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="75"/>
+    </row>
+    <row r="90" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="104"/>
+      <c r="C90" s="98"/>
+      <c r="D90" s="99"/>
+      <c r="E90" s="100"/>
+      <c r="F90" s="101"/>
+      <c r="G90" s="102"/>
+      <c r="H90" s="103"/>
+    </row>
+    <row r="91" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="104"/>
+      <c r="C91" s="98"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="100"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="102"/>
+      <c r="H91" s="103"/>
+    </row>
+    <row r="92" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="104"/>
+      <c r="C92" s="98"/>
+      <c r="D92" s="99"/>
+      <c r="E92" s="100"/>
+      <c r="F92" s="101"/>
+      <c r="G92" s="102"/>
+      <c r="H92" s="103"/>
+    </row>
+    <row r="93" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="104"/>
+      <c r="C93" s="98"/>
+      <c r="D93" s="99"/>
+      <c r="E93" s="106"/>
+      <c r="F93" s="101"/>
+      <c r="G93" s="105"/>
+      <c r="H93" s="103"/>
+    </row>
+    <row r="94" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="104"/>
+      <c r="C94" s="98"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="106"/>
+      <c r="F94" s="101"/>
+      <c r="G94" s="102"/>
+      <c r="H94" s="103"/>
+    </row>
+    <row r="95" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="104"/>
+      <c r="C95" s="98"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="106"/>
+      <c r="F95" s="101"/>
+      <c r="G95" s="102"/>
+      <c r="H95" s="103"/>
+    </row>
+    <row r="96" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="104"/>
+      <c r="C96" s="98"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="106"/>
+      <c r="F96" s="107"/>
+      <c r="G96" s="102"/>
+      <c r="H96" s="103"/>
+    </row>
+    <row r="97" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="104"/>
+      <c r="C97" s="98"/>
+      <c r="D97" s="99"/>
+      <c r="E97" s="106"/>
+      <c r="F97" s="107"/>
+      <c r="G97" s="102"/>
+      <c r="H97" s="108"/>
+    </row>
+    <row r="98" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="104"/>
+      <c r="C98" s="98"/>
+      <c r="D98" s="99"/>
+      <c r="E98" s="106"/>
+      <c r="F98" s="107"/>
+      <c r="G98" s="102"/>
+      <c r="H98" s="108"/>
+    </row>
+    <row r="99" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="104"/>
+      <c r="C99" s="111"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="106"/>
+      <c r="F99" s="107"/>
+      <c r="G99" s="102"/>
+      <c r="H99" s="108"/>
+    </row>
+    <row r="100" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="104"/>
+      <c r="C100" s="98"/>
+      <c r="D100" s="99"/>
+      <c r="E100" s="100"/>
+      <c r="F100" s="101"/>
+      <c r="G100" s="102"/>
+      <c r="H100" s="108"/>
+    </row>
+    <row r="101" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="104"/>
+      <c r="C101" s="98"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="106"/>
+      <c r="F101" s="107"/>
+      <c r="G101" s="102"/>
+      <c r="H101" s="103"/>
+    </row>
+    <row r="102" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="104"/>
+      <c r="C102" s="98"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="106"/>
+      <c r="F102" s="107"/>
+      <c r="G102" s="102"/>
+      <c r="H102" s="108"/>
+    </row>
+    <row r="103" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="104"/>
+      <c r="C103" s="109"/>
+      <c r="D103" s="110"/>
+      <c r="E103" s="101"/>
+      <c r="F103" s="101"/>
+      <c r="G103" s="102"/>
+      <c r="H103" s="103"/>
+    </row>
+    <row r="104" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="113"/>
+      <c r="C104" s="114"/>
+      <c r="D104" s="114"/>
+      <c r="E104" s="114"/>
+      <c r="F104" s="114"/>
+      <c r="G104" s="114"/>
+      <c r="H104" s="114"/>
+    </row>
+    <row r="105" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="30"/>
+      <c r="C105" s="115"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="34"/>
+    </row>
+    <row r="106" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="116"/>
+      <c r="C106" s="114"/>
+      <c r="D106" s="114"/>
+      <c r="E106" s="114"/>
+      <c r="F106" s="114"/>
+      <c r="G106" s="114"/>
+      <c r="H106" s="114"/>
+    </row>
+    <row r="107" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="30"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="34"/>
+    </row>
+    <row r="108" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="117"/>
+      <c r="C108" s="114"/>
+      <c r="D108" s="114"/>
+      <c r="E108" s="114"/>
+      <c r="F108" s="114"/>
+      <c r="G108" s="114"/>
+      <c r="H108" s="114"/>
+    </row>
+    <row r="109" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="30"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="34"/>
+    </row>
+    <row r="110" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="96"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="118"/>
+      <c r="H110" s="34"/>
+    </row>
+    <row r="111" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="30"/>
+      <c r="C111" s="119"/>
+      <c r="D111" s="114"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="120"/>
+      <c r="H111" s="120"/>
+    </row>
+    <row r="112" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="96"/>
+      <c r="C112" s="114"/>
+      <c r="D112" s="114"/>
+      <c r="E112" s="96"/>
+      <c r="F112" s="96"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="97"/>
+    </row>
+    <row r="113" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="30"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="34"/>
+    </row>
+    <row r="114" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="104"/>
+      <c r="C114" s="98"/>
+      <c r="D114" s="99"/>
+      <c r="E114" s="100"/>
+      <c r="F114" s="101"/>
+      <c r="G114" s="102"/>
+      <c r="H114" s="103"/>
+    </row>
+    <row r="115" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="104"/>
+      <c r="C115" s="98"/>
+      <c r="D115" s="99"/>
+      <c r="E115" s="100"/>
+      <c r="F115" s="101"/>
+      <c r="G115" s="102"/>
+      <c r="H115" s="103"/>
+    </row>
+    <row r="116" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="104"/>
+      <c r="C116" s="98"/>
+      <c r="D116" s="99"/>
+      <c r="E116" s="100"/>
+      <c r="F116" s="101"/>
+      <c r="G116" s="102"/>
+      <c r="H116" s="103"/>
+    </row>
+    <row r="117" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="104"/>
+      <c r="C117" s="98"/>
+      <c r="D117" s="99"/>
+      <c r="E117" s="100"/>
+      <c r="F117" s="101"/>
+      <c r="G117" s="102"/>
+      <c r="H117" s="103"/>
+    </row>
+    <row r="118" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="104"/>
+      <c r="C118" s="98"/>
+      <c r="D118" s="99"/>
+      <c r="E118" s="100"/>
+      <c r="F118" s="101"/>
+      <c r="G118" s="105"/>
+      <c r="H118" s="103"/>
+    </row>
+    <row r="119" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="104"/>
+      <c r="C119" s="98"/>
+      <c r="D119" s="99"/>
+      <c r="E119" s="106"/>
+      <c r="F119" s="101"/>
+      <c r="G119" s="105"/>
+      <c r="H119" s="103"/>
+    </row>
+    <row r="120" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="104"/>
+      <c r="C120" s="98"/>
+      <c r="D120" s="99"/>
+      <c r="E120" s="106"/>
+      <c r="F120" s="101"/>
+      <c r="G120" s="102"/>
+      <c r="H120" s="103"/>
+    </row>
+    <row r="121" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="104"/>
+      <c r="C121" s="98"/>
+      <c r="D121" s="99"/>
+      <c r="E121" s="106"/>
+      <c r="F121" s="101"/>
+      <c r="G121" s="102"/>
+      <c r="H121" s="103"/>
+    </row>
+    <row r="122" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="104"/>
+      <c r="C122" s="98"/>
+      <c r="D122" s="99"/>
+      <c r="E122" s="106"/>
+      <c r="F122" s="107"/>
+      <c r="G122" s="102"/>
+      <c r="H122" s="103"/>
+      <c r="I122" s="66"/>
+      <c r="J122" s="66"/>
+      <c r="K122" s="66"/>
+    </row>
+    <row r="123" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="101"/>
+      <c r="C123" s="98"/>
+      <c r="D123" s="99"/>
+      <c r="E123" s="106"/>
+      <c r="F123" s="107"/>
+      <c r="G123" s="102"/>
+      <c r="H123" s="108"/>
+      <c r="I123" s="75"/>
+      <c r="J123" s="66"/>
+      <c r="K123" s="75"/>
+    </row>
+    <row r="124" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="101"/>
+      <c r="C124" s="98"/>
+      <c r="D124" s="99"/>
+      <c r="E124" s="106"/>
+      <c r="F124" s="107"/>
+      <c r="G124" s="102"/>
+      <c r="H124" s="108"/>
+      <c r="I124" s="75"/>
+      <c r="J124" s="66"/>
+      <c r="K124" s="75"/>
+    </row>
+    <row r="125" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="101"/>
+      <c r="C125" s="109"/>
+      <c r="D125" s="110"/>
+      <c r="E125" s="101"/>
+      <c r="F125" s="101"/>
+      <c r="G125" s="102"/>
+      <c r="H125" s="103"/>
+      <c r="I125" s="75"/>
+      <c r="J125" s="66"/>
+      <c r="K125" s="75"/>
+    </row>
+    <row r="126" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="101"/>
+      <c r="C126" s="111"/>
+      <c r="D126" s="112"/>
+      <c r="E126" s="101"/>
+      <c r="F126" s="101"/>
+      <c r="G126" s="102"/>
+      <c r="H126" s="103"/>
+      <c r="I126" s="75"/>
+      <c r="J126" s="66"/>
+      <c r="K126" s="75"/>
+    </row>
+    <row r="127" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="104"/>
+      <c r="C127" s="98"/>
+      <c r="D127" s="99"/>
+      <c r="E127" s="100"/>
+      <c r="F127" s="101"/>
+      <c r="G127" s="102"/>
+      <c r="H127" s="103"/>
+      <c r="I127" s="75"/>
+      <c r="J127" s="66"/>
+      <c r="K127" s="66"/>
+    </row>
+    <row r="128" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="101"/>
+      <c r="C128" s="98"/>
+      <c r="D128" s="99"/>
+      <c r="E128" s="100"/>
+      <c r="F128" s="101"/>
+      <c r="G128" s="102"/>
+      <c r="H128" s="103"/>
+      <c r="I128" s="75"/>
+      <c r="J128" s="66"/>
+      <c r="K128" s="75"/>
+    </row>
+    <row r="129" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="104"/>
+      <c r="C129" s="98"/>
+      <c r="D129" s="99"/>
+      <c r="E129" s="100"/>
+      <c r="F129" s="101"/>
+      <c r="G129" s="102"/>
+      <c r="H129" s="103"/>
+      <c r="I129" s="66"/>
+      <c r="J129" s="66"/>
+      <c r="K129" s="66"/>
+    </row>
+    <row r="130" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="104"/>
+      <c r="C130" s="98"/>
+      <c r="D130" s="99"/>
+      <c r="E130" s="100"/>
+      <c r="F130" s="101"/>
+      <c r="G130" s="102"/>
+      <c r="H130" s="103"/>
+      <c r="I130" s="66"/>
+      <c r="J130" s="66"/>
+      <c r="K130" s="66"/>
+    </row>
+    <row r="131" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="104"/>
+      <c r="C131" s="98"/>
+      <c r="D131" s="99"/>
+      <c r="E131" s="100"/>
+      <c r="F131" s="101"/>
+      <c r="G131" s="102"/>
+      <c r="H131" s="103"/>
+      <c r="I131" s="66"/>
+      <c r="J131" s="66"/>
+      <c r="K131" s="66"/>
+    </row>
+    <row r="132" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="104"/>
+      <c r="C132" s="98"/>
+      <c r="D132" s="99"/>
+      <c r="E132" s="100"/>
+      <c r="F132" s="101"/>
+      <c r="G132" s="102"/>
+      <c r="H132" s="103"/>
+      <c r="I132" s="66"/>
+      <c r="J132" s="66"/>
+      <c r="K132" s="66"/>
+    </row>
+    <row r="133" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="104"/>
+      <c r="C133" s="98"/>
+      <c r="D133" s="99"/>
+      <c r="E133" s="100"/>
+      <c r="F133" s="101"/>
+      <c r="G133" s="102"/>
+      <c r="H133" s="103"/>
+      <c r="I133" s="75"/>
+      <c r="J133" s="66"/>
+      <c r="K133" s="66"/>
+    </row>
+    <row r="134" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="104"/>
+      <c r="C134" s="98"/>
+      <c r="D134" s="99"/>
+      <c r="E134" s="100"/>
+      <c r="F134" s="101"/>
+      <c r="G134" s="102"/>
+      <c r="H134" s="103"/>
+      <c r="I134" s="75"/>
+      <c r="J134" s="66"/>
+      <c r="K134" s="66"/>
+    </row>
+    <row r="135" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="104"/>
+      <c r="C135" s="98"/>
+      <c r="D135" s="99"/>
+      <c r="E135" s="106"/>
+      <c r="F135" s="101"/>
+      <c r="G135" s="105"/>
+      <c r="H135" s="103"/>
+      <c r="I135" s="66"/>
+      <c r="J135" s="66"/>
+      <c r="K135" s="66"/>
+    </row>
+    <row r="136" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="104"/>
+      <c r="C136" s="98"/>
+      <c r="D136" s="99"/>
+      <c r="E136" s="106"/>
+      <c r="F136" s="101"/>
+      <c r="G136" s="102"/>
+      <c r="H136" s="103"/>
+      <c r="I136" s="66"/>
+      <c r="J136" s="66"/>
+      <c r="K136" s="66"/>
+    </row>
+    <row r="137" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="104"/>
+      <c r="C137" s="98"/>
+      <c r="D137" s="99"/>
+      <c r="E137" s="106"/>
+      <c r="F137" s="101"/>
+      <c r="G137" s="102"/>
+      <c r="H137" s="103"/>
+      <c r="I137" s="66"/>
+      <c r="J137" s="66"/>
+      <c r="K137" s="66"/>
+    </row>
+    <row r="138" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="104"/>
+      <c r="C138" s="98"/>
+      <c r="D138" s="99"/>
+      <c r="E138" s="106"/>
+      <c r="F138" s="107"/>
+      <c r="G138" s="102"/>
+      <c r="H138" s="103"/>
+      <c r="I138" s="66"/>
+    </row>
+    <row r="139" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="104"/>
+      <c r="C139" s="98"/>
+      <c r="D139" s="99"/>
+      <c r="E139" s="106"/>
+      <c r="F139" s="107"/>
+      <c r="G139" s="102"/>
+      <c r="H139" s="108"/>
+      <c r="I139" s="66"/>
+    </row>
+    <row r="140" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="104"/>
+      <c r="C140" s="98"/>
+      <c r="D140" s="99"/>
+      <c r="E140" s="106"/>
+      <c r="F140" s="107"/>
+      <c r="G140" s="102"/>
+      <c r="H140" s="108"/>
+      <c r="I140" s="66"/>
+    </row>
+    <row r="141" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="104"/>
+      <c r="C141" s="111"/>
+      <c r="D141" s="112"/>
+      <c r="E141" s="106"/>
+      <c r="F141" s="107"/>
+      <c r="G141" s="102"/>
+      <c r="H141" s="108"/>
+      <c r="I141" s="66"/>
+    </row>
+    <row r="142" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="104"/>
+      <c r="C142" s="98"/>
+      <c r="D142" s="99"/>
+      <c r="E142" s="106"/>
+      <c r="F142" s="107"/>
+      <c r="G142" s="102"/>
+      <c r="H142" s="103"/>
+      <c r="I142" s="66"/>
+    </row>
+    <row r="143" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="104"/>
+      <c r="C143" s="98"/>
+      <c r="D143" s="99"/>
+      <c r="E143" s="106"/>
+      <c r="F143" s="107"/>
+      <c r="G143" s="102"/>
+      <c r="H143" s="108"/>
+      <c r="I143" s="75"/>
+    </row>
+    <row r="144" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="104"/>
+      <c r="C144" s="109"/>
+      <c r="D144" s="110"/>
+      <c r="E144" s="101"/>
+      <c r="F144" s="101"/>
+      <c r="G144" s="102"/>
+      <c r="H144" s="103"/>
+      <c r="I144" s="66"/>
+    </row>
+    <row r="145" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="25"/>
+      <c r="C145" s="121"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="122"/>
+      <c r="F145" s="122"/>
+      <c r="G145" s="123"/>
+      <c r="H145" s="124"/>
+    </row>
+    <row r="146" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="25"/>
+      <c r="C146" s="121"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="122"/>
+      <c r="F146" s="122"/>
+      <c r="G146" s="123"/>
+      <c r="H146" s="124"/>
+    </row>
+    <row r="147" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="25"/>
+      <c r="C147" s="121"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="122"/>
+      <c r="F147" s="122"/>
+      <c r="G147" s="123"/>
+      <c r="H147" s="124"/>
+    </row>
+    <row r="148" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="25"/>
+      <c r="C148" s="121"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="122"/>
+      <c r="F148" s="122"/>
+      <c r="G148" s="123"/>
+      <c r="H148" s="124"/>
+    </row>
+    <row r="149" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="25"/>
+      <c r="C149" s="121"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="122"/>
+      <c r="F149" s="122"/>
+      <c r="G149" s="123"/>
+      <c r="H149" s="124"/>
+    </row>
+    <row r="150" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="25"/>
+      <c r="C150" s="121"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="122"/>
+      <c r="F150" s="122"/>
+      <c r="G150" s="123"/>
+      <c r="H150" s="124"/>
+    </row>
+    <row r="151" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="25"/>
+      <c r="C151" s="121"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="122"/>
+      <c r="F151" s="122"/>
+      <c r="G151" s="123"/>
+      <c r="H151" s="124"/>
+    </row>
+    <row r="152" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="25"/>
+      <c r="C152" s="121"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="122"/>
+      <c r="F152" s="122"/>
+      <c r="G152" s="123"/>
+      <c r="H152" s="124"/>
+    </row>
+    <row r="153" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="25"/>
+      <c r="C153" s="121"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="122"/>
+      <c r="F153" s="122"/>
+      <c r="G153" s="123"/>
+      <c r="H153" s="124"/>
+    </row>
+    <row r="154" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="25"/>
+      <c r="C154" s="121"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="122"/>
+      <c r="F154" s="122"/>
+      <c r="G154" s="123"/>
+      <c r="H154" s="124"/>
+    </row>
+    <row r="155" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="25"/>
+      <c r="C155" s="121"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="122"/>
+      <c r="F155" s="122"/>
+      <c r="G155" s="123"/>
+      <c r="H155" s="124"/>
+    </row>
+    <row r="156" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B156" s="25"/>
+      <c r="C156" s="121"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="122"/>
+      <c r="F156" s="122"/>
+      <c r="G156" s="123"/>
+      <c r="H156" s="124"/>
+    </row>
+    <row r="157" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="25"/>
+      <c r="C157" s="121"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="122"/>
+      <c r="F157" s="122"/>
+      <c r="G157" s="123"/>
+      <c r="H157" s="124"/>
+    </row>
+    <row r="158" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="25"/>
+      <c r="C158" s="121"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="122"/>
+      <c r="F158" s="122"/>
+      <c r="G158" s="123"/>
+      <c r="H158" s="124"/>
+    </row>
+    <row r="159" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="25"/>
+      <c r="C159" s="121"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="122"/>
+      <c r="F159" s="122"/>
+      <c r="G159" s="123"/>
+      <c r="H159" s="124"/>
+    </row>
+    <row r="160" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="25"/>
+      <c r="C160" s="121"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="122"/>
+      <c r="F160" s="122"/>
+      <c r="G160" s="123"/>
+      <c r="H160" s="124"/>
+    </row>
+    <row r="161" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="25"/>
+      <c r="C161" s="121"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="122"/>
+      <c r="F161" s="122"/>
+      <c r="G161" s="123"/>
+      <c r="H161" s="124"/>
+    </row>
+    <row r="162" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="25"/>
+      <c r="C162" s="121"/>
+      <c r="D162" s="25"/>
+      <c r="E162" s="122"/>
+      <c r="F162" s="122"/>
+      <c r="G162" s="123"/>
+      <c r="H162" s="124"/>
+    </row>
+    <row r="163" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="25"/>
+      <c r="C163" s="121"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="122"/>
+      <c r="F163" s="122"/>
+      <c r="G163" s="123"/>
+      <c r="H163" s="124"/>
+    </row>
+    <row r="164" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B164" s="25"/>
+      <c r="C164" s="121"/>
+      <c r="D164" s="25"/>
+      <c r="E164" s="122"/>
+      <c r="F164" s="122"/>
+      <c r="G164" s="123"/>
+      <c r="H164" s="124"/>
+    </row>
+    <row r="165" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="25"/>
+      <c r="C165" s="121"/>
+      <c r="D165" s="25"/>
+      <c r="E165" s="122"/>
+      <c r="F165" s="122"/>
+      <c r="G165" s="123"/>
+      <c r="H165" s="124"/>
+    </row>
+    <row r="166" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="25"/>
+      <c r="C166" s="121"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="122"/>
+      <c r="F166" s="122"/>
+      <c r="G166" s="123"/>
+      <c r="H166" s="124"/>
+    </row>
+    <row r="167" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="25"/>
+      <c r="C167" s="121"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="122"/>
+      <c r="F167" s="122"/>
+      <c r="G167" s="123"/>
+      <c r="H167" s="124"/>
+    </row>
+    <row r="168" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="25"/>
+      <c r="C168" s="121"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="122"/>
+      <c r="F168" s="122"/>
+      <c r="G168" s="123"/>
+      <c r="H168" s="124"/>
+    </row>
+    <row r="169" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="25"/>
+      <c r="C169" s="121"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="122"/>
+      <c r="F169" s="122"/>
+      <c r="G169" s="123"/>
+      <c r="H169" s="124"/>
+    </row>
+    <row r="170" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="25"/>
+      <c r="C170" s="121"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="122"/>
+      <c r="F170" s="122"/>
+      <c r="G170" s="123"/>
+      <c r="H170" s="124"/>
+    </row>
+    <row r="171" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B171" s="25"/>
+      <c r="C171" s="121"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="122"/>
+      <c r="F171" s="122"/>
+      <c r="G171" s="123"/>
+      <c r="H171" s="124"/>
+    </row>
+    <row r="172" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="25"/>
+      <c r="C172" s="121"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="122"/>
+      <c r="F172" s="122"/>
+      <c r="G172" s="123"/>
+      <c r="H172" s="124"/>
+    </row>
+    <row r="173" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="25"/>
+      <c r="C173" s="121"/>
+      <c r="D173" s="25"/>
+      <c r="E173" s="122"/>
+      <c r="F173" s="122"/>
+      <c r="G173" s="123"/>
+      <c r="H173" s="124"/>
+    </row>
+    <row r="174" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B174" s="25"/>
+      <c r="C174" s="121"/>
+      <c r="D174" s="25"/>
+      <c r="E174" s="122"/>
+      <c r="F174" s="122"/>
+      <c r="G174" s="123"/>
+      <c r="H174" s="124"/>
+    </row>
+    <row r="175" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B175" s="25"/>
+      <c r="C175" s="121"/>
+      <c r="D175" s="25"/>
+      <c r="E175" s="122"/>
+      <c r="F175" s="122"/>
+      <c r="G175" s="123"/>
+      <c r="H175" s="124"/>
+    </row>
+    <row r="176" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="25"/>
+      <c r="C176" s="121"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="122"/>
+      <c r="F176" s="122"/>
+      <c r="G176" s="123"/>
+      <c r="H176" s="124"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="C5:D7"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/templates/standard.xlsx
+++ b/templates/standard.xlsx
@@ -323,18 +323,18 @@
     <t>元</t>
   </si>
   <si>
-    <t>次要项目费 5％</t>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>共计</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>安装费 15%</t>
+    <t>次要项目费</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>共计</t>
+    <t>安装费</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -653,15 +653,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -693,7 +684,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,39 +736,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -799,12 +760,6 @@
     <xf numFmtId="176" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -823,36 +778,18 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,12 +799,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,7 +826,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,10 +907,10 @@
     <xf numFmtId="176" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1078,6 +1009,72 @@
     </xf>
     <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1382,19 +1379,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
@@ -1413,33 +1410,33 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="19" t="s">
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="111" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1464,7 +1461,7 @@
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="20"/>
+      <c r="L5" s="112"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -4477,2430 +4474,2437 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="5" style="29" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="125" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="126" customWidth="1"/>
-    <col min="6" max="6" width="9" style="126"/>
-    <col min="7" max="7" width="9.25" style="127" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="128" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="29" customWidth="1"/>
-    <col min="10" max="256" width="9" style="29"/>
-    <col min="257" max="257" width="3.125" style="29" customWidth="1"/>
-    <col min="258" max="258" width="5" style="29" customWidth="1"/>
-    <col min="259" max="259" width="17.625" style="29" customWidth="1"/>
-    <col min="260" max="260" width="21.75" style="29" customWidth="1"/>
-    <col min="261" max="261" width="5.25" style="29" customWidth="1"/>
-    <col min="262" max="262" width="9" style="29"/>
-    <col min="263" max="264" width="9.25" style="29" customWidth="1"/>
-    <col min="265" max="265" width="8.375" style="29" customWidth="1"/>
-    <col min="266" max="512" width="9" style="29"/>
-    <col min="513" max="513" width="3.125" style="29" customWidth="1"/>
-    <col min="514" max="514" width="5" style="29" customWidth="1"/>
-    <col min="515" max="515" width="17.625" style="29" customWidth="1"/>
-    <col min="516" max="516" width="21.75" style="29" customWidth="1"/>
-    <col min="517" max="517" width="5.25" style="29" customWidth="1"/>
-    <col min="518" max="518" width="9" style="29"/>
-    <col min="519" max="520" width="9.25" style="29" customWidth="1"/>
-    <col min="521" max="521" width="8.375" style="29" customWidth="1"/>
-    <col min="522" max="768" width="9" style="29"/>
-    <col min="769" max="769" width="3.125" style="29" customWidth="1"/>
-    <col min="770" max="770" width="5" style="29" customWidth="1"/>
-    <col min="771" max="771" width="17.625" style="29" customWidth="1"/>
-    <col min="772" max="772" width="21.75" style="29" customWidth="1"/>
-    <col min="773" max="773" width="5.25" style="29" customWidth="1"/>
-    <col min="774" max="774" width="9" style="29"/>
-    <col min="775" max="776" width="9.25" style="29" customWidth="1"/>
-    <col min="777" max="777" width="8.375" style="29" customWidth="1"/>
-    <col min="778" max="1024" width="9" style="29"/>
-    <col min="1025" max="1025" width="3.125" style="29" customWidth="1"/>
-    <col min="1026" max="1026" width="5" style="29" customWidth="1"/>
-    <col min="1027" max="1027" width="17.625" style="29" customWidth="1"/>
-    <col min="1028" max="1028" width="21.75" style="29" customWidth="1"/>
-    <col min="1029" max="1029" width="5.25" style="29" customWidth="1"/>
-    <col min="1030" max="1030" width="9" style="29"/>
-    <col min="1031" max="1032" width="9.25" style="29" customWidth="1"/>
-    <col min="1033" max="1033" width="8.375" style="29" customWidth="1"/>
-    <col min="1034" max="1280" width="9" style="29"/>
-    <col min="1281" max="1281" width="3.125" style="29" customWidth="1"/>
-    <col min="1282" max="1282" width="5" style="29" customWidth="1"/>
-    <col min="1283" max="1283" width="17.625" style="29" customWidth="1"/>
-    <col min="1284" max="1284" width="21.75" style="29" customWidth="1"/>
-    <col min="1285" max="1285" width="5.25" style="29" customWidth="1"/>
-    <col min="1286" max="1286" width="9" style="29"/>
-    <col min="1287" max="1288" width="9.25" style="29" customWidth="1"/>
-    <col min="1289" max="1289" width="8.375" style="29" customWidth="1"/>
-    <col min="1290" max="1536" width="9" style="29"/>
-    <col min="1537" max="1537" width="3.125" style="29" customWidth="1"/>
-    <col min="1538" max="1538" width="5" style="29" customWidth="1"/>
-    <col min="1539" max="1539" width="17.625" style="29" customWidth="1"/>
-    <col min="1540" max="1540" width="21.75" style="29" customWidth="1"/>
-    <col min="1541" max="1541" width="5.25" style="29" customWidth="1"/>
-    <col min="1542" max="1542" width="9" style="29"/>
-    <col min="1543" max="1544" width="9.25" style="29" customWidth="1"/>
-    <col min="1545" max="1545" width="8.375" style="29" customWidth="1"/>
-    <col min="1546" max="1792" width="9" style="29"/>
-    <col min="1793" max="1793" width="3.125" style="29" customWidth="1"/>
-    <col min="1794" max="1794" width="5" style="29" customWidth="1"/>
-    <col min="1795" max="1795" width="17.625" style="29" customWidth="1"/>
-    <col min="1796" max="1796" width="21.75" style="29" customWidth="1"/>
-    <col min="1797" max="1797" width="5.25" style="29" customWidth="1"/>
-    <col min="1798" max="1798" width="9" style="29"/>
-    <col min="1799" max="1800" width="9.25" style="29" customWidth="1"/>
-    <col min="1801" max="1801" width="8.375" style="29" customWidth="1"/>
-    <col min="1802" max="2048" width="9" style="29"/>
-    <col min="2049" max="2049" width="3.125" style="29" customWidth="1"/>
-    <col min="2050" max="2050" width="5" style="29" customWidth="1"/>
-    <col min="2051" max="2051" width="17.625" style="29" customWidth="1"/>
-    <col min="2052" max="2052" width="21.75" style="29" customWidth="1"/>
-    <col min="2053" max="2053" width="5.25" style="29" customWidth="1"/>
-    <col min="2054" max="2054" width="9" style="29"/>
-    <col min="2055" max="2056" width="9.25" style="29" customWidth="1"/>
-    <col min="2057" max="2057" width="8.375" style="29" customWidth="1"/>
-    <col min="2058" max="2304" width="9" style="29"/>
-    <col min="2305" max="2305" width="3.125" style="29" customWidth="1"/>
-    <col min="2306" max="2306" width="5" style="29" customWidth="1"/>
-    <col min="2307" max="2307" width="17.625" style="29" customWidth="1"/>
-    <col min="2308" max="2308" width="21.75" style="29" customWidth="1"/>
-    <col min="2309" max="2309" width="5.25" style="29" customWidth="1"/>
-    <col min="2310" max="2310" width="9" style="29"/>
-    <col min="2311" max="2312" width="9.25" style="29" customWidth="1"/>
-    <col min="2313" max="2313" width="8.375" style="29" customWidth="1"/>
-    <col min="2314" max="2560" width="9" style="29"/>
-    <col min="2561" max="2561" width="3.125" style="29" customWidth="1"/>
-    <col min="2562" max="2562" width="5" style="29" customWidth="1"/>
-    <col min="2563" max="2563" width="17.625" style="29" customWidth="1"/>
-    <col min="2564" max="2564" width="21.75" style="29" customWidth="1"/>
-    <col min="2565" max="2565" width="5.25" style="29" customWidth="1"/>
-    <col min="2566" max="2566" width="9" style="29"/>
-    <col min="2567" max="2568" width="9.25" style="29" customWidth="1"/>
-    <col min="2569" max="2569" width="8.375" style="29" customWidth="1"/>
-    <col min="2570" max="2816" width="9" style="29"/>
-    <col min="2817" max="2817" width="3.125" style="29" customWidth="1"/>
-    <col min="2818" max="2818" width="5" style="29" customWidth="1"/>
-    <col min="2819" max="2819" width="17.625" style="29" customWidth="1"/>
-    <col min="2820" max="2820" width="21.75" style="29" customWidth="1"/>
-    <col min="2821" max="2821" width="5.25" style="29" customWidth="1"/>
-    <col min="2822" max="2822" width="9" style="29"/>
-    <col min="2823" max="2824" width="9.25" style="29" customWidth="1"/>
-    <col min="2825" max="2825" width="8.375" style="29" customWidth="1"/>
-    <col min="2826" max="3072" width="9" style="29"/>
-    <col min="3073" max="3073" width="3.125" style="29" customWidth="1"/>
-    <col min="3074" max="3074" width="5" style="29" customWidth="1"/>
-    <col min="3075" max="3075" width="17.625" style="29" customWidth="1"/>
-    <col min="3076" max="3076" width="21.75" style="29" customWidth="1"/>
-    <col min="3077" max="3077" width="5.25" style="29" customWidth="1"/>
-    <col min="3078" max="3078" width="9" style="29"/>
-    <col min="3079" max="3080" width="9.25" style="29" customWidth="1"/>
-    <col min="3081" max="3081" width="8.375" style="29" customWidth="1"/>
-    <col min="3082" max="3328" width="9" style="29"/>
-    <col min="3329" max="3329" width="3.125" style="29" customWidth="1"/>
-    <col min="3330" max="3330" width="5" style="29" customWidth="1"/>
-    <col min="3331" max="3331" width="17.625" style="29" customWidth="1"/>
-    <col min="3332" max="3332" width="21.75" style="29" customWidth="1"/>
-    <col min="3333" max="3333" width="5.25" style="29" customWidth="1"/>
-    <col min="3334" max="3334" width="9" style="29"/>
-    <col min="3335" max="3336" width="9.25" style="29" customWidth="1"/>
-    <col min="3337" max="3337" width="8.375" style="29" customWidth="1"/>
-    <col min="3338" max="3584" width="9" style="29"/>
-    <col min="3585" max="3585" width="3.125" style="29" customWidth="1"/>
-    <col min="3586" max="3586" width="5" style="29" customWidth="1"/>
-    <col min="3587" max="3587" width="17.625" style="29" customWidth="1"/>
-    <col min="3588" max="3588" width="21.75" style="29" customWidth="1"/>
-    <col min="3589" max="3589" width="5.25" style="29" customWidth="1"/>
-    <col min="3590" max="3590" width="9" style="29"/>
-    <col min="3591" max="3592" width="9.25" style="29" customWidth="1"/>
-    <col min="3593" max="3593" width="8.375" style="29" customWidth="1"/>
-    <col min="3594" max="3840" width="9" style="29"/>
-    <col min="3841" max="3841" width="3.125" style="29" customWidth="1"/>
-    <col min="3842" max="3842" width="5" style="29" customWidth="1"/>
-    <col min="3843" max="3843" width="17.625" style="29" customWidth="1"/>
-    <col min="3844" max="3844" width="21.75" style="29" customWidth="1"/>
-    <col min="3845" max="3845" width="5.25" style="29" customWidth="1"/>
-    <col min="3846" max="3846" width="9" style="29"/>
-    <col min="3847" max="3848" width="9.25" style="29" customWidth="1"/>
-    <col min="3849" max="3849" width="8.375" style="29" customWidth="1"/>
-    <col min="3850" max="4096" width="9" style="29"/>
-    <col min="4097" max="4097" width="3.125" style="29" customWidth="1"/>
-    <col min="4098" max="4098" width="5" style="29" customWidth="1"/>
-    <col min="4099" max="4099" width="17.625" style="29" customWidth="1"/>
-    <col min="4100" max="4100" width="21.75" style="29" customWidth="1"/>
-    <col min="4101" max="4101" width="5.25" style="29" customWidth="1"/>
-    <col min="4102" max="4102" width="9" style="29"/>
-    <col min="4103" max="4104" width="9.25" style="29" customWidth="1"/>
-    <col min="4105" max="4105" width="8.375" style="29" customWidth="1"/>
-    <col min="4106" max="4352" width="9" style="29"/>
-    <col min="4353" max="4353" width="3.125" style="29" customWidth="1"/>
-    <col min="4354" max="4354" width="5" style="29" customWidth="1"/>
-    <col min="4355" max="4355" width="17.625" style="29" customWidth="1"/>
-    <col min="4356" max="4356" width="21.75" style="29" customWidth="1"/>
-    <col min="4357" max="4357" width="5.25" style="29" customWidth="1"/>
-    <col min="4358" max="4358" width="9" style="29"/>
-    <col min="4359" max="4360" width="9.25" style="29" customWidth="1"/>
-    <col min="4361" max="4361" width="8.375" style="29" customWidth="1"/>
-    <col min="4362" max="4608" width="9" style="29"/>
-    <col min="4609" max="4609" width="3.125" style="29" customWidth="1"/>
-    <col min="4610" max="4610" width="5" style="29" customWidth="1"/>
-    <col min="4611" max="4611" width="17.625" style="29" customWidth="1"/>
-    <col min="4612" max="4612" width="21.75" style="29" customWidth="1"/>
-    <col min="4613" max="4613" width="5.25" style="29" customWidth="1"/>
-    <col min="4614" max="4614" width="9" style="29"/>
-    <col min="4615" max="4616" width="9.25" style="29" customWidth="1"/>
-    <col min="4617" max="4617" width="8.375" style="29" customWidth="1"/>
-    <col min="4618" max="4864" width="9" style="29"/>
-    <col min="4865" max="4865" width="3.125" style="29" customWidth="1"/>
-    <col min="4866" max="4866" width="5" style="29" customWidth="1"/>
-    <col min="4867" max="4867" width="17.625" style="29" customWidth="1"/>
-    <col min="4868" max="4868" width="21.75" style="29" customWidth="1"/>
-    <col min="4869" max="4869" width="5.25" style="29" customWidth="1"/>
-    <col min="4870" max="4870" width="9" style="29"/>
-    <col min="4871" max="4872" width="9.25" style="29" customWidth="1"/>
-    <col min="4873" max="4873" width="8.375" style="29" customWidth="1"/>
-    <col min="4874" max="5120" width="9" style="29"/>
-    <col min="5121" max="5121" width="3.125" style="29" customWidth="1"/>
-    <col min="5122" max="5122" width="5" style="29" customWidth="1"/>
-    <col min="5123" max="5123" width="17.625" style="29" customWidth="1"/>
-    <col min="5124" max="5124" width="21.75" style="29" customWidth="1"/>
-    <col min="5125" max="5125" width="5.25" style="29" customWidth="1"/>
-    <col min="5126" max="5126" width="9" style="29"/>
-    <col min="5127" max="5128" width="9.25" style="29" customWidth="1"/>
-    <col min="5129" max="5129" width="8.375" style="29" customWidth="1"/>
-    <col min="5130" max="5376" width="9" style="29"/>
-    <col min="5377" max="5377" width="3.125" style="29" customWidth="1"/>
-    <col min="5378" max="5378" width="5" style="29" customWidth="1"/>
-    <col min="5379" max="5379" width="17.625" style="29" customWidth="1"/>
-    <col min="5380" max="5380" width="21.75" style="29" customWidth="1"/>
-    <col min="5381" max="5381" width="5.25" style="29" customWidth="1"/>
-    <col min="5382" max="5382" width="9" style="29"/>
-    <col min="5383" max="5384" width="9.25" style="29" customWidth="1"/>
-    <col min="5385" max="5385" width="8.375" style="29" customWidth="1"/>
-    <col min="5386" max="5632" width="9" style="29"/>
-    <col min="5633" max="5633" width="3.125" style="29" customWidth="1"/>
-    <col min="5634" max="5634" width="5" style="29" customWidth="1"/>
-    <col min="5635" max="5635" width="17.625" style="29" customWidth="1"/>
-    <col min="5636" max="5636" width="21.75" style="29" customWidth="1"/>
-    <col min="5637" max="5637" width="5.25" style="29" customWidth="1"/>
-    <col min="5638" max="5638" width="9" style="29"/>
-    <col min="5639" max="5640" width="9.25" style="29" customWidth="1"/>
-    <col min="5641" max="5641" width="8.375" style="29" customWidth="1"/>
-    <col min="5642" max="5888" width="9" style="29"/>
-    <col min="5889" max="5889" width="3.125" style="29" customWidth="1"/>
-    <col min="5890" max="5890" width="5" style="29" customWidth="1"/>
-    <col min="5891" max="5891" width="17.625" style="29" customWidth="1"/>
-    <col min="5892" max="5892" width="21.75" style="29" customWidth="1"/>
-    <col min="5893" max="5893" width="5.25" style="29" customWidth="1"/>
-    <col min="5894" max="5894" width="9" style="29"/>
-    <col min="5895" max="5896" width="9.25" style="29" customWidth="1"/>
-    <col min="5897" max="5897" width="8.375" style="29" customWidth="1"/>
-    <col min="5898" max="6144" width="9" style="29"/>
-    <col min="6145" max="6145" width="3.125" style="29" customWidth="1"/>
-    <col min="6146" max="6146" width="5" style="29" customWidth="1"/>
-    <col min="6147" max="6147" width="17.625" style="29" customWidth="1"/>
-    <col min="6148" max="6148" width="21.75" style="29" customWidth="1"/>
-    <col min="6149" max="6149" width="5.25" style="29" customWidth="1"/>
-    <col min="6150" max="6150" width="9" style="29"/>
-    <col min="6151" max="6152" width="9.25" style="29" customWidth="1"/>
-    <col min="6153" max="6153" width="8.375" style="29" customWidth="1"/>
-    <col min="6154" max="6400" width="9" style="29"/>
-    <col min="6401" max="6401" width="3.125" style="29" customWidth="1"/>
-    <col min="6402" max="6402" width="5" style="29" customWidth="1"/>
-    <col min="6403" max="6403" width="17.625" style="29" customWidth="1"/>
-    <col min="6404" max="6404" width="21.75" style="29" customWidth="1"/>
-    <col min="6405" max="6405" width="5.25" style="29" customWidth="1"/>
-    <col min="6406" max="6406" width="9" style="29"/>
-    <col min="6407" max="6408" width="9.25" style="29" customWidth="1"/>
-    <col min="6409" max="6409" width="8.375" style="29" customWidth="1"/>
-    <col min="6410" max="6656" width="9" style="29"/>
-    <col min="6657" max="6657" width="3.125" style="29" customWidth="1"/>
-    <col min="6658" max="6658" width="5" style="29" customWidth="1"/>
-    <col min="6659" max="6659" width="17.625" style="29" customWidth="1"/>
-    <col min="6660" max="6660" width="21.75" style="29" customWidth="1"/>
-    <col min="6661" max="6661" width="5.25" style="29" customWidth="1"/>
-    <col min="6662" max="6662" width="9" style="29"/>
-    <col min="6663" max="6664" width="9.25" style="29" customWidth="1"/>
-    <col min="6665" max="6665" width="8.375" style="29" customWidth="1"/>
-    <col min="6666" max="6912" width="9" style="29"/>
-    <col min="6913" max="6913" width="3.125" style="29" customWidth="1"/>
-    <col min="6914" max="6914" width="5" style="29" customWidth="1"/>
-    <col min="6915" max="6915" width="17.625" style="29" customWidth="1"/>
-    <col min="6916" max="6916" width="21.75" style="29" customWidth="1"/>
-    <col min="6917" max="6917" width="5.25" style="29" customWidth="1"/>
-    <col min="6918" max="6918" width="9" style="29"/>
-    <col min="6919" max="6920" width="9.25" style="29" customWidth="1"/>
-    <col min="6921" max="6921" width="8.375" style="29" customWidth="1"/>
-    <col min="6922" max="7168" width="9" style="29"/>
-    <col min="7169" max="7169" width="3.125" style="29" customWidth="1"/>
-    <col min="7170" max="7170" width="5" style="29" customWidth="1"/>
-    <col min="7171" max="7171" width="17.625" style="29" customWidth="1"/>
-    <col min="7172" max="7172" width="21.75" style="29" customWidth="1"/>
-    <col min="7173" max="7173" width="5.25" style="29" customWidth="1"/>
-    <col min="7174" max="7174" width="9" style="29"/>
-    <col min="7175" max="7176" width="9.25" style="29" customWidth="1"/>
-    <col min="7177" max="7177" width="8.375" style="29" customWidth="1"/>
-    <col min="7178" max="7424" width="9" style="29"/>
-    <col min="7425" max="7425" width="3.125" style="29" customWidth="1"/>
-    <col min="7426" max="7426" width="5" style="29" customWidth="1"/>
-    <col min="7427" max="7427" width="17.625" style="29" customWidth="1"/>
-    <col min="7428" max="7428" width="21.75" style="29" customWidth="1"/>
-    <col min="7429" max="7429" width="5.25" style="29" customWidth="1"/>
-    <col min="7430" max="7430" width="9" style="29"/>
-    <col min="7431" max="7432" width="9.25" style="29" customWidth="1"/>
-    <col min="7433" max="7433" width="8.375" style="29" customWidth="1"/>
-    <col min="7434" max="7680" width="9" style="29"/>
-    <col min="7681" max="7681" width="3.125" style="29" customWidth="1"/>
-    <col min="7682" max="7682" width="5" style="29" customWidth="1"/>
-    <col min="7683" max="7683" width="17.625" style="29" customWidth="1"/>
-    <col min="7684" max="7684" width="21.75" style="29" customWidth="1"/>
-    <col min="7685" max="7685" width="5.25" style="29" customWidth="1"/>
-    <col min="7686" max="7686" width="9" style="29"/>
-    <col min="7687" max="7688" width="9.25" style="29" customWidth="1"/>
-    <col min="7689" max="7689" width="8.375" style="29" customWidth="1"/>
-    <col min="7690" max="7936" width="9" style="29"/>
-    <col min="7937" max="7937" width="3.125" style="29" customWidth="1"/>
-    <col min="7938" max="7938" width="5" style="29" customWidth="1"/>
-    <col min="7939" max="7939" width="17.625" style="29" customWidth="1"/>
-    <col min="7940" max="7940" width="21.75" style="29" customWidth="1"/>
-    <col min="7941" max="7941" width="5.25" style="29" customWidth="1"/>
-    <col min="7942" max="7942" width="9" style="29"/>
-    <col min="7943" max="7944" width="9.25" style="29" customWidth="1"/>
-    <col min="7945" max="7945" width="8.375" style="29" customWidth="1"/>
-    <col min="7946" max="8192" width="9" style="29"/>
-    <col min="8193" max="8193" width="3.125" style="29" customWidth="1"/>
-    <col min="8194" max="8194" width="5" style="29" customWidth="1"/>
-    <col min="8195" max="8195" width="17.625" style="29" customWidth="1"/>
-    <col min="8196" max="8196" width="21.75" style="29" customWidth="1"/>
-    <col min="8197" max="8197" width="5.25" style="29" customWidth="1"/>
-    <col min="8198" max="8198" width="9" style="29"/>
-    <col min="8199" max="8200" width="9.25" style="29" customWidth="1"/>
-    <col min="8201" max="8201" width="8.375" style="29" customWidth="1"/>
-    <col min="8202" max="8448" width="9" style="29"/>
-    <col min="8449" max="8449" width="3.125" style="29" customWidth="1"/>
-    <col min="8450" max="8450" width="5" style="29" customWidth="1"/>
-    <col min="8451" max="8451" width="17.625" style="29" customWidth="1"/>
-    <col min="8452" max="8452" width="21.75" style="29" customWidth="1"/>
-    <col min="8453" max="8453" width="5.25" style="29" customWidth="1"/>
-    <col min="8454" max="8454" width="9" style="29"/>
-    <col min="8455" max="8456" width="9.25" style="29" customWidth="1"/>
-    <col min="8457" max="8457" width="8.375" style="29" customWidth="1"/>
-    <col min="8458" max="8704" width="9" style="29"/>
-    <col min="8705" max="8705" width="3.125" style="29" customWidth="1"/>
-    <col min="8706" max="8706" width="5" style="29" customWidth="1"/>
-    <col min="8707" max="8707" width="17.625" style="29" customWidth="1"/>
-    <col min="8708" max="8708" width="21.75" style="29" customWidth="1"/>
-    <col min="8709" max="8709" width="5.25" style="29" customWidth="1"/>
-    <col min="8710" max="8710" width="9" style="29"/>
-    <col min="8711" max="8712" width="9.25" style="29" customWidth="1"/>
-    <col min="8713" max="8713" width="8.375" style="29" customWidth="1"/>
-    <col min="8714" max="8960" width="9" style="29"/>
-    <col min="8961" max="8961" width="3.125" style="29" customWidth="1"/>
-    <col min="8962" max="8962" width="5" style="29" customWidth="1"/>
-    <col min="8963" max="8963" width="17.625" style="29" customWidth="1"/>
-    <col min="8964" max="8964" width="21.75" style="29" customWidth="1"/>
-    <col min="8965" max="8965" width="5.25" style="29" customWidth="1"/>
-    <col min="8966" max="8966" width="9" style="29"/>
-    <col min="8967" max="8968" width="9.25" style="29" customWidth="1"/>
-    <col min="8969" max="8969" width="8.375" style="29" customWidth="1"/>
-    <col min="8970" max="9216" width="9" style="29"/>
-    <col min="9217" max="9217" width="3.125" style="29" customWidth="1"/>
-    <col min="9218" max="9218" width="5" style="29" customWidth="1"/>
-    <col min="9219" max="9219" width="17.625" style="29" customWidth="1"/>
-    <col min="9220" max="9220" width="21.75" style="29" customWidth="1"/>
-    <col min="9221" max="9221" width="5.25" style="29" customWidth="1"/>
-    <col min="9222" max="9222" width="9" style="29"/>
-    <col min="9223" max="9224" width="9.25" style="29" customWidth="1"/>
-    <col min="9225" max="9225" width="8.375" style="29" customWidth="1"/>
-    <col min="9226" max="9472" width="9" style="29"/>
-    <col min="9473" max="9473" width="3.125" style="29" customWidth="1"/>
-    <col min="9474" max="9474" width="5" style="29" customWidth="1"/>
-    <col min="9475" max="9475" width="17.625" style="29" customWidth="1"/>
-    <col min="9476" max="9476" width="21.75" style="29" customWidth="1"/>
-    <col min="9477" max="9477" width="5.25" style="29" customWidth="1"/>
-    <col min="9478" max="9478" width="9" style="29"/>
-    <col min="9479" max="9480" width="9.25" style="29" customWidth="1"/>
-    <col min="9481" max="9481" width="8.375" style="29" customWidth="1"/>
-    <col min="9482" max="9728" width="9" style="29"/>
-    <col min="9729" max="9729" width="3.125" style="29" customWidth="1"/>
-    <col min="9730" max="9730" width="5" style="29" customWidth="1"/>
-    <col min="9731" max="9731" width="17.625" style="29" customWidth="1"/>
-    <col min="9732" max="9732" width="21.75" style="29" customWidth="1"/>
-    <col min="9733" max="9733" width="5.25" style="29" customWidth="1"/>
-    <col min="9734" max="9734" width="9" style="29"/>
-    <col min="9735" max="9736" width="9.25" style="29" customWidth="1"/>
-    <col min="9737" max="9737" width="8.375" style="29" customWidth="1"/>
-    <col min="9738" max="9984" width="9" style="29"/>
-    <col min="9985" max="9985" width="3.125" style="29" customWidth="1"/>
-    <col min="9986" max="9986" width="5" style="29" customWidth="1"/>
-    <col min="9987" max="9987" width="17.625" style="29" customWidth="1"/>
-    <col min="9988" max="9988" width="21.75" style="29" customWidth="1"/>
-    <col min="9989" max="9989" width="5.25" style="29" customWidth="1"/>
-    <col min="9990" max="9990" width="9" style="29"/>
-    <col min="9991" max="9992" width="9.25" style="29" customWidth="1"/>
-    <col min="9993" max="9993" width="8.375" style="29" customWidth="1"/>
-    <col min="9994" max="10240" width="9" style="29"/>
-    <col min="10241" max="10241" width="3.125" style="29" customWidth="1"/>
-    <col min="10242" max="10242" width="5" style="29" customWidth="1"/>
-    <col min="10243" max="10243" width="17.625" style="29" customWidth="1"/>
-    <col min="10244" max="10244" width="21.75" style="29" customWidth="1"/>
-    <col min="10245" max="10245" width="5.25" style="29" customWidth="1"/>
-    <col min="10246" max="10246" width="9" style="29"/>
-    <col min="10247" max="10248" width="9.25" style="29" customWidth="1"/>
-    <col min="10249" max="10249" width="8.375" style="29" customWidth="1"/>
-    <col min="10250" max="10496" width="9" style="29"/>
-    <col min="10497" max="10497" width="3.125" style="29" customWidth="1"/>
-    <col min="10498" max="10498" width="5" style="29" customWidth="1"/>
-    <col min="10499" max="10499" width="17.625" style="29" customWidth="1"/>
-    <col min="10500" max="10500" width="21.75" style="29" customWidth="1"/>
-    <col min="10501" max="10501" width="5.25" style="29" customWidth="1"/>
-    <col min="10502" max="10502" width="9" style="29"/>
-    <col min="10503" max="10504" width="9.25" style="29" customWidth="1"/>
-    <col min="10505" max="10505" width="8.375" style="29" customWidth="1"/>
-    <col min="10506" max="10752" width="9" style="29"/>
-    <col min="10753" max="10753" width="3.125" style="29" customWidth="1"/>
-    <col min="10754" max="10754" width="5" style="29" customWidth="1"/>
-    <col min="10755" max="10755" width="17.625" style="29" customWidth="1"/>
-    <col min="10756" max="10756" width="21.75" style="29" customWidth="1"/>
-    <col min="10757" max="10757" width="5.25" style="29" customWidth="1"/>
-    <col min="10758" max="10758" width="9" style="29"/>
-    <col min="10759" max="10760" width="9.25" style="29" customWidth="1"/>
-    <col min="10761" max="10761" width="8.375" style="29" customWidth="1"/>
-    <col min="10762" max="11008" width="9" style="29"/>
-    <col min="11009" max="11009" width="3.125" style="29" customWidth="1"/>
-    <col min="11010" max="11010" width="5" style="29" customWidth="1"/>
-    <col min="11011" max="11011" width="17.625" style="29" customWidth="1"/>
-    <col min="11012" max="11012" width="21.75" style="29" customWidth="1"/>
-    <col min="11013" max="11013" width="5.25" style="29" customWidth="1"/>
-    <col min="11014" max="11014" width="9" style="29"/>
-    <col min="11015" max="11016" width="9.25" style="29" customWidth="1"/>
-    <col min="11017" max="11017" width="8.375" style="29" customWidth="1"/>
-    <col min="11018" max="11264" width="9" style="29"/>
-    <col min="11265" max="11265" width="3.125" style="29" customWidth="1"/>
-    <col min="11266" max="11266" width="5" style="29" customWidth="1"/>
-    <col min="11267" max="11267" width="17.625" style="29" customWidth="1"/>
-    <col min="11268" max="11268" width="21.75" style="29" customWidth="1"/>
-    <col min="11269" max="11269" width="5.25" style="29" customWidth="1"/>
-    <col min="11270" max="11270" width="9" style="29"/>
-    <col min="11271" max="11272" width="9.25" style="29" customWidth="1"/>
-    <col min="11273" max="11273" width="8.375" style="29" customWidth="1"/>
-    <col min="11274" max="11520" width="9" style="29"/>
-    <col min="11521" max="11521" width="3.125" style="29" customWidth="1"/>
-    <col min="11522" max="11522" width="5" style="29" customWidth="1"/>
-    <col min="11523" max="11523" width="17.625" style="29" customWidth="1"/>
-    <col min="11524" max="11524" width="21.75" style="29" customWidth="1"/>
-    <col min="11525" max="11525" width="5.25" style="29" customWidth="1"/>
-    <col min="11526" max="11526" width="9" style="29"/>
-    <col min="11527" max="11528" width="9.25" style="29" customWidth="1"/>
-    <col min="11529" max="11529" width="8.375" style="29" customWidth="1"/>
-    <col min="11530" max="11776" width="9" style="29"/>
-    <col min="11777" max="11777" width="3.125" style="29" customWidth="1"/>
-    <col min="11778" max="11778" width="5" style="29" customWidth="1"/>
-    <col min="11779" max="11779" width="17.625" style="29" customWidth="1"/>
-    <col min="11780" max="11780" width="21.75" style="29" customWidth="1"/>
-    <col min="11781" max="11781" width="5.25" style="29" customWidth="1"/>
-    <col min="11782" max="11782" width="9" style="29"/>
-    <col min="11783" max="11784" width="9.25" style="29" customWidth="1"/>
-    <col min="11785" max="11785" width="8.375" style="29" customWidth="1"/>
-    <col min="11786" max="12032" width="9" style="29"/>
-    <col min="12033" max="12033" width="3.125" style="29" customWidth="1"/>
-    <col min="12034" max="12034" width="5" style="29" customWidth="1"/>
-    <col min="12035" max="12035" width="17.625" style="29" customWidth="1"/>
-    <col min="12036" max="12036" width="21.75" style="29" customWidth="1"/>
-    <col min="12037" max="12037" width="5.25" style="29" customWidth="1"/>
-    <col min="12038" max="12038" width="9" style="29"/>
-    <col min="12039" max="12040" width="9.25" style="29" customWidth="1"/>
-    <col min="12041" max="12041" width="8.375" style="29" customWidth="1"/>
-    <col min="12042" max="12288" width="9" style="29"/>
-    <col min="12289" max="12289" width="3.125" style="29" customWidth="1"/>
-    <col min="12290" max="12290" width="5" style="29" customWidth="1"/>
-    <col min="12291" max="12291" width="17.625" style="29" customWidth="1"/>
-    <col min="12292" max="12292" width="21.75" style="29" customWidth="1"/>
-    <col min="12293" max="12293" width="5.25" style="29" customWidth="1"/>
-    <col min="12294" max="12294" width="9" style="29"/>
-    <col min="12295" max="12296" width="9.25" style="29" customWidth="1"/>
-    <col min="12297" max="12297" width="8.375" style="29" customWidth="1"/>
-    <col min="12298" max="12544" width="9" style="29"/>
-    <col min="12545" max="12545" width="3.125" style="29" customWidth="1"/>
-    <col min="12546" max="12546" width="5" style="29" customWidth="1"/>
-    <col min="12547" max="12547" width="17.625" style="29" customWidth="1"/>
-    <col min="12548" max="12548" width="21.75" style="29" customWidth="1"/>
-    <col min="12549" max="12549" width="5.25" style="29" customWidth="1"/>
-    <col min="12550" max="12550" width="9" style="29"/>
-    <col min="12551" max="12552" width="9.25" style="29" customWidth="1"/>
-    <col min="12553" max="12553" width="8.375" style="29" customWidth="1"/>
-    <col min="12554" max="12800" width="9" style="29"/>
-    <col min="12801" max="12801" width="3.125" style="29" customWidth="1"/>
-    <col min="12802" max="12802" width="5" style="29" customWidth="1"/>
-    <col min="12803" max="12803" width="17.625" style="29" customWidth="1"/>
-    <col min="12804" max="12804" width="21.75" style="29" customWidth="1"/>
-    <col min="12805" max="12805" width="5.25" style="29" customWidth="1"/>
-    <col min="12806" max="12806" width="9" style="29"/>
-    <col min="12807" max="12808" width="9.25" style="29" customWidth="1"/>
-    <col min="12809" max="12809" width="8.375" style="29" customWidth="1"/>
-    <col min="12810" max="13056" width="9" style="29"/>
-    <col min="13057" max="13057" width="3.125" style="29" customWidth="1"/>
-    <col min="13058" max="13058" width="5" style="29" customWidth="1"/>
-    <col min="13059" max="13059" width="17.625" style="29" customWidth="1"/>
-    <col min="13060" max="13060" width="21.75" style="29" customWidth="1"/>
-    <col min="13061" max="13061" width="5.25" style="29" customWidth="1"/>
-    <col min="13062" max="13062" width="9" style="29"/>
-    <col min="13063" max="13064" width="9.25" style="29" customWidth="1"/>
-    <col min="13065" max="13065" width="8.375" style="29" customWidth="1"/>
-    <col min="13066" max="13312" width="9" style="29"/>
-    <col min="13313" max="13313" width="3.125" style="29" customWidth="1"/>
-    <col min="13314" max="13314" width="5" style="29" customWidth="1"/>
-    <col min="13315" max="13315" width="17.625" style="29" customWidth="1"/>
-    <col min="13316" max="13316" width="21.75" style="29" customWidth="1"/>
-    <col min="13317" max="13317" width="5.25" style="29" customWidth="1"/>
-    <col min="13318" max="13318" width="9" style="29"/>
-    <col min="13319" max="13320" width="9.25" style="29" customWidth="1"/>
-    <col min="13321" max="13321" width="8.375" style="29" customWidth="1"/>
-    <col min="13322" max="13568" width="9" style="29"/>
-    <col min="13569" max="13569" width="3.125" style="29" customWidth="1"/>
-    <col min="13570" max="13570" width="5" style="29" customWidth="1"/>
-    <col min="13571" max="13571" width="17.625" style="29" customWidth="1"/>
-    <col min="13572" max="13572" width="21.75" style="29" customWidth="1"/>
-    <col min="13573" max="13573" width="5.25" style="29" customWidth="1"/>
-    <col min="13574" max="13574" width="9" style="29"/>
-    <col min="13575" max="13576" width="9.25" style="29" customWidth="1"/>
-    <col min="13577" max="13577" width="8.375" style="29" customWidth="1"/>
-    <col min="13578" max="13824" width="9" style="29"/>
-    <col min="13825" max="13825" width="3.125" style="29" customWidth="1"/>
-    <col min="13826" max="13826" width="5" style="29" customWidth="1"/>
-    <col min="13827" max="13827" width="17.625" style="29" customWidth="1"/>
-    <col min="13828" max="13828" width="21.75" style="29" customWidth="1"/>
-    <col min="13829" max="13829" width="5.25" style="29" customWidth="1"/>
-    <col min="13830" max="13830" width="9" style="29"/>
-    <col min="13831" max="13832" width="9.25" style="29" customWidth="1"/>
-    <col min="13833" max="13833" width="8.375" style="29" customWidth="1"/>
-    <col min="13834" max="14080" width="9" style="29"/>
-    <col min="14081" max="14081" width="3.125" style="29" customWidth="1"/>
-    <col min="14082" max="14082" width="5" style="29" customWidth="1"/>
-    <col min="14083" max="14083" width="17.625" style="29" customWidth="1"/>
-    <col min="14084" max="14084" width="21.75" style="29" customWidth="1"/>
-    <col min="14085" max="14085" width="5.25" style="29" customWidth="1"/>
-    <col min="14086" max="14086" width="9" style="29"/>
-    <col min="14087" max="14088" width="9.25" style="29" customWidth="1"/>
-    <col min="14089" max="14089" width="8.375" style="29" customWidth="1"/>
-    <col min="14090" max="14336" width="9" style="29"/>
-    <col min="14337" max="14337" width="3.125" style="29" customWidth="1"/>
-    <col min="14338" max="14338" width="5" style="29" customWidth="1"/>
-    <col min="14339" max="14339" width="17.625" style="29" customWidth="1"/>
-    <col min="14340" max="14340" width="21.75" style="29" customWidth="1"/>
-    <col min="14341" max="14341" width="5.25" style="29" customWidth="1"/>
-    <col min="14342" max="14342" width="9" style="29"/>
-    <col min="14343" max="14344" width="9.25" style="29" customWidth="1"/>
-    <col min="14345" max="14345" width="8.375" style="29" customWidth="1"/>
-    <col min="14346" max="14592" width="9" style="29"/>
-    <col min="14593" max="14593" width="3.125" style="29" customWidth="1"/>
-    <col min="14594" max="14594" width="5" style="29" customWidth="1"/>
-    <col min="14595" max="14595" width="17.625" style="29" customWidth="1"/>
-    <col min="14596" max="14596" width="21.75" style="29" customWidth="1"/>
-    <col min="14597" max="14597" width="5.25" style="29" customWidth="1"/>
-    <col min="14598" max="14598" width="9" style="29"/>
-    <col min="14599" max="14600" width="9.25" style="29" customWidth="1"/>
-    <col min="14601" max="14601" width="8.375" style="29" customWidth="1"/>
-    <col min="14602" max="14848" width="9" style="29"/>
-    <col min="14849" max="14849" width="3.125" style="29" customWidth="1"/>
-    <col min="14850" max="14850" width="5" style="29" customWidth="1"/>
-    <col min="14851" max="14851" width="17.625" style="29" customWidth="1"/>
-    <col min="14852" max="14852" width="21.75" style="29" customWidth="1"/>
-    <col min="14853" max="14853" width="5.25" style="29" customWidth="1"/>
-    <col min="14854" max="14854" width="9" style="29"/>
-    <col min="14855" max="14856" width="9.25" style="29" customWidth="1"/>
-    <col min="14857" max="14857" width="8.375" style="29" customWidth="1"/>
-    <col min="14858" max="15104" width="9" style="29"/>
-    <col min="15105" max="15105" width="3.125" style="29" customWidth="1"/>
-    <col min="15106" max="15106" width="5" style="29" customWidth="1"/>
-    <col min="15107" max="15107" width="17.625" style="29" customWidth="1"/>
-    <col min="15108" max="15108" width="21.75" style="29" customWidth="1"/>
-    <col min="15109" max="15109" width="5.25" style="29" customWidth="1"/>
-    <col min="15110" max="15110" width="9" style="29"/>
-    <col min="15111" max="15112" width="9.25" style="29" customWidth="1"/>
-    <col min="15113" max="15113" width="8.375" style="29" customWidth="1"/>
-    <col min="15114" max="15360" width="9" style="29"/>
-    <col min="15361" max="15361" width="3.125" style="29" customWidth="1"/>
-    <col min="15362" max="15362" width="5" style="29" customWidth="1"/>
-    <col min="15363" max="15363" width="17.625" style="29" customWidth="1"/>
-    <col min="15364" max="15364" width="21.75" style="29" customWidth="1"/>
-    <col min="15365" max="15365" width="5.25" style="29" customWidth="1"/>
-    <col min="15366" max="15366" width="9" style="29"/>
-    <col min="15367" max="15368" width="9.25" style="29" customWidth="1"/>
-    <col min="15369" max="15369" width="8.375" style="29" customWidth="1"/>
-    <col min="15370" max="15616" width="9" style="29"/>
-    <col min="15617" max="15617" width="3.125" style="29" customWidth="1"/>
-    <col min="15618" max="15618" width="5" style="29" customWidth="1"/>
-    <col min="15619" max="15619" width="17.625" style="29" customWidth="1"/>
-    <col min="15620" max="15620" width="21.75" style="29" customWidth="1"/>
-    <col min="15621" max="15621" width="5.25" style="29" customWidth="1"/>
-    <col min="15622" max="15622" width="9" style="29"/>
-    <col min="15623" max="15624" width="9.25" style="29" customWidth="1"/>
-    <col min="15625" max="15625" width="8.375" style="29" customWidth="1"/>
-    <col min="15626" max="15872" width="9" style="29"/>
-    <col min="15873" max="15873" width="3.125" style="29" customWidth="1"/>
-    <col min="15874" max="15874" width="5" style="29" customWidth="1"/>
-    <col min="15875" max="15875" width="17.625" style="29" customWidth="1"/>
-    <col min="15876" max="15876" width="21.75" style="29" customWidth="1"/>
-    <col min="15877" max="15877" width="5.25" style="29" customWidth="1"/>
-    <col min="15878" max="15878" width="9" style="29"/>
-    <col min="15879" max="15880" width="9.25" style="29" customWidth="1"/>
-    <col min="15881" max="15881" width="8.375" style="29" customWidth="1"/>
-    <col min="15882" max="16128" width="9" style="29"/>
-    <col min="16129" max="16129" width="3.125" style="29" customWidth="1"/>
-    <col min="16130" max="16130" width="5" style="29" customWidth="1"/>
-    <col min="16131" max="16131" width="17.625" style="29" customWidth="1"/>
-    <col min="16132" max="16132" width="21.75" style="29" customWidth="1"/>
-    <col min="16133" max="16133" width="5.25" style="29" customWidth="1"/>
-    <col min="16134" max="16134" width="9" style="29"/>
-    <col min="16135" max="16136" width="9.25" style="29" customWidth="1"/>
-    <col min="16137" max="16137" width="8.375" style="29" customWidth="1"/>
-    <col min="16138" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="3.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="105" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="106" customWidth="1"/>
+    <col min="6" max="6" width="9" style="106"/>
+    <col min="7" max="7" width="9.25" style="107" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="108" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="19" customWidth="1"/>
+    <col min="10" max="256" width="9" style="19"/>
+    <col min="257" max="257" width="3.125" style="19" customWidth="1"/>
+    <col min="258" max="258" width="5" style="19" customWidth="1"/>
+    <col min="259" max="259" width="17.625" style="19" customWidth="1"/>
+    <col min="260" max="260" width="21.75" style="19" customWidth="1"/>
+    <col min="261" max="261" width="5.25" style="19" customWidth="1"/>
+    <col min="262" max="262" width="9" style="19"/>
+    <col min="263" max="264" width="9.25" style="19" customWidth="1"/>
+    <col min="265" max="265" width="8.375" style="19" customWidth="1"/>
+    <col min="266" max="512" width="9" style="19"/>
+    <col min="513" max="513" width="3.125" style="19" customWidth="1"/>
+    <col min="514" max="514" width="5" style="19" customWidth="1"/>
+    <col min="515" max="515" width="17.625" style="19" customWidth="1"/>
+    <col min="516" max="516" width="21.75" style="19" customWidth="1"/>
+    <col min="517" max="517" width="5.25" style="19" customWidth="1"/>
+    <col min="518" max="518" width="9" style="19"/>
+    <col min="519" max="520" width="9.25" style="19" customWidth="1"/>
+    <col min="521" max="521" width="8.375" style="19" customWidth="1"/>
+    <col min="522" max="768" width="9" style="19"/>
+    <col min="769" max="769" width="3.125" style="19" customWidth="1"/>
+    <col min="770" max="770" width="5" style="19" customWidth="1"/>
+    <col min="771" max="771" width="17.625" style="19" customWidth="1"/>
+    <col min="772" max="772" width="21.75" style="19" customWidth="1"/>
+    <col min="773" max="773" width="5.25" style="19" customWidth="1"/>
+    <col min="774" max="774" width="9" style="19"/>
+    <col min="775" max="776" width="9.25" style="19" customWidth="1"/>
+    <col min="777" max="777" width="8.375" style="19" customWidth="1"/>
+    <col min="778" max="1024" width="9" style="19"/>
+    <col min="1025" max="1025" width="3.125" style="19" customWidth="1"/>
+    <col min="1026" max="1026" width="5" style="19" customWidth="1"/>
+    <col min="1027" max="1027" width="17.625" style="19" customWidth="1"/>
+    <col min="1028" max="1028" width="21.75" style="19" customWidth="1"/>
+    <col min="1029" max="1029" width="5.25" style="19" customWidth="1"/>
+    <col min="1030" max="1030" width="9" style="19"/>
+    <col min="1031" max="1032" width="9.25" style="19" customWidth="1"/>
+    <col min="1033" max="1033" width="8.375" style="19" customWidth="1"/>
+    <col min="1034" max="1280" width="9" style="19"/>
+    <col min="1281" max="1281" width="3.125" style="19" customWidth="1"/>
+    <col min="1282" max="1282" width="5" style="19" customWidth="1"/>
+    <col min="1283" max="1283" width="17.625" style="19" customWidth="1"/>
+    <col min="1284" max="1284" width="21.75" style="19" customWidth="1"/>
+    <col min="1285" max="1285" width="5.25" style="19" customWidth="1"/>
+    <col min="1286" max="1286" width="9" style="19"/>
+    <col min="1287" max="1288" width="9.25" style="19" customWidth="1"/>
+    <col min="1289" max="1289" width="8.375" style="19" customWidth="1"/>
+    <col min="1290" max="1536" width="9" style="19"/>
+    <col min="1537" max="1537" width="3.125" style="19" customWidth="1"/>
+    <col min="1538" max="1538" width="5" style="19" customWidth="1"/>
+    <col min="1539" max="1539" width="17.625" style="19" customWidth="1"/>
+    <col min="1540" max="1540" width="21.75" style="19" customWidth="1"/>
+    <col min="1541" max="1541" width="5.25" style="19" customWidth="1"/>
+    <col min="1542" max="1542" width="9" style="19"/>
+    <col min="1543" max="1544" width="9.25" style="19" customWidth="1"/>
+    <col min="1545" max="1545" width="8.375" style="19" customWidth="1"/>
+    <col min="1546" max="1792" width="9" style="19"/>
+    <col min="1793" max="1793" width="3.125" style="19" customWidth="1"/>
+    <col min="1794" max="1794" width="5" style="19" customWidth="1"/>
+    <col min="1795" max="1795" width="17.625" style="19" customWidth="1"/>
+    <col min="1796" max="1796" width="21.75" style="19" customWidth="1"/>
+    <col min="1797" max="1797" width="5.25" style="19" customWidth="1"/>
+    <col min="1798" max="1798" width="9" style="19"/>
+    <col min="1799" max="1800" width="9.25" style="19" customWidth="1"/>
+    <col min="1801" max="1801" width="8.375" style="19" customWidth="1"/>
+    <col min="1802" max="2048" width="9" style="19"/>
+    <col min="2049" max="2049" width="3.125" style="19" customWidth="1"/>
+    <col min="2050" max="2050" width="5" style="19" customWidth="1"/>
+    <col min="2051" max="2051" width="17.625" style="19" customWidth="1"/>
+    <col min="2052" max="2052" width="21.75" style="19" customWidth="1"/>
+    <col min="2053" max="2053" width="5.25" style="19" customWidth="1"/>
+    <col min="2054" max="2054" width="9" style="19"/>
+    <col min="2055" max="2056" width="9.25" style="19" customWidth="1"/>
+    <col min="2057" max="2057" width="8.375" style="19" customWidth="1"/>
+    <col min="2058" max="2304" width="9" style="19"/>
+    <col min="2305" max="2305" width="3.125" style="19" customWidth="1"/>
+    <col min="2306" max="2306" width="5" style="19" customWidth="1"/>
+    <col min="2307" max="2307" width="17.625" style="19" customWidth="1"/>
+    <col min="2308" max="2308" width="21.75" style="19" customWidth="1"/>
+    <col min="2309" max="2309" width="5.25" style="19" customWidth="1"/>
+    <col min="2310" max="2310" width="9" style="19"/>
+    <col min="2311" max="2312" width="9.25" style="19" customWidth="1"/>
+    <col min="2313" max="2313" width="8.375" style="19" customWidth="1"/>
+    <col min="2314" max="2560" width="9" style="19"/>
+    <col min="2561" max="2561" width="3.125" style="19" customWidth="1"/>
+    <col min="2562" max="2562" width="5" style="19" customWidth="1"/>
+    <col min="2563" max="2563" width="17.625" style="19" customWidth="1"/>
+    <col min="2564" max="2564" width="21.75" style="19" customWidth="1"/>
+    <col min="2565" max="2565" width="5.25" style="19" customWidth="1"/>
+    <col min="2566" max="2566" width="9" style="19"/>
+    <col min="2567" max="2568" width="9.25" style="19" customWidth="1"/>
+    <col min="2569" max="2569" width="8.375" style="19" customWidth="1"/>
+    <col min="2570" max="2816" width="9" style="19"/>
+    <col min="2817" max="2817" width="3.125" style="19" customWidth="1"/>
+    <col min="2818" max="2818" width="5" style="19" customWidth="1"/>
+    <col min="2819" max="2819" width="17.625" style="19" customWidth="1"/>
+    <col min="2820" max="2820" width="21.75" style="19" customWidth="1"/>
+    <col min="2821" max="2821" width="5.25" style="19" customWidth="1"/>
+    <col min="2822" max="2822" width="9" style="19"/>
+    <col min="2823" max="2824" width="9.25" style="19" customWidth="1"/>
+    <col min="2825" max="2825" width="8.375" style="19" customWidth="1"/>
+    <col min="2826" max="3072" width="9" style="19"/>
+    <col min="3073" max="3073" width="3.125" style="19" customWidth="1"/>
+    <col min="3074" max="3074" width="5" style="19" customWidth="1"/>
+    <col min="3075" max="3075" width="17.625" style="19" customWidth="1"/>
+    <col min="3076" max="3076" width="21.75" style="19" customWidth="1"/>
+    <col min="3077" max="3077" width="5.25" style="19" customWidth="1"/>
+    <col min="3078" max="3078" width="9" style="19"/>
+    <col min="3079" max="3080" width="9.25" style="19" customWidth="1"/>
+    <col min="3081" max="3081" width="8.375" style="19" customWidth="1"/>
+    <col min="3082" max="3328" width="9" style="19"/>
+    <col min="3329" max="3329" width="3.125" style="19" customWidth="1"/>
+    <col min="3330" max="3330" width="5" style="19" customWidth="1"/>
+    <col min="3331" max="3331" width="17.625" style="19" customWidth="1"/>
+    <col min="3332" max="3332" width="21.75" style="19" customWidth="1"/>
+    <col min="3333" max="3333" width="5.25" style="19" customWidth="1"/>
+    <col min="3334" max="3334" width="9" style="19"/>
+    <col min="3335" max="3336" width="9.25" style="19" customWidth="1"/>
+    <col min="3337" max="3337" width="8.375" style="19" customWidth="1"/>
+    <col min="3338" max="3584" width="9" style="19"/>
+    <col min="3585" max="3585" width="3.125" style="19" customWidth="1"/>
+    <col min="3586" max="3586" width="5" style="19" customWidth="1"/>
+    <col min="3587" max="3587" width="17.625" style="19" customWidth="1"/>
+    <col min="3588" max="3588" width="21.75" style="19" customWidth="1"/>
+    <col min="3589" max="3589" width="5.25" style="19" customWidth="1"/>
+    <col min="3590" max="3590" width="9" style="19"/>
+    <col min="3591" max="3592" width="9.25" style="19" customWidth="1"/>
+    <col min="3593" max="3593" width="8.375" style="19" customWidth="1"/>
+    <col min="3594" max="3840" width="9" style="19"/>
+    <col min="3841" max="3841" width="3.125" style="19" customWidth="1"/>
+    <col min="3842" max="3842" width="5" style="19" customWidth="1"/>
+    <col min="3843" max="3843" width="17.625" style="19" customWidth="1"/>
+    <col min="3844" max="3844" width="21.75" style="19" customWidth="1"/>
+    <col min="3845" max="3845" width="5.25" style="19" customWidth="1"/>
+    <col min="3846" max="3846" width="9" style="19"/>
+    <col min="3847" max="3848" width="9.25" style="19" customWidth="1"/>
+    <col min="3849" max="3849" width="8.375" style="19" customWidth="1"/>
+    <col min="3850" max="4096" width="9" style="19"/>
+    <col min="4097" max="4097" width="3.125" style="19" customWidth="1"/>
+    <col min="4098" max="4098" width="5" style="19" customWidth="1"/>
+    <col min="4099" max="4099" width="17.625" style="19" customWidth="1"/>
+    <col min="4100" max="4100" width="21.75" style="19" customWidth="1"/>
+    <col min="4101" max="4101" width="5.25" style="19" customWidth="1"/>
+    <col min="4102" max="4102" width="9" style="19"/>
+    <col min="4103" max="4104" width="9.25" style="19" customWidth="1"/>
+    <col min="4105" max="4105" width="8.375" style="19" customWidth="1"/>
+    <col min="4106" max="4352" width="9" style="19"/>
+    <col min="4353" max="4353" width="3.125" style="19" customWidth="1"/>
+    <col min="4354" max="4354" width="5" style="19" customWidth="1"/>
+    <col min="4355" max="4355" width="17.625" style="19" customWidth="1"/>
+    <col min="4356" max="4356" width="21.75" style="19" customWidth="1"/>
+    <col min="4357" max="4357" width="5.25" style="19" customWidth="1"/>
+    <col min="4358" max="4358" width="9" style="19"/>
+    <col min="4359" max="4360" width="9.25" style="19" customWidth="1"/>
+    <col min="4361" max="4361" width="8.375" style="19" customWidth="1"/>
+    <col min="4362" max="4608" width="9" style="19"/>
+    <col min="4609" max="4609" width="3.125" style="19" customWidth="1"/>
+    <col min="4610" max="4610" width="5" style="19" customWidth="1"/>
+    <col min="4611" max="4611" width="17.625" style="19" customWidth="1"/>
+    <col min="4612" max="4612" width="21.75" style="19" customWidth="1"/>
+    <col min="4613" max="4613" width="5.25" style="19" customWidth="1"/>
+    <col min="4614" max="4614" width="9" style="19"/>
+    <col min="4615" max="4616" width="9.25" style="19" customWidth="1"/>
+    <col min="4617" max="4617" width="8.375" style="19" customWidth="1"/>
+    <col min="4618" max="4864" width="9" style="19"/>
+    <col min="4865" max="4865" width="3.125" style="19" customWidth="1"/>
+    <col min="4866" max="4866" width="5" style="19" customWidth="1"/>
+    <col min="4867" max="4867" width="17.625" style="19" customWidth="1"/>
+    <col min="4868" max="4868" width="21.75" style="19" customWidth="1"/>
+    <col min="4869" max="4869" width="5.25" style="19" customWidth="1"/>
+    <col min="4870" max="4870" width="9" style="19"/>
+    <col min="4871" max="4872" width="9.25" style="19" customWidth="1"/>
+    <col min="4873" max="4873" width="8.375" style="19" customWidth="1"/>
+    <col min="4874" max="5120" width="9" style="19"/>
+    <col min="5121" max="5121" width="3.125" style="19" customWidth="1"/>
+    <col min="5122" max="5122" width="5" style="19" customWidth="1"/>
+    <col min="5123" max="5123" width="17.625" style="19" customWidth="1"/>
+    <col min="5124" max="5124" width="21.75" style="19" customWidth="1"/>
+    <col min="5125" max="5125" width="5.25" style="19" customWidth="1"/>
+    <col min="5126" max="5126" width="9" style="19"/>
+    <col min="5127" max="5128" width="9.25" style="19" customWidth="1"/>
+    <col min="5129" max="5129" width="8.375" style="19" customWidth="1"/>
+    <col min="5130" max="5376" width="9" style="19"/>
+    <col min="5377" max="5377" width="3.125" style="19" customWidth="1"/>
+    <col min="5378" max="5378" width="5" style="19" customWidth="1"/>
+    <col min="5379" max="5379" width="17.625" style="19" customWidth="1"/>
+    <col min="5380" max="5380" width="21.75" style="19" customWidth="1"/>
+    <col min="5381" max="5381" width="5.25" style="19" customWidth="1"/>
+    <col min="5382" max="5382" width="9" style="19"/>
+    <col min="5383" max="5384" width="9.25" style="19" customWidth="1"/>
+    <col min="5385" max="5385" width="8.375" style="19" customWidth="1"/>
+    <col min="5386" max="5632" width="9" style="19"/>
+    <col min="5633" max="5633" width="3.125" style="19" customWidth="1"/>
+    <col min="5634" max="5634" width="5" style="19" customWidth="1"/>
+    <col min="5635" max="5635" width="17.625" style="19" customWidth="1"/>
+    <col min="5636" max="5636" width="21.75" style="19" customWidth="1"/>
+    <col min="5637" max="5637" width="5.25" style="19" customWidth="1"/>
+    <col min="5638" max="5638" width="9" style="19"/>
+    <col min="5639" max="5640" width="9.25" style="19" customWidth="1"/>
+    <col min="5641" max="5641" width="8.375" style="19" customWidth="1"/>
+    <col min="5642" max="5888" width="9" style="19"/>
+    <col min="5889" max="5889" width="3.125" style="19" customWidth="1"/>
+    <col min="5890" max="5890" width="5" style="19" customWidth="1"/>
+    <col min="5891" max="5891" width="17.625" style="19" customWidth="1"/>
+    <col min="5892" max="5892" width="21.75" style="19" customWidth="1"/>
+    <col min="5893" max="5893" width="5.25" style="19" customWidth="1"/>
+    <col min="5894" max="5894" width="9" style="19"/>
+    <col min="5895" max="5896" width="9.25" style="19" customWidth="1"/>
+    <col min="5897" max="5897" width="8.375" style="19" customWidth="1"/>
+    <col min="5898" max="6144" width="9" style="19"/>
+    <col min="6145" max="6145" width="3.125" style="19" customWidth="1"/>
+    <col min="6146" max="6146" width="5" style="19" customWidth="1"/>
+    <col min="6147" max="6147" width="17.625" style="19" customWidth="1"/>
+    <col min="6148" max="6148" width="21.75" style="19" customWidth="1"/>
+    <col min="6149" max="6149" width="5.25" style="19" customWidth="1"/>
+    <col min="6150" max="6150" width="9" style="19"/>
+    <col min="6151" max="6152" width="9.25" style="19" customWidth="1"/>
+    <col min="6153" max="6153" width="8.375" style="19" customWidth="1"/>
+    <col min="6154" max="6400" width="9" style="19"/>
+    <col min="6401" max="6401" width="3.125" style="19" customWidth="1"/>
+    <col min="6402" max="6402" width="5" style="19" customWidth="1"/>
+    <col min="6403" max="6403" width="17.625" style="19" customWidth="1"/>
+    <col min="6404" max="6404" width="21.75" style="19" customWidth="1"/>
+    <col min="6405" max="6405" width="5.25" style="19" customWidth="1"/>
+    <col min="6406" max="6406" width="9" style="19"/>
+    <col min="6407" max="6408" width="9.25" style="19" customWidth="1"/>
+    <col min="6409" max="6409" width="8.375" style="19" customWidth="1"/>
+    <col min="6410" max="6656" width="9" style="19"/>
+    <col min="6657" max="6657" width="3.125" style="19" customWidth="1"/>
+    <col min="6658" max="6658" width="5" style="19" customWidth="1"/>
+    <col min="6659" max="6659" width="17.625" style="19" customWidth="1"/>
+    <col min="6660" max="6660" width="21.75" style="19" customWidth="1"/>
+    <col min="6661" max="6661" width="5.25" style="19" customWidth="1"/>
+    <col min="6662" max="6662" width="9" style="19"/>
+    <col min="6663" max="6664" width="9.25" style="19" customWidth="1"/>
+    <col min="6665" max="6665" width="8.375" style="19" customWidth="1"/>
+    <col min="6666" max="6912" width="9" style="19"/>
+    <col min="6913" max="6913" width="3.125" style="19" customWidth="1"/>
+    <col min="6914" max="6914" width="5" style="19" customWidth="1"/>
+    <col min="6915" max="6915" width="17.625" style="19" customWidth="1"/>
+    <col min="6916" max="6916" width="21.75" style="19" customWidth="1"/>
+    <col min="6917" max="6917" width="5.25" style="19" customWidth="1"/>
+    <col min="6918" max="6918" width="9" style="19"/>
+    <col min="6919" max="6920" width="9.25" style="19" customWidth="1"/>
+    <col min="6921" max="6921" width="8.375" style="19" customWidth="1"/>
+    <col min="6922" max="7168" width="9" style="19"/>
+    <col min="7169" max="7169" width="3.125" style="19" customWidth="1"/>
+    <col min="7170" max="7170" width="5" style="19" customWidth="1"/>
+    <col min="7171" max="7171" width="17.625" style="19" customWidth="1"/>
+    <col min="7172" max="7172" width="21.75" style="19" customWidth="1"/>
+    <col min="7173" max="7173" width="5.25" style="19" customWidth="1"/>
+    <col min="7174" max="7174" width="9" style="19"/>
+    <col min="7175" max="7176" width="9.25" style="19" customWidth="1"/>
+    <col min="7177" max="7177" width="8.375" style="19" customWidth="1"/>
+    <col min="7178" max="7424" width="9" style="19"/>
+    <col min="7425" max="7425" width="3.125" style="19" customWidth="1"/>
+    <col min="7426" max="7426" width="5" style="19" customWidth="1"/>
+    <col min="7427" max="7427" width="17.625" style="19" customWidth="1"/>
+    <col min="7428" max="7428" width="21.75" style="19" customWidth="1"/>
+    <col min="7429" max="7429" width="5.25" style="19" customWidth="1"/>
+    <col min="7430" max="7430" width="9" style="19"/>
+    <col min="7431" max="7432" width="9.25" style="19" customWidth="1"/>
+    <col min="7433" max="7433" width="8.375" style="19" customWidth="1"/>
+    <col min="7434" max="7680" width="9" style="19"/>
+    <col min="7681" max="7681" width="3.125" style="19" customWidth="1"/>
+    <col min="7682" max="7682" width="5" style="19" customWidth="1"/>
+    <col min="7683" max="7683" width="17.625" style="19" customWidth="1"/>
+    <col min="7684" max="7684" width="21.75" style="19" customWidth="1"/>
+    <col min="7685" max="7685" width="5.25" style="19" customWidth="1"/>
+    <col min="7686" max="7686" width="9" style="19"/>
+    <col min="7687" max="7688" width="9.25" style="19" customWidth="1"/>
+    <col min="7689" max="7689" width="8.375" style="19" customWidth="1"/>
+    <col min="7690" max="7936" width="9" style="19"/>
+    <col min="7937" max="7937" width="3.125" style="19" customWidth="1"/>
+    <col min="7938" max="7938" width="5" style="19" customWidth="1"/>
+    <col min="7939" max="7939" width="17.625" style="19" customWidth="1"/>
+    <col min="7940" max="7940" width="21.75" style="19" customWidth="1"/>
+    <col min="7941" max="7941" width="5.25" style="19" customWidth="1"/>
+    <col min="7942" max="7942" width="9" style="19"/>
+    <col min="7943" max="7944" width="9.25" style="19" customWidth="1"/>
+    <col min="7945" max="7945" width="8.375" style="19" customWidth="1"/>
+    <col min="7946" max="8192" width="9" style="19"/>
+    <col min="8193" max="8193" width="3.125" style="19" customWidth="1"/>
+    <col min="8194" max="8194" width="5" style="19" customWidth="1"/>
+    <col min="8195" max="8195" width="17.625" style="19" customWidth="1"/>
+    <col min="8196" max="8196" width="21.75" style="19" customWidth="1"/>
+    <col min="8197" max="8197" width="5.25" style="19" customWidth="1"/>
+    <col min="8198" max="8198" width="9" style="19"/>
+    <col min="8199" max="8200" width="9.25" style="19" customWidth="1"/>
+    <col min="8201" max="8201" width="8.375" style="19" customWidth="1"/>
+    <col min="8202" max="8448" width="9" style="19"/>
+    <col min="8449" max="8449" width="3.125" style="19" customWidth="1"/>
+    <col min="8450" max="8450" width="5" style="19" customWidth="1"/>
+    <col min="8451" max="8451" width="17.625" style="19" customWidth="1"/>
+    <col min="8452" max="8452" width="21.75" style="19" customWidth="1"/>
+    <col min="8453" max="8453" width="5.25" style="19" customWidth="1"/>
+    <col min="8454" max="8454" width="9" style="19"/>
+    <col min="8455" max="8456" width="9.25" style="19" customWidth="1"/>
+    <col min="8457" max="8457" width="8.375" style="19" customWidth="1"/>
+    <col min="8458" max="8704" width="9" style="19"/>
+    <col min="8705" max="8705" width="3.125" style="19" customWidth="1"/>
+    <col min="8706" max="8706" width="5" style="19" customWidth="1"/>
+    <col min="8707" max="8707" width="17.625" style="19" customWidth="1"/>
+    <col min="8708" max="8708" width="21.75" style="19" customWidth="1"/>
+    <col min="8709" max="8709" width="5.25" style="19" customWidth="1"/>
+    <col min="8710" max="8710" width="9" style="19"/>
+    <col min="8711" max="8712" width="9.25" style="19" customWidth="1"/>
+    <col min="8713" max="8713" width="8.375" style="19" customWidth="1"/>
+    <col min="8714" max="8960" width="9" style="19"/>
+    <col min="8961" max="8961" width="3.125" style="19" customWidth="1"/>
+    <col min="8962" max="8962" width="5" style="19" customWidth="1"/>
+    <col min="8963" max="8963" width="17.625" style="19" customWidth="1"/>
+    <col min="8964" max="8964" width="21.75" style="19" customWidth="1"/>
+    <col min="8965" max="8965" width="5.25" style="19" customWidth="1"/>
+    <col min="8966" max="8966" width="9" style="19"/>
+    <col min="8967" max="8968" width="9.25" style="19" customWidth="1"/>
+    <col min="8969" max="8969" width="8.375" style="19" customWidth="1"/>
+    <col min="8970" max="9216" width="9" style="19"/>
+    <col min="9217" max="9217" width="3.125" style="19" customWidth="1"/>
+    <col min="9218" max="9218" width="5" style="19" customWidth="1"/>
+    <col min="9219" max="9219" width="17.625" style="19" customWidth="1"/>
+    <col min="9220" max="9220" width="21.75" style="19" customWidth="1"/>
+    <col min="9221" max="9221" width="5.25" style="19" customWidth="1"/>
+    <col min="9222" max="9222" width="9" style="19"/>
+    <col min="9223" max="9224" width="9.25" style="19" customWidth="1"/>
+    <col min="9225" max="9225" width="8.375" style="19" customWidth="1"/>
+    <col min="9226" max="9472" width="9" style="19"/>
+    <col min="9473" max="9473" width="3.125" style="19" customWidth="1"/>
+    <col min="9474" max="9474" width="5" style="19" customWidth="1"/>
+    <col min="9475" max="9475" width="17.625" style="19" customWidth="1"/>
+    <col min="9476" max="9476" width="21.75" style="19" customWidth="1"/>
+    <col min="9477" max="9477" width="5.25" style="19" customWidth="1"/>
+    <col min="9478" max="9478" width="9" style="19"/>
+    <col min="9479" max="9480" width="9.25" style="19" customWidth="1"/>
+    <col min="9481" max="9481" width="8.375" style="19" customWidth="1"/>
+    <col min="9482" max="9728" width="9" style="19"/>
+    <col min="9729" max="9729" width="3.125" style="19" customWidth="1"/>
+    <col min="9730" max="9730" width="5" style="19" customWidth="1"/>
+    <col min="9731" max="9731" width="17.625" style="19" customWidth="1"/>
+    <col min="9732" max="9732" width="21.75" style="19" customWidth="1"/>
+    <col min="9733" max="9733" width="5.25" style="19" customWidth="1"/>
+    <col min="9734" max="9734" width="9" style="19"/>
+    <col min="9735" max="9736" width="9.25" style="19" customWidth="1"/>
+    <col min="9737" max="9737" width="8.375" style="19" customWidth="1"/>
+    <col min="9738" max="9984" width="9" style="19"/>
+    <col min="9985" max="9985" width="3.125" style="19" customWidth="1"/>
+    <col min="9986" max="9986" width="5" style="19" customWidth="1"/>
+    <col min="9987" max="9987" width="17.625" style="19" customWidth="1"/>
+    <col min="9988" max="9988" width="21.75" style="19" customWidth="1"/>
+    <col min="9989" max="9989" width="5.25" style="19" customWidth="1"/>
+    <col min="9990" max="9990" width="9" style="19"/>
+    <col min="9991" max="9992" width="9.25" style="19" customWidth="1"/>
+    <col min="9993" max="9993" width="8.375" style="19" customWidth="1"/>
+    <col min="9994" max="10240" width="9" style="19"/>
+    <col min="10241" max="10241" width="3.125" style="19" customWidth="1"/>
+    <col min="10242" max="10242" width="5" style="19" customWidth="1"/>
+    <col min="10243" max="10243" width="17.625" style="19" customWidth="1"/>
+    <col min="10244" max="10244" width="21.75" style="19" customWidth="1"/>
+    <col min="10245" max="10245" width="5.25" style="19" customWidth="1"/>
+    <col min="10246" max="10246" width="9" style="19"/>
+    <col min="10247" max="10248" width="9.25" style="19" customWidth="1"/>
+    <col min="10249" max="10249" width="8.375" style="19" customWidth="1"/>
+    <col min="10250" max="10496" width="9" style="19"/>
+    <col min="10497" max="10497" width="3.125" style="19" customWidth="1"/>
+    <col min="10498" max="10498" width="5" style="19" customWidth="1"/>
+    <col min="10499" max="10499" width="17.625" style="19" customWidth="1"/>
+    <col min="10500" max="10500" width="21.75" style="19" customWidth="1"/>
+    <col min="10501" max="10501" width="5.25" style="19" customWidth="1"/>
+    <col min="10502" max="10502" width="9" style="19"/>
+    <col min="10503" max="10504" width="9.25" style="19" customWidth="1"/>
+    <col min="10505" max="10505" width="8.375" style="19" customWidth="1"/>
+    <col min="10506" max="10752" width="9" style="19"/>
+    <col min="10753" max="10753" width="3.125" style="19" customWidth="1"/>
+    <col min="10754" max="10754" width="5" style="19" customWidth="1"/>
+    <col min="10755" max="10755" width="17.625" style="19" customWidth="1"/>
+    <col min="10756" max="10756" width="21.75" style="19" customWidth="1"/>
+    <col min="10757" max="10757" width="5.25" style="19" customWidth="1"/>
+    <col min="10758" max="10758" width="9" style="19"/>
+    <col min="10759" max="10760" width="9.25" style="19" customWidth="1"/>
+    <col min="10761" max="10761" width="8.375" style="19" customWidth="1"/>
+    <col min="10762" max="11008" width="9" style="19"/>
+    <col min="11009" max="11009" width="3.125" style="19" customWidth="1"/>
+    <col min="11010" max="11010" width="5" style="19" customWidth="1"/>
+    <col min="11011" max="11011" width="17.625" style="19" customWidth="1"/>
+    <col min="11012" max="11012" width="21.75" style="19" customWidth="1"/>
+    <col min="11013" max="11013" width="5.25" style="19" customWidth="1"/>
+    <col min="11014" max="11014" width="9" style="19"/>
+    <col min="11015" max="11016" width="9.25" style="19" customWidth="1"/>
+    <col min="11017" max="11017" width="8.375" style="19" customWidth="1"/>
+    <col min="11018" max="11264" width="9" style="19"/>
+    <col min="11265" max="11265" width="3.125" style="19" customWidth="1"/>
+    <col min="11266" max="11266" width="5" style="19" customWidth="1"/>
+    <col min="11267" max="11267" width="17.625" style="19" customWidth="1"/>
+    <col min="11268" max="11268" width="21.75" style="19" customWidth="1"/>
+    <col min="11269" max="11269" width="5.25" style="19" customWidth="1"/>
+    <col min="11270" max="11270" width="9" style="19"/>
+    <col min="11271" max="11272" width="9.25" style="19" customWidth="1"/>
+    <col min="11273" max="11273" width="8.375" style="19" customWidth="1"/>
+    <col min="11274" max="11520" width="9" style="19"/>
+    <col min="11521" max="11521" width="3.125" style="19" customWidth="1"/>
+    <col min="11522" max="11522" width="5" style="19" customWidth="1"/>
+    <col min="11523" max="11523" width="17.625" style="19" customWidth="1"/>
+    <col min="11524" max="11524" width="21.75" style="19" customWidth="1"/>
+    <col min="11525" max="11525" width="5.25" style="19" customWidth="1"/>
+    <col min="11526" max="11526" width="9" style="19"/>
+    <col min="11527" max="11528" width="9.25" style="19" customWidth="1"/>
+    <col min="11529" max="11529" width="8.375" style="19" customWidth="1"/>
+    <col min="11530" max="11776" width="9" style="19"/>
+    <col min="11777" max="11777" width="3.125" style="19" customWidth="1"/>
+    <col min="11778" max="11778" width="5" style="19" customWidth="1"/>
+    <col min="11779" max="11779" width="17.625" style="19" customWidth="1"/>
+    <col min="11780" max="11780" width="21.75" style="19" customWidth="1"/>
+    <col min="11781" max="11781" width="5.25" style="19" customWidth="1"/>
+    <col min="11782" max="11782" width="9" style="19"/>
+    <col min="11783" max="11784" width="9.25" style="19" customWidth="1"/>
+    <col min="11785" max="11785" width="8.375" style="19" customWidth="1"/>
+    <col min="11786" max="12032" width="9" style="19"/>
+    <col min="12033" max="12033" width="3.125" style="19" customWidth="1"/>
+    <col min="12034" max="12034" width="5" style="19" customWidth="1"/>
+    <col min="12035" max="12035" width="17.625" style="19" customWidth="1"/>
+    <col min="12036" max="12036" width="21.75" style="19" customWidth="1"/>
+    <col min="12037" max="12037" width="5.25" style="19" customWidth="1"/>
+    <col min="12038" max="12038" width="9" style="19"/>
+    <col min="12039" max="12040" width="9.25" style="19" customWidth="1"/>
+    <col min="12041" max="12041" width="8.375" style="19" customWidth="1"/>
+    <col min="12042" max="12288" width="9" style="19"/>
+    <col min="12289" max="12289" width="3.125" style="19" customWidth="1"/>
+    <col min="12290" max="12290" width="5" style="19" customWidth="1"/>
+    <col min="12291" max="12291" width="17.625" style="19" customWidth="1"/>
+    <col min="12292" max="12292" width="21.75" style="19" customWidth="1"/>
+    <col min="12293" max="12293" width="5.25" style="19" customWidth="1"/>
+    <col min="12294" max="12294" width="9" style="19"/>
+    <col min="12295" max="12296" width="9.25" style="19" customWidth="1"/>
+    <col min="12297" max="12297" width="8.375" style="19" customWidth="1"/>
+    <col min="12298" max="12544" width="9" style="19"/>
+    <col min="12545" max="12545" width="3.125" style="19" customWidth="1"/>
+    <col min="12546" max="12546" width="5" style="19" customWidth="1"/>
+    <col min="12547" max="12547" width="17.625" style="19" customWidth="1"/>
+    <col min="12548" max="12548" width="21.75" style="19" customWidth="1"/>
+    <col min="12549" max="12549" width="5.25" style="19" customWidth="1"/>
+    <col min="12550" max="12550" width="9" style="19"/>
+    <col min="12551" max="12552" width="9.25" style="19" customWidth="1"/>
+    <col min="12553" max="12553" width="8.375" style="19" customWidth="1"/>
+    <col min="12554" max="12800" width="9" style="19"/>
+    <col min="12801" max="12801" width="3.125" style="19" customWidth="1"/>
+    <col min="12802" max="12802" width="5" style="19" customWidth="1"/>
+    <col min="12803" max="12803" width="17.625" style="19" customWidth="1"/>
+    <col min="12804" max="12804" width="21.75" style="19" customWidth="1"/>
+    <col min="12805" max="12805" width="5.25" style="19" customWidth="1"/>
+    <col min="12806" max="12806" width="9" style="19"/>
+    <col min="12807" max="12808" width="9.25" style="19" customWidth="1"/>
+    <col min="12809" max="12809" width="8.375" style="19" customWidth="1"/>
+    <col min="12810" max="13056" width="9" style="19"/>
+    <col min="13057" max="13057" width="3.125" style="19" customWidth="1"/>
+    <col min="13058" max="13058" width="5" style="19" customWidth="1"/>
+    <col min="13059" max="13059" width="17.625" style="19" customWidth="1"/>
+    <col min="13060" max="13060" width="21.75" style="19" customWidth="1"/>
+    <col min="13061" max="13061" width="5.25" style="19" customWidth="1"/>
+    <col min="13062" max="13062" width="9" style="19"/>
+    <col min="13063" max="13064" width="9.25" style="19" customWidth="1"/>
+    <col min="13065" max="13065" width="8.375" style="19" customWidth="1"/>
+    <col min="13066" max="13312" width="9" style="19"/>
+    <col min="13313" max="13313" width="3.125" style="19" customWidth="1"/>
+    <col min="13314" max="13314" width="5" style="19" customWidth="1"/>
+    <col min="13315" max="13315" width="17.625" style="19" customWidth="1"/>
+    <col min="13316" max="13316" width="21.75" style="19" customWidth="1"/>
+    <col min="13317" max="13317" width="5.25" style="19" customWidth="1"/>
+    <col min="13318" max="13318" width="9" style="19"/>
+    <col min="13319" max="13320" width="9.25" style="19" customWidth="1"/>
+    <col min="13321" max="13321" width="8.375" style="19" customWidth="1"/>
+    <col min="13322" max="13568" width="9" style="19"/>
+    <col min="13569" max="13569" width="3.125" style="19" customWidth="1"/>
+    <col min="13570" max="13570" width="5" style="19" customWidth="1"/>
+    <col min="13571" max="13571" width="17.625" style="19" customWidth="1"/>
+    <col min="13572" max="13572" width="21.75" style="19" customWidth="1"/>
+    <col min="13573" max="13573" width="5.25" style="19" customWidth="1"/>
+    <col min="13574" max="13574" width="9" style="19"/>
+    <col min="13575" max="13576" width="9.25" style="19" customWidth="1"/>
+    <col min="13577" max="13577" width="8.375" style="19" customWidth="1"/>
+    <col min="13578" max="13824" width="9" style="19"/>
+    <col min="13825" max="13825" width="3.125" style="19" customWidth="1"/>
+    <col min="13826" max="13826" width="5" style="19" customWidth="1"/>
+    <col min="13827" max="13827" width="17.625" style="19" customWidth="1"/>
+    <col min="13828" max="13828" width="21.75" style="19" customWidth="1"/>
+    <col min="13829" max="13829" width="5.25" style="19" customWidth="1"/>
+    <col min="13830" max="13830" width="9" style="19"/>
+    <col min="13831" max="13832" width="9.25" style="19" customWidth="1"/>
+    <col min="13833" max="13833" width="8.375" style="19" customWidth="1"/>
+    <col min="13834" max="14080" width="9" style="19"/>
+    <col min="14081" max="14081" width="3.125" style="19" customWidth="1"/>
+    <col min="14082" max="14082" width="5" style="19" customWidth="1"/>
+    <col min="14083" max="14083" width="17.625" style="19" customWidth="1"/>
+    <col min="14084" max="14084" width="21.75" style="19" customWidth="1"/>
+    <col min="14085" max="14085" width="5.25" style="19" customWidth="1"/>
+    <col min="14086" max="14086" width="9" style="19"/>
+    <col min="14087" max="14088" width="9.25" style="19" customWidth="1"/>
+    <col min="14089" max="14089" width="8.375" style="19" customWidth="1"/>
+    <col min="14090" max="14336" width="9" style="19"/>
+    <col min="14337" max="14337" width="3.125" style="19" customWidth="1"/>
+    <col min="14338" max="14338" width="5" style="19" customWidth="1"/>
+    <col min="14339" max="14339" width="17.625" style="19" customWidth="1"/>
+    <col min="14340" max="14340" width="21.75" style="19" customWidth="1"/>
+    <col min="14341" max="14341" width="5.25" style="19" customWidth="1"/>
+    <col min="14342" max="14342" width="9" style="19"/>
+    <col min="14343" max="14344" width="9.25" style="19" customWidth="1"/>
+    <col min="14345" max="14345" width="8.375" style="19" customWidth="1"/>
+    <col min="14346" max="14592" width="9" style="19"/>
+    <col min="14593" max="14593" width="3.125" style="19" customWidth="1"/>
+    <col min="14594" max="14594" width="5" style="19" customWidth="1"/>
+    <col min="14595" max="14595" width="17.625" style="19" customWidth="1"/>
+    <col min="14596" max="14596" width="21.75" style="19" customWidth="1"/>
+    <col min="14597" max="14597" width="5.25" style="19" customWidth="1"/>
+    <col min="14598" max="14598" width="9" style="19"/>
+    <col min="14599" max="14600" width="9.25" style="19" customWidth="1"/>
+    <col min="14601" max="14601" width="8.375" style="19" customWidth="1"/>
+    <col min="14602" max="14848" width="9" style="19"/>
+    <col min="14849" max="14849" width="3.125" style="19" customWidth="1"/>
+    <col min="14850" max="14850" width="5" style="19" customWidth="1"/>
+    <col min="14851" max="14851" width="17.625" style="19" customWidth="1"/>
+    <col min="14852" max="14852" width="21.75" style="19" customWidth="1"/>
+    <col min="14853" max="14853" width="5.25" style="19" customWidth="1"/>
+    <col min="14854" max="14854" width="9" style="19"/>
+    <col min="14855" max="14856" width="9.25" style="19" customWidth="1"/>
+    <col min="14857" max="14857" width="8.375" style="19" customWidth="1"/>
+    <col min="14858" max="15104" width="9" style="19"/>
+    <col min="15105" max="15105" width="3.125" style="19" customWidth="1"/>
+    <col min="15106" max="15106" width="5" style="19" customWidth="1"/>
+    <col min="15107" max="15107" width="17.625" style="19" customWidth="1"/>
+    <col min="15108" max="15108" width="21.75" style="19" customWidth="1"/>
+    <col min="15109" max="15109" width="5.25" style="19" customWidth="1"/>
+    <col min="15110" max="15110" width="9" style="19"/>
+    <col min="15111" max="15112" width="9.25" style="19" customWidth="1"/>
+    <col min="15113" max="15113" width="8.375" style="19" customWidth="1"/>
+    <col min="15114" max="15360" width="9" style="19"/>
+    <col min="15361" max="15361" width="3.125" style="19" customWidth="1"/>
+    <col min="15362" max="15362" width="5" style="19" customWidth="1"/>
+    <col min="15363" max="15363" width="17.625" style="19" customWidth="1"/>
+    <col min="15364" max="15364" width="21.75" style="19" customWidth="1"/>
+    <col min="15365" max="15365" width="5.25" style="19" customWidth="1"/>
+    <col min="15366" max="15366" width="9" style="19"/>
+    <col min="15367" max="15368" width="9.25" style="19" customWidth="1"/>
+    <col min="15369" max="15369" width="8.375" style="19" customWidth="1"/>
+    <col min="15370" max="15616" width="9" style="19"/>
+    <col min="15617" max="15617" width="3.125" style="19" customWidth="1"/>
+    <col min="15618" max="15618" width="5" style="19" customWidth="1"/>
+    <col min="15619" max="15619" width="17.625" style="19" customWidth="1"/>
+    <col min="15620" max="15620" width="21.75" style="19" customWidth="1"/>
+    <col min="15621" max="15621" width="5.25" style="19" customWidth="1"/>
+    <col min="15622" max="15622" width="9" style="19"/>
+    <col min="15623" max="15624" width="9.25" style="19" customWidth="1"/>
+    <col min="15625" max="15625" width="8.375" style="19" customWidth="1"/>
+    <col min="15626" max="15872" width="9" style="19"/>
+    <col min="15873" max="15873" width="3.125" style="19" customWidth="1"/>
+    <col min="15874" max="15874" width="5" style="19" customWidth="1"/>
+    <col min="15875" max="15875" width="17.625" style="19" customWidth="1"/>
+    <col min="15876" max="15876" width="21.75" style="19" customWidth="1"/>
+    <col min="15877" max="15877" width="5.25" style="19" customWidth="1"/>
+    <col min="15878" max="15878" width="9" style="19"/>
+    <col min="15879" max="15880" width="9.25" style="19" customWidth="1"/>
+    <col min="15881" max="15881" width="8.375" style="19" customWidth="1"/>
+    <col min="15882" max="16128" width="9" style="19"/>
+    <col min="16129" max="16129" width="3.125" style="19" customWidth="1"/>
+    <col min="16130" max="16130" width="5" style="19" customWidth="1"/>
+    <col min="16131" max="16131" width="17.625" style="19" customWidth="1"/>
+    <col min="16132" max="16132" width="21.75" style="19" customWidth="1"/>
+    <col min="16133" max="16133" width="5.25" style="19" customWidth="1"/>
+    <col min="16134" max="16134" width="9" style="19"/>
+    <col min="16135" max="16136" width="9.25" style="19" customWidth="1"/>
+    <col min="16137" max="16137" width="8.375" style="19" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="37" t="str">
+      <c r="A4" s="17"/>
+      <c r="B4" s="25" t="str">
         <f>+"估算价值(元)"&amp;ROUND(H28,0)&amp;""</f>
         <v>估算价值(元)0</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45" t="s">
+      <c r="D5" s="121"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50" t="s">
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="58">
+      <c r="A8" s="17"/>
+      <c r="B8" s="38">
         <v>1</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64">
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44">
         <f>+F8*G8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="65">
+      <c r="B9" s="45">
         <v>2</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64">
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44">
         <f>+F9*G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="66"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="65">
+      <c r="B10" s="45">
         <v>3</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64">
+      <c r="C10" s="39"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44">
         <f>+F10*G10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="65"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="64"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="65"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="75"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
     </row>
     <row r="13" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="75"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="55"/>
     </row>
     <row r="14" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="65"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="66"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="65"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="79"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="65"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="65"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="66"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="65"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="66"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="46"/>
     </row>
     <row r="19" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="65"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="87"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="65"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="66"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="65"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="66"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="65"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="66"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="65"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="79"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="65"/>
-      <c r="C24" s="59" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="61" t="s">
+      <c r="D24" s="130"/>
+      <c r="E24" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="86">
+      <c r="F24" s="42"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="66">
         <f>+SUM(H8:H23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="65"/>
-      <c r="C25" s="59" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="130">
+        <v>0.05</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="66">
+        <f>+H24*D25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="46"/>
+    </row>
+    <row r="26" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="45"/>
+      <c r="C26" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="61" t="s">
+      <c r="D26" s="130"/>
+      <c r="E26" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="86">
-        <f>+H24*0.05</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="66"/>
-    </row>
-    <row r="26" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="65"/>
-      <c r="C26" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="86">
+      <c r="F26" s="42"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="66">
         <f>+SUM(H24:H25)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="66">
+      <c r="I26" s="46">
         <f>+H26/10000</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="65"/>
-      <c r="C27" s="82" t="s">
-        <v>32</v>
+      <c r="B27" s="45"/>
+      <c r="C27" s="62" t="s">
+        <v>33</v>
       </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="61" t="s">
+      <c r="D27" s="130">
+        <v>0.15</v>
+      </c>
+      <c r="E27" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="86">
-        <f>+H26*0.15</f>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66">
+        <f>+H26*D27</f>
         <v>0</v>
       </c>
-      <c r="I27" s="66">
+      <c r="I27" s="46">
         <f>+H27/10000</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="65"/>
-      <c r="C28" s="88" t="s">
-        <v>33</v>
+      <c r="B28" s="45"/>
+      <c r="C28" s="68" t="s">
+        <v>31</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="90" t="s">
+      <c r="D28" s="69"/>
+      <c r="E28" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="91"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="93">
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="73">
         <f>+SUM(H27+H26)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="75"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="30"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="96"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="97"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="77"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="30"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="30"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="83"/>
     </row>
     <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="104"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="103"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="83"/>
     </row>
     <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="104"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="103"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="83"/>
     </row>
     <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="104"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="103"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="83"/>
     </row>
     <row r="36" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="104"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="103"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="83"/>
     </row>
     <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="104"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="103"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="83"/>
     </row>
     <row r="38" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="104"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="103"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="83"/>
     </row>
     <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="104"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="103"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="83"/>
     </row>
     <row r="40" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="104"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="103"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="83"/>
     </row>
     <row r="41" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="104"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="108"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="88"/>
     </row>
     <row r="42" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="104"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="66"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="46"/>
     </row>
     <row r="43" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="101"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="75"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="55"/>
     </row>
     <row r="44" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="101"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="75"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="55"/>
     </row>
     <row r="45" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="104"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="66"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="46"/>
     </row>
     <row r="46" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="101"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="75"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="55"/>
     </row>
     <row r="47" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="104"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="66"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="46"/>
     </row>
     <row r="48" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="104"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="66"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="46"/>
     </row>
     <row r="49" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="104"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="66"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="46"/>
     </row>
     <row r="50" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="104"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="66"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="46"/>
     </row>
     <row r="51" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="104"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="66"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="46"/>
     </row>
     <row r="52" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="104"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="66"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="46"/>
     </row>
     <row r="53" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="104"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="66"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="46"/>
     </row>
     <row r="54" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="101"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="75"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="55"/>
     </row>
     <row r="55" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="101"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="103"/>
-      <c r="I55" s="75"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="55"/>
     </row>
     <row r="56" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="104"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="66"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="46"/>
     </row>
     <row r="57" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="104"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="66"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="46"/>
     </row>
     <row r="58" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="104"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="108"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="88"/>
     </row>
     <row r="59" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="104"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="107"/>
-      <c r="G59" s="102"/>
-      <c r="H59" s="108"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="88"/>
     </row>
     <row r="60" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="104"/>
-      <c r="C60" s="111"/>
-      <c r="D60" s="112"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="107"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="108"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="88"/>
     </row>
     <row r="61" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="104"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="110"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="103"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="83"/>
     </row>
     <row r="62" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="113"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="114"/>
-      <c r="H62" s="114"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="94"/>
     </row>
     <row r="63" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="30"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="34"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="24"/>
     </row>
     <row r="64" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="116"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="114"/>
-      <c r="E64" s="114"/>
-      <c r="F64" s="114"/>
-      <c r="G64" s="114"/>
-      <c r="H64" s="114"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="94"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="94"/>
     </row>
     <row r="65" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="30"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="34"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="24"/>
     </row>
     <row r="66" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="117"/>
-      <c r="C66" s="114"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="114"/>
+      <c r="B66" s="97"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="94"/>
+      <c r="F66" s="94"/>
+      <c r="G66" s="94"/>
+      <c r="H66" s="94"/>
     </row>
     <row r="67" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="30"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="34"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="24"/>
     </row>
     <row r="68" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="96"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="118"/>
-      <c r="H68" s="34"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="98"/>
+      <c r="H68" s="24"/>
     </row>
     <row r="69" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="30"/>
-      <c r="C69" s="119"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="100"/>
+      <c r="H69" s="100"/>
     </row>
     <row r="70" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="96"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="96"/>
-      <c r="F70" s="96"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="97"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="77"/>
     </row>
     <row r="71" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="30"/>
-      <c r="C71" s="114"/>
-      <c r="D71" s="114"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="34"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="24"/>
     </row>
     <row r="72" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="104"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="99"/>
-      <c r="E72" s="100"/>
-      <c r="F72" s="101"/>
-      <c r="G72" s="102"/>
-      <c r="H72" s="103"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="83"/>
     </row>
     <row r="73" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="104"/>
-      <c r="C73" s="98"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="100"/>
-      <c r="F73" s="101"/>
-      <c r="G73" s="102"/>
-      <c r="H73" s="103"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="83"/>
     </row>
     <row r="74" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="104"/>
-      <c r="C74" s="98"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="100"/>
-      <c r="F74" s="101"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="66"/>
-      <c r="J74" s="66"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="82"/>
+      <c r="H74" s="83"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
     </row>
     <row r="75" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="104"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="100"/>
-      <c r="F75" s="101"/>
-      <c r="G75" s="105"/>
-      <c r="H75" s="103"/>
-      <c r="I75" s="66"/>
-      <c r="J75" s="66"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
     </row>
     <row r="76" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="104"/>
-      <c r="C76" s="98"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="106"/>
-      <c r="F76" s="101"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="103"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
+      <c r="B76" s="84"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
     </row>
     <row r="77" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="104"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="106"/>
-      <c r="F77" s="101"/>
-      <c r="G77" s="102"/>
-      <c r="H77" s="103"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="66"/>
+      <c r="B77" s="84"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="82"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
     </row>
     <row r="78" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="104"/>
-      <c r="C78" s="98"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="106"/>
-      <c r="F78" s="101"/>
-      <c r="G78" s="102"/>
-      <c r="H78" s="103"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="66"/>
+      <c r="B78" s="84"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="86"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="83"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
     </row>
     <row r="79" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="104"/>
-      <c r="C79" s="98"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="106"/>
-      <c r="F79" s="107"/>
-      <c r="G79" s="102"/>
-      <c r="H79" s="103"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="82"/>
+      <c r="H79" s="83"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
     </row>
     <row r="80" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="101"/>
-      <c r="C80" s="98"/>
-      <c r="D80" s="99"/>
-      <c r="E80" s="106"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="102"/>
-      <c r="H80" s="108"/>
-      <c r="I80" s="66"/>
-      <c r="J80" s="75"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="86"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="82"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="55"/>
     </row>
     <row r="81" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="101"/>
-      <c r="C81" s="109"/>
-      <c r="D81" s="110"/>
-      <c r="E81" s="101"/>
-      <c r="F81" s="101"/>
-      <c r="G81" s="102"/>
-      <c r="H81" s="103"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="75"/>
+      <c r="B81" s="81"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="90"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="55"/>
     </row>
     <row r="82" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="101"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="101"/>
-      <c r="F82" s="101"/>
-      <c r="G82" s="102"/>
-      <c r="H82" s="103"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="75"/>
+      <c r="B82" s="81"/>
+      <c r="C82" s="89"/>
+      <c r="D82" s="90"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="82"/>
+      <c r="H82" s="83"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="55"/>
     </row>
     <row r="83" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="101"/>
-      <c r="C83" s="111"/>
-      <c r="D83" s="112"/>
-      <c r="E83" s="101"/>
-      <c r="F83" s="101"/>
-      <c r="G83" s="102"/>
-      <c r="H83" s="103"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="75"/>
+      <c r="B83" s="81"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="81"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="82"/>
+      <c r="H83" s="83"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="55"/>
     </row>
     <row r="84" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="104"/>
-      <c r="C84" s="98"/>
-      <c r="D84" s="99"/>
-      <c r="E84" s="100"/>
-      <c r="F84" s="101"/>
-      <c r="G84" s="102"/>
-      <c r="H84" s="103"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="80"/>
+      <c r="F84" s="81"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="83"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="46"/>
     </row>
     <row r="85" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="101"/>
-      <c r="C85" s="98"/>
-      <c r="D85" s="99"/>
-      <c r="E85" s="100"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="102"/>
-      <c r="H85" s="103"/>
-      <c r="I85" s="66"/>
-      <c r="J85" s="75"/>
+      <c r="B85" s="81"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="80"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="82"/>
+      <c r="H85" s="83"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="55"/>
     </row>
     <row r="86" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="101"/>
-      <c r="C86" s="98"/>
-      <c r="D86" s="99"/>
-      <c r="E86" s="100"/>
-      <c r="F86" s="101"/>
-      <c r="G86" s="102"/>
-      <c r="H86" s="103"/>
-      <c r="I86" s="66"/>
-      <c r="J86" s="75"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="82"/>
+      <c r="H86" s="83"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="55"/>
     </row>
     <row r="87" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="104"/>
-      <c r="C87" s="98"/>
-      <c r="D87" s="99"/>
-      <c r="E87" s="100"/>
-      <c r="F87" s="101"/>
-      <c r="G87" s="102"/>
-      <c r="H87" s="103"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="83"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
     </row>
     <row r="88" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="104"/>
-      <c r="C88" s="98"/>
-      <c r="D88" s="99"/>
-      <c r="E88" s="100"/>
-      <c r="F88" s="101"/>
-      <c r="G88" s="102"/>
-      <c r="H88" s="103"/>
-      <c r="I88" s="66"/>
-      <c r="J88" s="66"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="82"/>
+      <c r="H88" s="83"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
     </row>
     <row r="89" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="101"/>
-      <c r="C89" s="98"/>
-      <c r="D89" s="99"/>
-      <c r="E89" s="100"/>
-      <c r="F89" s="101"/>
-      <c r="G89" s="102"/>
-      <c r="H89" s="103"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="75"/>
+      <c r="B89" s="81"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="82"/>
+      <c r="H89" s="83"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="55"/>
     </row>
     <row r="90" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="104"/>
-      <c r="C90" s="98"/>
-      <c r="D90" s="99"/>
-      <c r="E90" s="100"/>
-      <c r="F90" s="101"/>
-      <c r="G90" s="102"/>
-      <c r="H90" s="103"/>
+      <c r="B90" s="84"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="80"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="82"/>
+      <c r="H90" s="83"/>
     </row>
     <row r="91" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="104"/>
-      <c r="C91" s="98"/>
-      <c r="D91" s="99"/>
-      <c r="E91" s="100"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="102"/>
-      <c r="H91" s="103"/>
+      <c r="B91" s="84"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="80"/>
+      <c r="F91" s="81"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="83"/>
     </row>
     <row r="92" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="104"/>
-      <c r="C92" s="98"/>
-      <c r="D92" s="99"/>
-      <c r="E92" s="100"/>
-      <c r="F92" s="101"/>
-      <c r="G92" s="102"/>
-      <c r="H92" s="103"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="81"/>
+      <c r="G92" s="82"/>
+      <c r="H92" s="83"/>
     </row>
     <row r="93" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="104"/>
-      <c r="C93" s="98"/>
-      <c r="D93" s="99"/>
-      <c r="E93" s="106"/>
-      <c r="F93" s="101"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="103"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="86"/>
+      <c r="F93" s="81"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="83"/>
     </row>
     <row r="94" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="104"/>
-      <c r="C94" s="98"/>
-      <c r="D94" s="99"/>
-      <c r="E94" s="106"/>
-      <c r="F94" s="101"/>
-      <c r="G94" s="102"/>
-      <c r="H94" s="103"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="86"/>
+      <c r="F94" s="81"/>
+      <c r="G94" s="82"/>
+      <c r="H94" s="83"/>
     </row>
     <row r="95" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="104"/>
-      <c r="C95" s="98"/>
-      <c r="D95" s="99"/>
-      <c r="E95" s="106"/>
-      <c r="F95" s="101"/>
-      <c r="G95" s="102"/>
-      <c r="H95" s="103"/>
+      <c r="B95" s="84"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="82"/>
+      <c r="H95" s="83"/>
     </row>
     <row r="96" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="104"/>
-      <c r="C96" s="98"/>
-      <c r="D96" s="99"/>
-      <c r="E96" s="106"/>
-      <c r="F96" s="107"/>
-      <c r="G96" s="102"/>
-      <c r="H96" s="103"/>
+      <c r="B96" s="84"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="86"/>
+      <c r="F96" s="87"/>
+      <c r="G96" s="82"/>
+      <c r="H96" s="83"/>
     </row>
     <row r="97" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="104"/>
-      <c r="C97" s="98"/>
-      <c r="D97" s="99"/>
-      <c r="E97" s="106"/>
-      <c r="F97" s="107"/>
-      <c r="G97" s="102"/>
-      <c r="H97" s="108"/>
+      <c r="B97" s="84"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="86"/>
+      <c r="F97" s="87"/>
+      <c r="G97" s="82"/>
+      <c r="H97" s="88"/>
     </row>
     <row r="98" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="104"/>
-      <c r="C98" s="98"/>
-      <c r="D98" s="99"/>
-      <c r="E98" s="106"/>
-      <c r="F98" s="107"/>
-      <c r="G98" s="102"/>
-      <c r="H98" s="108"/>
+      <c r="B98" s="84"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="86"/>
+      <c r="F98" s="87"/>
+      <c r="G98" s="82"/>
+      <c r="H98" s="88"/>
     </row>
     <row r="99" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="104"/>
-      <c r="C99" s="111"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="106"/>
-      <c r="F99" s="107"/>
-      <c r="G99" s="102"/>
-      <c r="H99" s="108"/>
+      <c r="B99" s="84"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="86"/>
+      <c r="F99" s="87"/>
+      <c r="G99" s="82"/>
+      <c r="H99" s="88"/>
     </row>
     <row r="100" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="104"/>
-      <c r="C100" s="98"/>
-      <c r="D100" s="99"/>
-      <c r="E100" s="100"/>
-      <c r="F100" s="101"/>
-      <c r="G100" s="102"/>
-      <c r="H100" s="108"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="81"/>
+      <c r="G100" s="82"/>
+      <c r="H100" s="88"/>
     </row>
     <row r="101" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="104"/>
-      <c r="C101" s="98"/>
-      <c r="D101" s="99"/>
-      <c r="E101" s="106"/>
-      <c r="F101" s="107"/>
-      <c r="G101" s="102"/>
-      <c r="H101" s="103"/>
+      <c r="B101" s="84"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="79"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="87"/>
+      <c r="G101" s="82"/>
+      <c r="H101" s="83"/>
     </row>
     <row r="102" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="104"/>
-      <c r="C102" s="98"/>
-      <c r="D102" s="99"/>
-      <c r="E102" s="106"/>
-      <c r="F102" s="107"/>
-      <c r="G102" s="102"/>
-      <c r="H102" s="108"/>
+      <c r="B102" s="84"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="86"/>
+      <c r="F102" s="87"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="88"/>
     </row>
     <row r="103" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="104"/>
-      <c r="C103" s="109"/>
-      <c r="D103" s="110"/>
-      <c r="E103" s="101"/>
-      <c r="F103" s="101"/>
-      <c r="G103" s="102"/>
-      <c r="H103" s="103"/>
+      <c r="B103" s="84"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="90"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="82"/>
+      <c r="H103" s="83"/>
     </row>
     <row r="104" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="113"/>
-      <c r="C104" s="114"/>
-      <c r="D104" s="114"/>
-      <c r="E104" s="114"/>
-      <c r="F104" s="114"/>
-      <c r="G104" s="114"/>
-      <c r="H104" s="114"/>
+      <c r="B104" s="93"/>
+      <c r="C104" s="94"/>
+      <c r="D104" s="94"/>
+      <c r="E104" s="94"/>
+      <c r="F104" s="94"/>
+      <c r="G104" s="94"/>
+      <c r="H104" s="94"/>
     </row>
     <row r="105" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="30"/>
-      <c r="C105" s="115"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="34"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="95"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="24"/>
     </row>
     <row r="106" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="116"/>
-      <c r="C106" s="114"/>
-      <c r="D106" s="114"/>
-      <c r="E106" s="114"/>
-      <c r="F106" s="114"/>
-      <c r="G106" s="114"/>
-      <c r="H106" s="114"/>
+      <c r="B106" s="96"/>
+      <c r="C106" s="94"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="94"/>
+      <c r="F106" s="94"/>
+      <c r="G106" s="94"/>
+      <c r="H106" s="94"/>
     </row>
     <row r="107" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="30"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="34"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="24"/>
     </row>
     <row r="108" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="117"/>
-      <c r="C108" s="114"/>
-      <c r="D108" s="114"/>
-      <c r="E108" s="114"/>
-      <c r="F108" s="114"/>
-      <c r="G108" s="114"/>
-      <c r="H108" s="114"/>
+      <c r="B108" s="97"/>
+      <c r="C108" s="94"/>
+      <c r="D108" s="94"/>
+      <c r="E108" s="94"/>
+      <c r="F108" s="94"/>
+      <c r="G108" s="94"/>
+      <c r="H108" s="94"/>
     </row>
     <row r="109" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="30"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="34"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="24"/>
     </row>
     <row r="110" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="96"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="118"/>
-      <c r="H110" s="34"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="98"/>
+      <c r="H110" s="24"/>
     </row>
     <row r="111" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="30"/>
-      <c r="C111" s="119"/>
-      <c r="D111" s="114"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="120"/>
-      <c r="H111" s="120"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="99"/>
+      <c r="D111" s="94"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="100"/>
+      <c r="H111" s="100"/>
     </row>
     <row r="112" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="96"/>
-      <c r="C112" s="114"/>
-      <c r="D112" s="114"/>
-      <c r="E112" s="96"/>
-      <c r="F112" s="96"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="97"/>
+      <c r="B112" s="76"/>
+      <c r="C112" s="94"/>
+      <c r="D112" s="94"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="77"/>
     </row>
     <row r="113" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="30"/>
-      <c r="C113" s="114"/>
-      <c r="D113" s="114"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="34"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="94"/>
+      <c r="D113" s="94"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="24"/>
     </row>
     <row r="114" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="104"/>
-      <c r="C114" s="98"/>
-      <c r="D114" s="99"/>
-      <c r="E114" s="100"/>
-      <c r="F114" s="101"/>
-      <c r="G114" s="102"/>
-      <c r="H114" s="103"/>
+      <c r="B114" s="84"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="80"/>
+      <c r="F114" s="81"/>
+      <c r="G114" s="82"/>
+      <c r="H114" s="83"/>
     </row>
     <row r="115" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="104"/>
-      <c r="C115" s="98"/>
-      <c r="D115" s="99"/>
-      <c r="E115" s="100"/>
-      <c r="F115" s="101"/>
-      <c r="G115" s="102"/>
-      <c r="H115" s="103"/>
+      <c r="B115" s="84"/>
+      <c r="C115" s="78"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="80"/>
+      <c r="F115" s="81"/>
+      <c r="G115" s="82"/>
+      <c r="H115" s="83"/>
     </row>
     <row r="116" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="104"/>
-      <c r="C116" s="98"/>
-      <c r="D116" s="99"/>
-      <c r="E116" s="100"/>
-      <c r="F116" s="101"/>
-      <c r="G116" s="102"/>
-      <c r="H116" s="103"/>
+      <c r="B116" s="84"/>
+      <c r="C116" s="78"/>
+      <c r="D116" s="79"/>
+      <c r="E116" s="80"/>
+      <c r="F116" s="81"/>
+      <c r="G116" s="82"/>
+      <c r="H116" s="83"/>
     </row>
     <row r="117" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="104"/>
-      <c r="C117" s="98"/>
-      <c r="D117" s="99"/>
-      <c r="E117" s="100"/>
-      <c r="F117" s="101"/>
-      <c r="G117" s="102"/>
-      <c r="H117" s="103"/>
+      <c r="B117" s="84"/>
+      <c r="C117" s="78"/>
+      <c r="D117" s="79"/>
+      <c r="E117" s="80"/>
+      <c r="F117" s="81"/>
+      <c r="G117" s="82"/>
+      <c r="H117" s="83"/>
     </row>
     <row r="118" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="104"/>
-      <c r="C118" s="98"/>
-      <c r="D118" s="99"/>
-      <c r="E118" s="100"/>
-      <c r="F118" s="101"/>
-      <c r="G118" s="105"/>
-      <c r="H118" s="103"/>
+      <c r="B118" s="84"/>
+      <c r="C118" s="78"/>
+      <c r="D118" s="79"/>
+      <c r="E118" s="80"/>
+      <c r="F118" s="81"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="83"/>
     </row>
     <row r="119" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="104"/>
-      <c r="C119" s="98"/>
-      <c r="D119" s="99"/>
-      <c r="E119" s="106"/>
-      <c r="F119" s="101"/>
-      <c r="G119" s="105"/>
-      <c r="H119" s="103"/>
+      <c r="B119" s="84"/>
+      <c r="C119" s="78"/>
+      <c r="D119" s="79"/>
+      <c r="E119" s="86"/>
+      <c r="F119" s="81"/>
+      <c r="G119" s="85"/>
+      <c r="H119" s="83"/>
     </row>
     <row r="120" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="104"/>
-      <c r="C120" s="98"/>
-      <c r="D120" s="99"/>
-      <c r="E120" s="106"/>
-      <c r="F120" s="101"/>
-      <c r="G120" s="102"/>
-      <c r="H120" s="103"/>
+      <c r="B120" s="84"/>
+      <c r="C120" s="78"/>
+      <c r="D120" s="79"/>
+      <c r="E120" s="86"/>
+      <c r="F120" s="81"/>
+      <c r="G120" s="82"/>
+      <c r="H120" s="83"/>
     </row>
     <row r="121" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="104"/>
-      <c r="C121" s="98"/>
-      <c r="D121" s="99"/>
-      <c r="E121" s="106"/>
-      <c r="F121" s="101"/>
-      <c r="G121" s="102"/>
-      <c r="H121" s="103"/>
+      <c r="B121" s="84"/>
+      <c r="C121" s="78"/>
+      <c r="D121" s="79"/>
+      <c r="E121" s="86"/>
+      <c r="F121" s="81"/>
+      <c r="G121" s="82"/>
+      <c r="H121" s="83"/>
     </row>
     <row r="122" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="104"/>
-      <c r="C122" s="98"/>
-      <c r="D122" s="99"/>
-      <c r="E122" s="106"/>
-      <c r="F122" s="107"/>
-      <c r="G122" s="102"/>
-      <c r="H122" s="103"/>
-      <c r="I122" s="66"/>
-      <c r="J122" s="66"/>
-      <c r="K122" s="66"/>
+      <c r="B122" s="84"/>
+      <c r="C122" s="78"/>
+      <c r="D122" s="79"/>
+      <c r="E122" s="86"/>
+      <c r="F122" s="87"/>
+      <c r="G122" s="82"/>
+      <c r="H122" s="83"/>
+      <c r="I122" s="46"/>
+      <c r="J122" s="46"/>
+      <c r="K122" s="46"/>
     </row>
     <row r="123" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="101"/>
-      <c r="C123" s="98"/>
-      <c r="D123" s="99"/>
-      <c r="E123" s="106"/>
-      <c r="F123" s="107"/>
-      <c r="G123" s="102"/>
-      <c r="H123" s="108"/>
-      <c r="I123" s="75"/>
-      <c r="J123" s="66"/>
-      <c r="K123" s="75"/>
+      <c r="B123" s="81"/>
+      <c r="C123" s="78"/>
+      <c r="D123" s="79"/>
+      <c r="E123" s="86"/>
+      <c r="F123" s="87"/>
+      <c r="G123" s="82"/>
+      <c r="H123" s="88"/>
+      <c r="I123" s="55"/>
+      <c r="J123" s="46"/>
+      <c r="K123" s="55"/>
     </row>
     <row r="124" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="101"/>
-      <c r="C124" s="98"/>
-      <c r="D124" s="99"/>
-      <c r="E124" s="106"/>
-      <c r="F124" s="107"/>
-      <c r="G124" s="102"/>
-      <c r="H124" s="108"/>
-      <c r="I124" s="75"/>
-      <c r="J124" s="66"/>
-      <c r="K124" s="75"/>
+      <c r="B124" s="81"/>
+      <c r="C124" s="78"/>
+      <c r="D124" s="79"/>
+      <c r="E124" s="86"/>
+      <c r="F124" s="87"/>
+      <c r="G124" s="82"/>
+      <c r="H124" s="88"/>
+      <c r="I124" s="55"/>
+      <c r="J124" s="46"/>
+      <c r="K124" s="55"/>
     </row>
     <row r="125" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="101"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="110"/>
-      <c r="E125" s="101"/>
-      <c r="F125" s="101"/>
-      <c r="G125" s="102"/>
-      <c r="H125" s="103"/>
-      <c r="I125" s="75"/>
-      <c r="J125" s="66"/>
-      <c r="K125" s="75"/>
+      <c r="B125" s="81"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="90"/>
+      <c r="E125" s="81"/>
+      <c r="F125" s="81"/>
+      <c r="G125" s="82"/>
+      <c r="H125" s="83"/>
+      <c r="I125" s="55"/>
+      <c r="J125" s="46"/>
+      <c r="K125" s="55"/>
     </row>
     <row r="126" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="101"/>
-      <c r="C126" s="111"/>
-      <c r="D126" s="112"/>
-      <c r="E126" s="101"/>
-      <c r="F126" s="101"/>
-      <c r="G126" s="102"/>
-      <c r="H126" s="103"/>
-      <c r="I126" s="75"/>
-      <c r="J126" s="66"/>
-      <c r="K126" s="75"/>
+      <c r="B126" s="81"/>
+      <c r="C126" s="91"/>
+      <c r="D126" s="92"/>
+      <c r="E126" s="81"/>
+      <c r="F126" s="81"/>
+      <c r="G126" s="82"/>
+      <c r="H126" s="83"/>
+      <c r="I126" s="55"/>
+      <c r="J126" s="46"/>
+      <c r="K126" s="55"/>
     </row>
     <row r="127" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="104"/>
-      <c r="C127" s="98"/>
-      <c r="D127" s="99"/>
-      <c r="E127" s="100"/>
-      <c r="F127" s="101"/>
-      <c r="G127" s="102"/>
-      <c r="H127" s="103"/>
-      <c r="I127" s="75"/>
-      <c r="J127" s="66"/>
-      <c r="K127" s="66"/>
+      <c r="B127" s="84"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="79"/>
+      <c r="E127" s="80"/>
+      <c r="F127" s="81"/>
+      <c r="G127" s="82"/>
+      <c r="H127" s="83"/>
+      <c r="I127" s="55"/>
+      <c r="J127" s="46"/>
+      <c r="K127" s="46"/>
     </row>
     <row r="128" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="101"/>
-      <c r="C128" s="98"/>
-      <c r="D128" s="99"/>
-      <c r="E128" s="100"/>
-      <c r="F128" s="101"/>
-      <c r="G128" s="102"/>
-      <c r="H128" s="103"/>
-      <c r="I128" s="75"/>
-      <c r="J128" s="66"/>
-      <c r="K128" s="75"/>
+      <c r="B128" s="81"/>
+      <c r="C128" s="78"/>
+      <c r="D128" s="79"/>
+      <c r="E128" s="80"/>
+      <c r="F128" s="81"/>
+      <c r="G128" s="82"/>
+      <c r="H128" s="83"/>
+      <c r="I128" s="55"/>
+      <c r="J128" s="46"/>
+      <c r="K128" s="55"/>
     </row>
     <row r="129" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="104"/>
-      <c r="C129" s="98"/>
-      <c r="D129" s="99"/>
-      <c r="E129" s="100"/>
-      <c r="F129" s="101"/>
-      <c r="G129" s="102"/>
-      <c r="H129" s="103"/>
-      <c r="I129" s="66"/>
-      <c r="J129" s="66"/>
-      <c r="K129" s="66"/>
+      <c r="B129" s="84"/>
+      <c r="C129" s="78"/>
+      <c r="D129" s="79"/>
+      <c r="E129" s="80"/>
+      <c r="F129" s="81"/>
+      <c r="G129" s="82"/>
+      <c r="H129" s="83"/>
+      <c r="I129" s="46"/>
+      <c r="J129" s="46"/>
+      <c r="K129" s="46"/>
     </row>
     <row r="130" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="104"/>
-      <c r="C130" s="98"/>
-      <c r="D130" s="99"/>
-      <c r="E130" s="100"/>
-      <c r="F130" s="101"/>
-      <c r="G130" s="102"/>
-      <c r="H130" s="103"/>
-      <c r="I130" s="66"/>
-      <c r="J130" s="66"/>
-      <c r="K130" s="66"/>
+      <c r="B130" s="84"/>
+      <c r="C130" s="78"/>
+      <c r="D130" s="79"/>
+      <c r="E130" s="80"/>
+      <c r="F130" s="81"/>
+      <c r="G130" s="82"/>
+      <c r="H130" s="83"/>
+      <c r="I130" s="46"/>
+      <c r="J130" s="46"/>
+      <c r="K130" s="46"/>
     </row>
     <row r="131" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="104"/>
-      <c r="C131" s="98"/>
-      <c r="D131" s="99"/>
-      <c r="E131" s="100"/>
-      <c r="F131" s="101"/>
-      <c r="G131" s="102"/>
-      <c r="H131" s="103"/>
-      <c r="I131" s="66"/>
-      <c r="J131" s="66"/>
-      <c r="K131" s="66"/>
+      <c r="B131" s="84"/>
+      <c r="C131" s="78"/>
+      <c r="D131" s="79"/>
+      <c r="E131" s="80"/>
+      <c r="F131" s="81"/>
+      <c r="G131" s="82"/>
+      <c r="H131" s="83"/>
+      <c r="I131" s="46"/>
+      <c r="J131" s="46"/>
+      <c r="K131" s="46"/>
     </row>
     <row r="132" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="104"/>
-      <c r="C132" s="98"/>
-      <c r="D132" s="99"/>
-      <c r="E132" s="100"/>
-      <c r="F132" s="101"/>
-      <c r="G132" s="102"/>
-      <c r="H132" s="103"/>
-      <c r="I132" s="66"/>
-      <c r="J132" s="66"/>
-      <c r="K132" s="66"/>
+      <c r="B132" s="84"/>
+      <c r="C132" s="78"/>
+      <c r="D132" s="79"/>
+      <c r="E132" s="80"/>
+      <c r="F132" s="81"/>
+      <c r="G132" s="82"/>
+      <c r="H132" s="83"/>
+      <c r="I132" s="46"/>
+      <c r="J132" s="46"/>
+      <c r="K132" s="46"/>
     </row>
     <row r="133" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="104"/>
-      <c r="C133" s="98"/>
-      <c r="D133" s="99"/>
-      <c r="E133" s="100"/>
-      <c r="F133" s="101"/>
-      <c r="G133" s="102"/>
-      <c r="H133" s="103"/>
-      <c r="I133" s="75"/>
-      <c r="J133" s="66"/>
-      <c r="K133" s="66"/>
+      <c r="B133" s="84"/>
+      <c r="C133" s="78"/>
+      <c r="D133" s="79"/>
+      <c r="E133" s="80"/>
+      <c r="F133" s="81"/>
+      <c r="G133" s="82"/>
+      <c r="H133" s="83"/>
+      <c r="I133" s="55"/>
+      <c r="J133" s="46"/>
+      <c r="K133" s="46"/>
     </row>
     <row r="134" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="104"/>
-      <c r="C134" s="98"/>
-      <c r="D134" s="99"/>
-      <c r="E134" s="100"/>
-      <c r="F134" s="101"/>
-      <c r="G134" s="102"/>
-      <c r="H134" s="103"/>
-      <c r="I134" s="75"/>
-      <c r="J134" s="66"/>
-      <c r="K134" s="66"/>
+      <c r="B134" s="84"/>
+      <c r="C134" s="78"/>
+      <c r="D134" s="79"/>
+      <c r="E134" s="80"/>
+      <c r="F134" s="81"/>
+      <c r="G134" s="82"/>
+      <c r="H134" s="83"/>
+      <c r="I134" s="55"/>
+      <c r="J134" s="46"/>
+      <c r="K134" s="46"/>
     </row>
     <row r="135" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="104"/>
-      <c r="C135" s="98"/>
-      <c r="D135" s="99"/>
-      <c r="E135" s="106"/>
-      <c r="F135" s="101"/>
-      <c r="G135" s="105"/>
-      <c r="H135" s="103"/>
-      <c r="I135" s="66"/>
-      <c r="J135" s="66"/>
-      <c r="K135" s="66"/>
+      <c r="B135" s="84"/>
+      <c r="C135" s="78"/>
+      <c r="D135" s="79"/>
+      <c r="E135" s="86"/>
+      <c r="F135" s="81"/>
+      <c r="G135" s="85"/>
+      <c r="H135" s="83"/>
+      <c r="I135" s="46"/>
+      <c r="J135" s="46"/>
+      <c r="K135" s="46"/>
     </row>
     <row r="136" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="104"/>
-      <c r="C136" s="98"/>
-      <c r="D136" s="99"/>
-      <c r="E136" s="106"/>
-      <c r="F136" s="101"/>
-      <c r="G136" s="102"/>
-      <c r="H136" s="103"/>
-      <c r="I136" s="66"/>
-      <c r="J136" s="66"/>
-      <c r="K136" s="66"/>
+      <c r="B136" s="84"/>
+      <c r="C136" s="78"/>
+      <c r="D136" s="79"/>
+      <c r="E136" s="86"/>
+      <c r="F136" s="81"/>
+      <c r="G136" s="82"/>
+      <c r="H136" s="83"/>
+      <c r="I136" s="46"/>
+      <c r="J136" s="46"/>
+      <c r="K136" s="46"/>
     </row>
     <row r="137" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="104"/>
-      <c r="C137" s="98"/>
-      <c r="D137" s="99"/>
-      <c r="E137" s="106"/>
-      <c r="F137" s="101"/>
-      <c r="G137" s="102"/>
-      <c r="H137" s="103"/>
-      <c r="I137" s="66"/>
-      <c r="J137" s="66"/>
-      <c r="K137" s="66"/>
+      <c r="B137" s="84"/>
+      <c r="C137" s="78"/>
+      <c r="D137" s="79"/>
+      <c r="E137" s="86"/>
+      <c r="F137" s="81"/>
+      <c r="G137" s="82"/>
+      <c r="H137" s="83"/>
+      <c r="I137" s="46"/>
+      <c r="J137" s="46"/>
+      <c r="K137" s="46"/>
     </row>
     <row r="138" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="104"/>
-      <c r="C138" s="98"/>
-      <c r="D138" s="99"/>
-      <c r="E138" s="106"/>
-      <c r="F138" s="107"/>
-      <c r="G138" s="102"/>
-      <c r="H138" s="103"/>
-      <c r="I138" s="66"/>
+      <c r="B138" s="84"/>
+      <c r="C138" s="78"/>
+      <c r="D138" s="79"/>
+      <c r="E138" s="86"/>
+      <c r="F138" s="87"/>
+      <c r="G138" s="82"/>
+      <c r="H138" s="83"/>
+      <c r="I138" s="46"/>
     </row>
     <row r="139" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="104"/>
-      <c r="C139" s="98"/>
-      <c r="D139" s="99"/>
-      <c r="E139" s="106"/>
-      <c r="F139" s="107"/>
-      <c r="G139" s="102"/>
-      <c r="H139" s="108"/>
-      <c r="I139" s="66"/>
+      <c r="B139" s="84"/>
+      <c r="C139" s="78"/>
+      <c r="D139" s="79"/>
+      <c r="E139" s="86"/>
+      <c r="F139" s="87"/>
+      <c r="G139" s="82"/>
+      <c r="H139" s="88"/>
+      <c r="I139" s="46"/>
     </row>
     <row r="140" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="104"/>
-      <c r="C140" s="98"/>
-      <c r="D140" s="99"/>
-      <c r="E140" s="106"/>
-      <c r="F140" s="107"/>
-      <c r="G140" s="102"/>
-      <c r="H140" s="108"/>
-      <c r="I140" s="66"/>
+      <c r="B140" s="84"/>
+      <c r="C140" s="78"/>
+      <c r="D140" s="79"/>
+      <c r="E140" s="86"/>
+      <c r="F140" s="87"/>
+      <c r="G140" s="82"/>
+      <c r="H140" s="88"/>
+      <c r="I140" s="46"/>
     </row>
     <row r="141" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="104"/>
-      <c r="C141" s="111"/>
-      <c r="D141" s="112"/>
-      <c r="E141" s="106"/>
-      <c r="F141" s="107"/>
-      <c r="G141" s="102"/>
-      <c r="H141" s="108"/>
-      <c r="I141" s="66"/>
+      <c r="B141" s="84"/>
+      <c r="C141" s="91"/>
+      <c r="D141" s="92"/>
+      <c r="E141" s="86"/>
+      <c r="F141" s="87"/>
+      <c r="G141" s="82"/>
+      <c r="H141" s="88"/>
+      <c r="I141" s="46"/>
     </row>
     <row r="142" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="104"/>
-      <c r="C142" s="98"/>
-      <c r="D142" s="99"/>
-      <c r="E142" s="106"/>
-      <c r="F142" s="107"/>
-      <c r="G142" s="102"/>
-      <c r="H142" s="103"/>
-      <c r="I142" s="66"/>
+      <c r="B142" s="84"/>
+      <c r="C142" s="78"/>
+      <c r="D142" s="79"/>
+      <c r="E142" s="86"/>
+      <c r="F142" s="87"/>
+      <c r="G142" s="82"/>
+      <c r="H142" s="83"/>
+      <c r="I142" s="46"/>
     </row>
     <row r="143" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="104"/>
-      <c r="C143" s="98"/>
-      <c r="D143" s="99"/>
-      <c r="E143" s="106"/>
-      <c r="F143" s="107"/>
-      <c r="G143" s="102"/>
-      <c r="H143" s="108"/>
-      <c r="I143" s="75"/>
+      <c r="B143" s="84"/>
+      <c r="C143" s="78"/>
+      <c r="D143" s="79"/>
+      <c r="E143" s="86"/>
+      <c r="F143" s="87"/>
+      <c r="G143" s="82"/>
+      <c r="H143" s="88"/>
+      <c r="I143" s="55"/>
     </row>
     <row r="144" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="104"/>
-      <c r="C144" s="109"/>
-      <c r="D144" s="110"/>
-      <c r="E144" s="101"/>
-      <c r="F144" s="101"/>
-      <c r="G144" s="102"/>
-      <c r="H144" s="103"/>
-      <c r="I144" s="66"/>
+      <c r="B144" s="84"/>
+      <c r="C144" s="89"/>
+      <c r="D144" s="90"/>
+      <c r="E144" s="81"/>
+      <c r="F144" s="81"/>
+      <c r="G144" s="82"/>
+      <c r="H144" s="83"/>
+      <c r="I144" s="46"/>
     </row>
     <row r="145" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="25"/>
-      <c r="C145" s="121"/>
-      <c r="D145" s="25"/>
-      <c r="E145" s="122"/>
-      <c r="F145" s="122"/>
-      <c r="G145" s="123"/>
-      <c r="H145" s="124"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="101"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="102"/>
+      <c r="F145" s="102"/>
+      <c r="G145" s="103"/>
+      <c r="H145" s="104"/>
     </row>
     <row r="146" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="25"/>
-      <c r="C146" s="121"/>
-      <c r="D146" s="25"/>
-      <c r="E146" s="122"/>
-      <c r="F146" s="122"/>
-      <c r="G146" s="123"/>
-      <c r="H146" s="124"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="101"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="102"/>
+      <c r="F146" s="102"/>
+      <c r="G146" s="103"/>
+      <c r="H146" s="104"/>
     </row>
     <row r="147" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="25"/>
-      <c r="C147" s="121"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="122"/>
-      <c r="F147" s="122"/>
-      <c r="G147" s="123"/>
-      <c r="H147" s="124"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="101"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="102"/>
+      <c r="F147" s="102"/>
+      <c r="G147" s="103"/>
+      <c r="H147" s="104"/>
     </row>
     <row r="148" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="25"/>
-      <c r="C148" s="121"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="122"/>
-      <c r="F148" s="122"/>
-      <c r="G148" s="123"/>
-      <c r="H148" s="124"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="101"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="102"/>
+      <c r="F148" s="102"/>
+      <c r="G148" s="103"/>
+      <c r="H148" s="104"/>
     </row>
     <row r="149" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="25"/>
-      <c r="C149" s="121"/>
-      <c r="D149" s="25"/>
-      <c r="E149" s="122"/>
-      <c r="F149" s="122"/>
-      <c r="G149" s="123"/>
-      <c r="H149" s="124"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="101"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="102"/>
+      <c r="F149" s="102"/>
+      <c r="G149" s="103"/>
+      <c r="H149" s="104"/>
     </row>
     <row r="150" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="25"/>
-      <c r="C150" s="121"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="122"/>
-      <c r="F150" s="122"/>
-      <c r="G150" s="123"/>
-      <c r="H150" s="124"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="101"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="102"/>
+      <c r="F150" s="102"/>
+      <c r="G150" s="103"/>
+      <c r="H150" s="104"/>
     </row>
     <row r="151" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="25"/>
-      <c r="C151" s="121"/>
-      <c r="D151" s="25"/>
-      <c r="E151" s="122"/>
-      <c r="F151" s="122"/>
-      <c r="G151" s="123"/>
-      <c r="H151" s="124"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="101"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="102"/>
+      <c r="F151" s="102"/>
+      <c r="G151" s="103"/>
+      <c r="H151" s="104"/>
     </row>
     <row r="152" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="25"/>
-      <c r="C152" s="121"/>
-      <c r="D152" s="25"/>
-      <c r="E152" s="122"/>
-      <c r="F152" s="122"/>
-      <c r="G152" s="123"/>
-      <c r="H152" s="124"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="101"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="102"/>
+      <c r="F152" s="102"/>
+      <c r="G152" s="103"/>
+      <c r="H152" s="104"/>
     </row>
     <row r="153" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="25"/>
-      <c r="C153" s="121"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="122"/>
-      <c r="F153" s="122"/>
-      <c r="G153" s="123"/>
-      <c r="H153" s="124"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="101"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="102"/>
+      <c r="F153" s="102"/>
+      <c r="G153" s="103"/>
+      <c r="H153" s="104"/>
     </row>
     <row r="154" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="25"/>
-      <c r="C154" s="121"/>
-      <c r="D154" s="25"/>
-      <c r="E154" s="122"/>
-      <c r="F154" s="122"/>
-      <c r="G154" s="123"/>
-      <c r="H154" s="124"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="101"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="102"/>
+      <c r="F154" s="102"/>
+      <c r="G154" s="103"/>
+      <c r="H154" s="104"/>
     </row>
     <row r="155" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="25"/>
-      <c r="C155" s="121"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="122"/>
-      <c r="F155" s="122"/>
-      <c r="G155" s="123"/>
-      <c r="H155" s="124"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="101"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="102"/>
+      <c r="F155" s="102"/>
+      <c r="G155" s="103"/>
+      <c r="H155" s="104"/>
     </row>
     <row r="156" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="25"/>
-      <c r="C156" s="121"/>
-      <c r="D156" s="25"/>
-      <c r="E156" s="122"/>
-      <c r="F156" s="122"/>
-      <c r="G156" s="123"/>
-      <c r="H156" s="124"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="101"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="102"/>
+      <c r="F156" s="102"/>
+      <c r="G156" s="103"/>
+      <c r="H156" s="104"/>
     </row>
     <row r="157" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="25"/>
-      <c r="C157" s="121"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="122"/>
-      <c r="F157" s="122"/>
-      <c r="G157" s="123"/>
-      <c r="H157" s="124"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="101"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="102"/>
+      <c r="F157" s="102"/>
+      <c r="G157" s="103"/>
+      <c r="H157" s="104"/>
     </row>
     <row r="158" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="25"/>
-      <c r="C158" s="121"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="122"/>
-      <c r="F158" s="122"/>
-      <c r="G158" s="123"/>
-      <c r="H158" s="124"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="101"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="102"/>
+      <c r="F158" s="102"/>
+      <c r="G158" s="103"/>
+      <c r="H158" s="104"/>
     </row>
     <row r="159" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="25"/>
-      <c r="C159" s="121"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="122"/>
-      <c r="F159" s="122"/>
-      <c r="G159" s="123"/>
-      <c r="H159" s="124"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="101"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="102"/>
+      <c r="F159" s="102"/>
+      <c r="G159" s="103"/>
+      <c r="H159" s="104"/>
     </row>
     <row r="160" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="25"/>
-      <c r="C160" s="121"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="122"/>
-      <c r="F160" s="122"/>
-      <c r="G160" s="123"/>
-      <c r="H160" s="124"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="101"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="102"/>
+      <c r="F160" s="102"/>
+      <c r="G160" s="103"/>
+      <c r="H160" s="104"/>
     </row>
     <row r="161" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="25"/>
-      <c r="C161" s="121"/>
-      <c r="D161" s="25"/>
-      <c r="E161" s="122"/>
-      <c r="F161" s="122"/>
-      <c r="G161" s="123"/>
-      <c r="H161" s="124"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="101"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="102"/>
+      <c r="F161" s="102"/>
+      <c r="G161" s="103"/>
+      <c r="H161" s="104"/>
     </row>
     <row r="162" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="25"/>
-      <c r="C162" s="121"/>
-      <c r="D162" s="25"/>
-      <c r="E162" s="122"/>
-      <c r="F162" s="122"/>
-      <c r="G162" s="123"/>
-      <c r="H162" s="124"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="101"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="102"/>
+      <c r="F162" s="102"/>
+      <c r="G162" s="103"/>
+      <c r="H162" s="104"/>
     </row>
     <row r="163" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="25"/>
-      <c r="C163" s="121"/>
-      <c r="D163" s="25"/>
-      <c r="E163" s="122"/>
-      <c r="F163" s="122"/>
-      <c r="G163" s="123"/>
-      <c r="H163" s="124"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="101"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="102"/>
+      <c r="F163" s="102"/>
+      <c r="G163" s="103"/>
+      <c r="H163" s="104"/>
     </row>
     <row r="164" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="25"/>
-      <c r="C164" s="121"/>
-      <c r="D164" s="25"/>
-      <c r="E164" s="122"/>
-      <c r="F164" s="122"/>
-      <c r="G164" s="123"/>
-      <c r="H164" s="124"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="101"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="102"/>
+      <c r="F164" s="102"/>
+      <c r="G164" s="103"/>
+      <c r="H164" s="104"/>
     </row>
     <row r="165" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="25"/>
-      <c r="C165" s="121"/>
-      <c r="D165" s="25"/>
-      <c r="E165" s="122"/>
-      <c r="F165" s="122"/>
-      <c r="G165" s="123"/>
-      <c r="H165" s="124"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="101"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="102"/>
+      <c r="F165" s="102"/>
+      <c r="G165" s="103"/>
+      <c r="H165" s="104"/>
     </row>
     <row r="166" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="25"/>
-      <c r="C166" s="121"/>
-      <c r="D166" s="25"/>
-      <c r="E166" s="122"/>
-      <c r="F166" s="122"/>
-      <c r="G166" s="123"/>
-      <c r="H166" s="124"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="101"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="102"/>
+      <c r="F166" s="102"/>
+      <c r="G166" s="103"/>
+      <c r="H166" s="104"/>
     </row>
     <row r="167" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="25"/>
-      <c r="C167" s="121"/>
-      <c r="D167" s="25"/>
-      <c r="E167" s="122"/>
-      <c r="F167" s="122"/>
-      <c r="G167" s="123"/>
-      <c r="H167" s="124"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="101"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="102"/>
+      <c r="F167" s="102"/>
+      <c r="G167" s="103"/>
+      <c r="H167" s="104"/>
     </row>
     <row r="168" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="25"/>
-      <c r="C168" s="121"/>
-      <c r="D168" s="25"/>
-      <c r="E168" s="122"/>
-      <c r="F168" s="122"/>
-      <c r="G168" s="123"/>
-      <c r="H168" s="124"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="101"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="102"/>
+      <c r="F168" s="102"/>
+      <c r="G168" s="103"/>
+      <c r="H168" s="104"/>
     </row>
     <row r="169" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="25"/>
-      <c r="C169" s="121"/>
-      <c r="D169" s="25"/>
-      <c r="E169" s="122"/>
-      <c r="F169" s="122"/>
-      <c r="G169" s="123"/>
-      <c r="H169" s="124"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="101"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="102"/>
+      <c r="F169" s="102"/>
+      <c r="G169" s="103"/>
+      <c r="H169" s="104"/>
     </row>
     <row r="170" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="25"/>
-      <c r="C170" s="121"/>
-      <c r="D170" s="25"/>
-      <c r="E170" s="122"/>
-      <c r="F170" s="122"/>
-      <c r="G170" s="123"/>
-      <c r="H170" s="124"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="101"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="102"/>
+      <c r="F170" s="102"/>
+      <c r="G170" s="103"/>
+      <c r="H170" s="104"/>
     </row>
     <row r="171" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="25"/>
-      <c r="C171" s="121"/>
-      <c r="D171" s="25"/>
-      <c r="E171" s="122"/>
-      <c r="F171" s="122"/>
-      <c r="G171" s="123"/>
-      <c r="H171" s="124"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="101"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="102"/>
+      <c r="F171" s="102"/>
+      <c r="G171" s="103"/>
+      <c r="H171" s="104"/>
     </row>
     <row r="172" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="25"/>
-      <c r="C172" s="121"/>
-      <c r="D172" s="25"/>
-      <c r="E172" s="122"/>
-      <c r="F172" s="122"/>
-      <c r="G172" s="123"/>
-      <c r="H172" s="124"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="101"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="102"/>
+      <c r="F172" s="102"/>
+      <c r="G172" s="103"/>
+      <c r="H172" s="104"/>
     </row>
     <row r="173" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="25"/>
-      <c r="C173" s="121"/>
-      <c r="D173" s="25"/>
-      <c r="E173" s="122"/>
-      <c r="F173" s="122"/>
-      <c r="G173" s="123"/>
-      <c r="H173" s="124"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="101"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="102"/>
+      <c r="F173" s="102"/>
+      <c r="G173" s="103"/>
+      <c r="H173" s="104"/>
     </row>
     <row r="174" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="25"/>
-      <c r="C174" s="121"/>
-      <c r="D174" s="25"/>
-      <c r="E174" s="122"/>
-      <c r="F174" s="122"/>
-      <c r="G174" s="123"/>
-      <c r="H174" s="124"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="101"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="102"/>
+      <c r="F174" s="102"/>
+      <c r="G174" s="103"/>
+      <c r="H174" s="104"/>
     </row>
     <row r="175" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="25"/>
-      <c r="C175" s="121"/>
-      <c r="D175" s="25"/>
-      <c r="E175" s="122"/>
-      <c r="F175" s="122"/>
-      <c r="G175" s="123"/>
-      <c r="H175" s="124"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="101"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="102"/>
+      <c r="F175" s="102"/>
+      <c r="G175" s="103"/>
+      <c r="H175" s="104"/>
     </row>
     <row r="176" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="25"/>
-      <c r="C176" s="121"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="122"/>
-      <c r="F176" s="122"/>
-      <c r="G176" s="123"/>
-      <c r="H176" s="124"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="101"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="102"/>
+      <c r="F176" s="102"/>
+      <c r="G176" s="103"/>
+      <c r="H176" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="C5:D7"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/standard.xlsx
+++ b/templates/standard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,30 @@
   <si>
     <t>安装费</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢配件单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢法兰单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球铁配件单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球铁法兰单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢配件单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢法兰单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1010,6 +1034,9 @@
     <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="17" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1072,9 +1099,6 @@
     </xf>
     <xf numFmtId="176" fontId="15" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1379,19 +1403,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
@@ -1410,33 +1434,33 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109" t="s">
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="111" t="s">
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="112" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="114"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1485,7 @@
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="112"/>
+      <c r="L5" s="113"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -4474,8 +4498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5061,17 +5085,19 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
       <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="J1" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="K1" s="18"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
@@ -5088,24 +5114,28 @@
       <c r="G2" s="23"/>
       <c r="H2" s="24"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="J2" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="K2" s="18"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="J3" s="32" t="s">
+        <v>36</v>
+      </c>
       <c r="K3" s="18"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -5125,7 +5155,9 @@
         <v>20</v>
       </c>
       <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="J4" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="K4" s="18"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
@@ -5133,18 +5165,20 @@
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="30"/>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="121"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="31"/>
       <c r="F5" s="36"/>
-      <c r="G5" s="124" t="s">
+      <c r="G5" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="125"/>
+      <c r="H5" s="126"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="32"/>
+      <c r="J5" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="K5" s="18"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -5154,22 +5188,24 @@
       <c r="B6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
       <c r="E6" s="34" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="126" t="s">
+      <c r="G6" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="128" t="s">
+      <c r="H6" s="129" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="J6" s="32" t="s">
+        <v>39</v>
+      </c>
       <c r="K6" s="18"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
@@ -5177,12 +5213,12 @@
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="129"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="130"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
@@ -5370,7 +5406,7 @@
       <c r="C24" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="130"/>
+      <c r="D24" s="109"/>
       <c r="E24" s="41" t="s">
         <v>29</v>
       </c>
@@ -5386,7 +5422,7 @@
       <c r="C25" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="130">
+      <c r="D25" s="109">
         <v>0.05</v>
       </c>
       <c r="E25" s="41" t="s">
@@ -5405,7 +5441,7 @@
       <c r="C26" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="130"/>
+      <c r="D26" s="109"/>
       <c r="E26" s="41" t="s">
         <v>29</v>
       </c>
@@ -5425,7 +5461,7 @@
       <c r="C27" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="130">
+      <c r="D27" s="109">
         <v>0.15</v>
       </c>
       <c r="E27" s="41" t="s">

--- a/templates/standard.xlsx
+++ b/templates/standard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,15 +350,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>球铁法兰单价</t>
+    <t>304不锈钢配件单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不锈钢配件单价</t>
+    <t>304不锈钢法兰单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不锈钢法兰单价</t>
+    <t>316不锈钢配件单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>316不锈钢法兰单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4499,7 +4503,7 @@
   <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5098,7 +5102,9 @@
       <c r="J1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="18"/>
+      <c r="K1" s="18">
+        <v>7500</v>
+      </c>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
     </row>
@@ -5117,7 +5123,9 @@
       <c r="J2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="18">
+        <v>13000</v>
+      </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
     </row>
@@ -5134,9 +5142,11 @@
       <c r="H3" s="121"/>
       <c r="I3" s="18"/>
       <c r="J3" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="K3" s="18">
+        <v>30000</v>
+      </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
@@ -5156,9 +5166,11 @@
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="K4" s="18">
+        <v>55000</v>
+      </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
@@ -5177,9 +5189,11 @@
       <c r="H5" s="126"/>
       <c r="I5" s="18"/>
       <c r="J5" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="K5" s="18">
+        <v>50000</v>
+      </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
     </row>
@@ -5204,9 +5218,11 @@
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="K6" s="18">
+        <v>80000</v>
+      </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
@@ -5220,8 +5236,12 @@
       <c r="G7" s="128"/>
       <c r="H7" s="130"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="J7" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="18">
+        <v>9000</v>
+      </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
